--- a/data/Resultado.xlsx
+++ b/data/Resultado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slb001-my.sharepoint.com/personal/jquintero27_slb_com/Documents/SLB/PROYECTO LIDER/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C42D8A4-4722-4F31-9566-AF459A36A828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_48D64CE2F91C9AAACD4E7256275BDA16F6C99914" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6BA2191-15E8-4A76-84A5-912DAB41F0AB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,12 @@
     <sheet name="Reporte" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$N$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reporte!$A$1:$H$55</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="237">
   <si>
     <t>ID</t>
   </si>
@@ -51,124 +47,112 @@
     <t>Company Code</t>
   </si>
   <si>
-    <t>PR767255</t>
-  </si>
-  <si>
-    <t>WShang1</t>
+    <t>PR788277</t>
+  </si>
+  <si>
+    <t>NDINGER</t>
   </si>
   <si>
     <t>CAMERON NAM</t>
   </si>
   <si>
+    <t>PNP_US40 (OneSubsea LLC)</t>
+  </si>
+  <si>
+    <t>PR788589</t>
+  </si>
+  <si>
+    <t>CLong4</t>
+  </si>
+  <si>
     <t>PNP_US10 (Cameron Intl Corp)</t>
   </si>
   <si>
-    <t>PR766890</t>
+    <t>PR788561</t>
+  </si>
+  <si>
+    <t>CPwhittaker</t>
+  </si>
+  <si>
+    <t>PR788458</t>
+  </si>
+  <si>
+    <t>CVidrine2</t>
+  </si>
+  <si>
+    <t>PR788622</t>
+  </si>
+  <si>
+    <t>PR788657</t>
+  </si>
+  <si>
+    <t>BLEBLANC5</t>
+  </si>
+  <si>
+    <t>PR788451</t>
   </si>
   <si>
     <t>KMartinez13</t>
   </si>
   <si>
-    <t>PR766470</t>
-  </si>
-  <si>
-    <t>WSACKMANN</t>
-  </si>
-  <si>
-    <t>PR766480</t>
-  </si>
-  <si>
-    <t>PR766492</t>
-  </si>
-  <si>
-    <t>PR766526</t>
-  </si>
-  <si>
-    <t>PR766534</t>
-  </si>
-  <si>
-    <t>PR766842</t>
-  </si>
-  <si>
-    <t>KHodges</t>
-  </si>
-  <si>
-    <t>PR766516</t>
-  </si>
-  <si>
-    <t>TBenham</t>
-  </si>
-  <si>
-    <t>PR766830</t>
-  </si>
-  <si>
-    <t>PR766545</t>
-  </si>
-  <si>
-    <t>PR766768</t>
-  </si>
-  <si>
-    <t>PR766554</t>
-  </si>
-  <si>
-    <t>PR766563</t>
-  </si>
-  <si>
-    <t>PR766732</t>
-  </si>
-  <si>
-    <t>PR766575</t>
-  </si>
-  <si>
-    <t>PR766682</t>
-  </si>
-  <si>
-    <t>PR766596</t>
-  </si>
-  <si>
-    <t>LKiehm</t>
-  </si>
-  <si>
-    <t>PR766706</t>
-  </si>
-  <si>
-    <t>PR766094</t>
-  </si>
-  <si>
-    <t>MPENA15</t>
-  </si>
-  <si>
-    <t>PR766216</t>
-  </si>
-  <si>
-    <t>PR766185</t>
-  </si>
-  <si>
-    <t>TMACHADO4</t>
-  </si>
-  <si>
-    <t>PR766320</t>
-  </si>
-  <si>
-    <t>PR766278</t>
-  </si>
-  <si>
-    <t>PR766448</t>
-  </si>
-  <si>
-    <t>RAHRENS2</t>
-  </si>
-  <si>
-    <t>PR766435</t>
-  </si>
-  <si>
-    <t>PR762313</t>
-  </si>
-  <si>
-    <t>PR766456</t>
-  </si>
-  <si>
-    <t>PR767179</t>
+    <t>PR788425</t>
+  </si>
+  <si>
+    <t>SMcfadyen</t>
+  </si>
+  <si>
+    <t>PR788665</t>
+  </si>
+  <si>
+    <t>GMORENO20</t>
+  </si>
+  <si>
+    <t>PR788359</t>
+  </si>
+  <si>
+    <t>PR788347</t>
+  </si>
+  <si>
+    <t>MGALLEGOS6</t>
+  </si>
+  <si>
+    <t>PR788346</t>
+  </si>
+  <si>
+    <t>KYOUNG3</t>
+  </si>
+  <si>
+    <t>PR788330</t>
+  </si>
+  <si>
+    <t>PR788181</t>
+  </si>
+  <si>
+    <t>PR788033</t>
+  </si>
+  <si>
+    <t>PR788054</t>
+  </si>
+  <si>
+    <t>KSIMON4</t>
+  </si>
+  <si>
+    <t>PR788148</t>
+  </si>
+  <si>
+    <t>JBROUSSARD12</t>
+  </si>
+  <si>
+    <t>PR788151</t>
+  </si>
+  <si>
+    <t>PKimball</t>
+  </si>
+  <si>
+    <t>PR788180</t>
+  </si>
+  <si>
+    <t>PR788719</t>
   </si>
   <si>
     <t>VAburto</t>
@@ -180,40 +164,55 @@
     <t>PNP_MX10 (Cameron de Mexico)</t>
   </si>
   <si>
-    <t>PR766398</t>
-  </si>
-  <si>
-    <t>PR766175</t>
-  </si>
-  <si>
-    <t>LCampos9</t>
-  </si>
-  <si>
-    <t>PR767107</t>
-  </si>
-  <si>
-    <t>NSCOTT4</t>
-  </si>
-  <si>
-    <t>PNP_CA22 (OneSubsea Canada ULC)</t>
-  </si>
-  <si>
-    <t>PR767046</t>
-  </si>
-  <si>
-    <t>PR767018</t>
-  </si>
-  <si>
-    <t>PR766655</t>
-  </si>
-  <si>
-    <t>JBENNETT16</t>
+    <t>PR788652</t>
+  </si>
+  <si>
+    <t>LLEAL7</t>
+  </si>
+  <si>
+    <t>PR788732</t>
+  </si>
+  <si>
+    <t>PR788011</t>
+  </si>
+  <si>
+    <t>PR788524</t>
+  </si>
+  <si>
+    <t>PR788598</t>
+  </si>
+  <si>
+    <t>EMunoz14</t>
+  </si>
+  <si>
+    <t>PR788229</t>
+  </si>
+  <si>
+    <t>PR782618</t>
+  </si>
+  <si>
+    <t>OCARMONA2</t>
+  </si>
+  <si>
+    <t>PR787970</t>
+  </si>
+  <si>
+    <t>MJOSEPH3</t>
   </si>
   <si>
     <t>PNP_CA10 (Schlumberger Canada LTD)</t>
   </si>
   <si>
-    <t>PR766717</t>
+    <t>PR788621</t>
+  </si>
+  <si>
+    <t>MTRAN14</t>
+  </si>
+  <si>
+    <t>PR788502</t>
+  </si>
+  <si>
+    <t>PR787961</t>
   </si>
   <si>
     <t>MMORAES5</t>
@@ -222,85 +221,88 @@
     <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
   </si>
   <si>
-    <t>PR766478</t>
-  </si>
-  <si>
-    <t>LSantos87</t>
-  </si>
-  <si>
-    <t>PR766507</t>
-  </si>
-  <si>
-    <t>KOliveira9</t>
-  </si>
-  <si>
-    <t>PR766519</t>
-  </si>
-  <si>
-    <t>VMELLO4</t>
-  </si>
-  <si>
-    <t>PR765063</t>
-  </si>
-  <si>
-    <t>LJuliao</t>
-  </si>
-  <si>
-    <t>PR767086</t>
-  </si>
-  <si>
-    <t>LAssis3</t>
-  </si>
-  <si>
-    <t>PR766538</t>
-  </si>
-  <si>
-    <t>PR766693</t>
-  </si>
-  <si>
-    <t>PR766957</t>
-  </si>
-  <si>
-    <t>YBernardo2</t>
-  </si>
-  <si>
-    <t>PR766539</t>
-  </si>
-  <si>
-    <t>PR766576</t>
-  </si>
-  <si>
-    <t>PR766587</t>
-  </si>
-  <si>
-    <t>PR766568</t>
-  </si>
-  <si>
-    <t>LFigueiredo5</t>
-  </si>
-  <si>
-    <t>PR766613</t>
-  </si>
-  <si>
-    <t>PR766661</t>
-  </si>
-  <si>
-    <t>PR766688</t>
-  </si>
-  <si>
-    <t>SSERIANI</t>
-  </si>
-  <si>
-    <t>PR766461</t>
-  </si>
-  <si>
-    <t>PR766389</t>
-  </si>
-  <si>
-    <t>PRibeiro3</t>
-  </si>
-  <si>
-    <t>PR766328</t>
+    <t>PR788001</t>
+  </si>
+  <si>
+    <t>VCaldas2</t>
+  </si>
+  <si>
+    <t>PR787981</t>
+  </si>
+  <si>
+    <t>SFELIPE</t>
+  </si>
+  <si>
+    <t>PR788090</t>
+  </si>
+  <si>
+    <t>LSantos55</t>
+  </si>
+  <si>
+    <t>PR787967</t>
+  </si>
+  <si>
+    <t>PR788170</t>
+  </si>
+  <si>
+    <t>VRAMOS3</t>
+  </si>
+  <si>
+    <t>PR788329</t>
+  </si>
+  <si>
+    <t>LMorais2</t>
+  </si>
+  <si>
+    <t>PR788225</t>
+  </si>
+  <si>
+    <t>PR782679</t>
+  </si>
+  <si>
+    <t>LRaggasine</t>
+  </si>
+  <si>
+    <t>PR788361</t>
+  </si>
+  <si>
+    <t>PR788344</t>
+  </si>
+  <si>
+    <t>VLOCATELLI</t>
+  </si>
+  <si>
+    <t>PR788413</t>
+  </si>
+  <si>
+    <t>SVICENTE2</t>
+  </si>
+  <si>
+    <t>PR788434</t>
+  </si>
+  <si>
+    <t>PR788439</t>
+  </si>
+  <si>
+    <t>PR788364</t>
+  </si>
+  <si>
+    <t>DSIMOES2</t>
+  </si>
+  <si>
+    <t>PR775788</t>
+  </si>
+  <si>
+    <t>CPaula</t>
+  </si>
+  <si>
+    <t>PR788069</t>
+  </si>
+  <si>
+    <t>BMARQUES</t>
+  </si>
+  <si>
+    <t>PR788038</t>
   </si>
   <si>
     <t>Unnamed: 0</t>
@@ -339,379 +341,397 @@
     <t>Days Created</t>
   </si>
   <si>
-    <t>Wanru Shang</t>
+    <t>Nicole Dinger</t>
   </si>
   <si>
     <t>Submitted</t>
   </si>
   <si>
-    <t>Wireless Earphone</t>
-  </si>
-  <si>
-    <t>$198.49 USD</t>
+    <t>Heritage Invoice 19680426 maint</t>
+  </si>
+  <si>
+    <t>$2,770.41 USD</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Cynthia Long</t>
+  </si>
+  <si>
+    <t>B&amp;C 45372</t>
+  </si>
+  <si>
+    <t>$3,127.50 USD</t>
+  </si>
+  <si>
+    <t>Christina Pendarvis-Whittaker</t>
+  </si>
+  <si>
+    <t>Johnson Crating Quote 7220</t>
+  </si>
+  <si>
+    <t>$6,074.17 USD</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>Carl Vidrine</t>
+  </si>
+  <si>
+    <t>Enerpac MM1500i, Internal Mount Flange Facing Machine</t>
+  </si>
+  <si>
+    <t>$73,735.06 USD</t>
+  </si>
+  <si>
+    <t>Johnson Crating Quote 7221</t>
+  </si>
+  <si>
+    <t>$8,113.44 USD</t>
+  </si>
+  <si>
+    <t>Barry Leblanc</t>
+  </si>
+  <si>
+    <t>quote# Q00G3S2N - Cable Cutters - Wesco</t>
+  </si>
+  <si>
+    <t>$6,750.00 USD</t>
+  </si>
+  <si>
     <t>Kimberly Martinez</t>
   </si>
   <si>
-    <t>CHEMSTATION #PIT-AR0000075</t>
-  </si>
-  <si>
-    <t>$1,092.00 USD</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>William Sackmann</t>
-  </si>
-  <si>
-    <t>#1771B-NAM</t>
-  </si>
-  <si>
-    <t>$3,600.00 USD</t>
-  </si>
-  <si>
-    <t>#1772A-NAM</t>
-  </si>
-  <si>
-    <t>$4,800.00 USD</t>
-  </si>
-  <si>
-    <t>#1772B-NAM</t>
-  </si>
-  <si>
-    <t>#1773-NAM</t>
-  </si>
-  <si>
-    <t>#1774A-NAM</t>
-  </si>
-  <si>
-    <t>KELLY HODGES</t>
-  </si>
-  <si>
-    <t>SUN RUBBER 081723</t>
-  </si>
-  <si>
-    <t>$1,238.00 USD</t>
-  </si>
-  <si>
-    <t>Tammy Benham</t>
-  </si>
-  <si>
-    <t>Fastenal Quote Number: 120187</t>
-  </si>
-  <si>
-    <t>$523.13 USD</t>
-  </si>
-  <si>
-    <t>SUN RUBBER 081713</t>
-  </si>
-  <si>
-    <t>$182.00 USD</t>
-  </si>
-  <si>
-    <t>#1774B-NAM</t>
-  </si>
-  <si>
-    <t>TRI-STATE 601243</t>
-  </si>
-  <si>
-    <t>$1,400.43 USD</t>
-  </si>
-  <si>
-    <t>#1775A-NAM</t>
-  </si>
-  <si>
-    <t>#1775B-NAM</t>
-  </si>
-  <si>
-    <t>TRI-STATE 601241</t>
-  </si>
-  <si>
-    <t>$174.51 USD</t>
-  </si>
-  <si>
-    <t>McMaster's Order for KAI</t>
-  </si>
-  <si>
-    <t>$39.40 USD</t>
-  </si>
-  <si>
-    <t>TRI-STATE 601264</t>
-  </si>
-  <si>
-    <t>$489.36 USD</t>
-  </si>
-  <si>
-    <t>LAURA KIEHM</t>
-  </si>
-  <si>
-    <t>Staples Office Supplies</t>
-  </si>
-  <si>
-    <t>$869.34 USD</t>
-  </si>
-  <si>
-    <t>TRI-STATE 601240</t>
-  </si>
-  <si>
-    <t>$348.84 USD</t>
-  </si>
-  <si>
-    <t>Marilynn Pena</t>
-  </si>
-  <si>
-    <t>QC SUPPLIES 1126</t>
-  </si>
-  <si>
-    <t>$77.49 USD</t>
-  </si>
-  <si>
-    <t>STAPLES QUOTE-CHAIR &amp; CREAMER</t>
-  </si>
-  <si>
-    <t>$594.50 USD</t>
-  </si>
-  <si>
-    <t>Thiago Santos Machado</t>
-  </si>
-  <si>
-    <t>Cameron International Corp.-Shreveport 11.24.2025</t>
-  </si>
-  <si>
-    <t>$2,917.20 USD</t>
-  </si>
-  <si>
-    <t>JMP #EODS017101</t>
-  </si>
-  <si>
-    <t>$4,380.00 USD</t>
-  </si>
-  <si>
-    <t>TRI-STATE 601135</t>
-  </si>
-  <si>
-    <t>$957.46 USD</t>
-  </si>
-  <si>
-    <t>Robert Ahrens</t>
-  </si>
-  <si>
-    <t>134705 Central Machine &amp; Pump</t>
-  </si>
-  <si>
-    <t>$250.00 USD</t>
-  </si>
-  <si>
-    <t>#1170-NAM</t>
-  </si>
-  <si>
-    <t>GRADE 11 AWARDS</t>
-  </si>
-  <si>
-    <t>$489.00 USD</t>
-  </si>
-  <si>
-    <t>#1771A-NAM</t>
+    <t>STAPLES #235376861</t>
+  </si>
+  <si>
+    <t>$370.99 USD</t>
+  </si>
+  <si>
+    <t>SCOTT MCFADYEN</t>
+  </si>
+  <si>
+    <t>CALIBRATION SERVICES</t>
+  </si>
+  <si>
+    <t>$2,365.00 USD</t>
+  </si>
+  <si>
+    <t>Guadalupe Moreno</t>
+  </si>
+  <si>
+    <t>P&amp;W - 0357901</t>
+  </si>
+  <si>
+    <t>$766.10 USD</t>
+  </si>
+  <si>
+    <t>CDW #PRRM193</t>
+  </si>
+  <si>
+    <t>$76.11 USD</t>
+  </si>
+  <si>
+    <t>Miguel Gallegos</t>
+  </si>
+  <si>
+    <t>ORDED 118606 - TX-2 1-7/16" 6pt Ratchet Link</t>
+  </si>
+  <si>
+    <t>$3,575.00 USD</t>
+  </si>
+  <si>
+    <t>Kevin Young</t>
+  </si>
+  <si>
+    <t>452 90D BACK UP RING</t>
+  </si>
+  <si>
+    <t>$2,085.00 USD</t>
+  </si>
+  <si>
+    <t>$1,390.00 USD</t>
+  </si>
+  <si>
+    <t>AIRGAS #5520893308</t>
+  </si>
+  <si>
+    <t>$274.62 USD</t>
+  </si>
+  <si>
+    <t>HYTORC A483 NCO18-3747</t>
+  </si>
+  <si>
+    <t>$107.30 USD</t>
+  </si>
+  <si>
+    <t>Kelli Simon</t>
+  </si>
+  <si>
+    <t>CF FRAC BKFST 3.0 OZ 20 COUNT</t>
+  </si>
+  <si>
+    <t>$116.16 USD</t>
+  </si>
+  <si>
+    <t>Joseph Broussard</t>
+  </si>
+  <si>
+    <t>WELD WIRE</t>
+  </si>
+  <si>
+    <t>$31,880.00 USD</t>
+  </si>
+  <si>
+    <t>Paula Kimball</t>
+  </si>
+  <si>
+    <t>A514 - MATHERNE - QUOTE 36791</t>
+  </si>
+  <si>
+    <t>$1,025.00 USD</t>
+  </si>
+  <si>
+    <t>COFFEE</t>
+  </si>
+  <si>
+    <t>$1,082.40 USD</t>
   </si>
   <si>
     <t>Victor Daniel Carvajal</t>
   </si>
   <si>
-    <t>Conexion/Desconexion tablero</t>
-  </si>
-  <si>
-    <t>$11,017.00 USD</t>
-  </si>
-  <si>
-    <t>Material resato #1</t>
-  </si>
-  <si>
-    <t>$0.43 USD</t>
-  </si>
-  <si>
-    <t>Lucina Teresa Rella</t>
-  </si>
-  <si>
-    <t>SILLON EJECUTIVO RESPALDO ALTO MALLA C/CABECERA NEGRO CANTABRIA</t>
-  </si>
-  <si>
-    <t>$675.41 USD</t>
-  </si>
-  <si>
-    <t>Natasha Scott</t>
-  </si>
-  <si>
-    <t>CJ Instrumentation</t>
-  </si>
-  <si>
-    <t>$1,085.66 CAD</t>
-  </si>
-  <si>
-    <t>Newvalve</t>
-  </si>
-  <si>
-    <t>$2,315.49 CAD</t>
-  </si>
-  <si>
-    <t>$509.16 CAD</t>
-  </si>
-  <si>
-    <t>Jenna Bennett</t>
-  </si>
-  <si>
-    <t>D Bauer #73664 Semi Annual</t>
-  </si>
-  <si>
-    <t>$4,361.43 CAD</t>
+    <t>Mantto preventivo</t>
+  </si>
+  <si>
+    <t>$2,031.49 USD</t>
+  </si>
+  <si>
+    <t>Luis Martin Leal</t>
+  </si>
+  <si>
+    <t>PAPELERIA PROGRAMACIÓN DIC.</t>
+  </si>
+  <si>
+    <t>$21.85 USD</t>
+  </si>
+  <si>
+    <t>Teclado Inalámbrico Conexión Dual 2.4hz/Bluetooth Inspire Comp TI695 Elite</t>
+  </si>
+  <si>
+    <t>$27.60 USD</t>
+  </si>
+  <si>
+    <t>[17001608] CORTADOR 1/8" C430-0.125-D9-S.0-Z4 TIALN - EDP N55804 MCA. SECO</t>
+  </si>
+  <si>
+    <t>$0.20 USD</t>
+  </si>
+  <si>
+    <t>Rollo de fieltro</t>
+  </si>
+  <si>
+    <t>$0.05 USD</t>
+  </si>
+  <si>
+    <t>Enif Saray Munoz Salas</t>
+  </si>
+  <si>
+    <t>ALMACENAJE DE CAJAS</t>
+  </si>
+  <si>
+    <t>$1,747.74 USD</t>
+  </si>
+  <si>
+    <t>391.68A-6-08430T16B</t>
+  </si>
+  <si>
+    <t>Oscar Gael Carmona</t>
+  </si>
+  <si>
+    <t>Bomba Sumergible Y Trabajo Varios</t>
+  </si>
+  <si>
+    <t>$1,123.34 USD</t>
+  </si>
+  <si>
+    <t>Mark Joseph</t>
+  </si>
+  <si>
+    <t>Breezeway Heaters</t>
+  </si>
+  <si>
+    <t>$1,694.76 CAD</t>
+  </si>
+  <si>
+    <t>Minh Tran</t>
+  </si>
+  <si>
+    <t>284GM TUBE MOTOR ASSY LUBE (#001−026382)</t>
+  </si>
+  <si>
+    <t>$1,017.98 CAD</t>
+  </si>
+  <si>
+    <t>LJ Welding - Rental</t>
+  </si>
+  <si>
+    <t>$2,339.18 CAD</t>
   </si>
   <si>
     <t>Mirian Moraes</t>
   </si>
   <si>
-    <t>HT-4 MULTIPLICADOR DE TORQUE MANUAL 1" C/ AWUR NB 4500 NM RATIO 26:1; C/ ANTI-RETORNO. 17021 NORBAR</t>
-  </si>
-  <si>
-    <t>$8,563.78 USD</t>
-  </si>
-  <si>
-    <t>Larissa Maria Dos Santos</t>
-  </si>
-  <si>
-    <t>FECHOS PARA PAINÉIS ELÉTRICOS</t>
-  </si>
-  <si>
-    <t>$447.77 USD</t>
-  </si>
-  <si>
-    <t>Kananda Santos De Oliveira</t>
-  </si>
-  <si>
-    <t>DDJNR2020K15 SUPORTE</t>
-  </si>
-  <si>
-    <t>$63.43 USD</t>
-  </si>
-  <si>
-    <t>Victor Miranda Mello</t>
-  </si>
-  <si>
-    <t>SWOCS SPARE SHAFT SEALS</t>
-  </si>
-  <si>
-    <t>$4,642.63 USD</t>
-  </si>
-  <si>
-    <t>Lilian Regina Juliao</t>
-  </si>
-  <si>
-    <t>MMB</t>
-  </si>
-  <si>
-    <t>$9,100.69 USD</t>
-  </si>
-  <si>
-    <t>Lucas De Oliveira Assis</t>
-  </si>
-  <si>
-    <t>HPU OCEANEERING</t>
-  </si>
-  <si>
-    <t>$10,650.00 USD</t>
-  </si>
-  <si>
-    <t>FRESA DE ROSQUEAMENTO</t>
-  </si>
-  <si>
-    <t>$4,077.19 USD</t>
-  </si>
-  <si>
-    <t>PORTA COSSINETE 20X70 ADES</t>
-  </si>
-  <si>
-    <t>$113.48 USD</t>
-  </si>
-  <si>
-    <t>Yan Nick Soares Bernardo</t>
-  </si>
-  <si>
-    <t>Flow Meter Batteries</t>
-  </si>
-  <si>
-    <t>$1,865.70 USD</t>
-  </si>
-  <si>
-    <t>SWOCS seals - PE-2</t>
-  </si>
-  <si>
-    <t>$3,279.53 USD</t>
-  </si>
-  <si>
-    <t>MACHO MAN AR 101 M16X2.0 3PC - 3855 | CS1944540</t>
-  </si>
-  <si>
-    <t>$101.20 USD</t>
-  </si>
-  <si>
-    <t>SWOCS Spares COmpensators Diaphragm</t>
-  </si>
-  <si>
-    <t>$1,565.89 USD</t>
-  </si>
-  <si>
-    <t>Lorena FIGUEIREDO</t>
-  </si>
-  <si>
-    <t>SERVIÇOS DE MANUTENÇÃO PERTINENTES A CUSTOS PÓS LOCAÇÃO</t>
-  </si>
-  <si>
-    <t>R$12,662.86 BRL</t>
-  </si>
-  <si>
-    <t>O'RING 8,30 X 2,50 NITRILICA 70 SHORE A</t>
-  </si>
-  <si>
-    <t>$59.70 USD</t>
-  </si>
-  <si>
-    <t>REBARBADOR COM CABO E 10 LÂMINAS B-10 155-00177 SHAVIV</t>
-  </si>
-  <si>
-    <t>$188.42 USD</t>
-  </si>
-  <si>
-    <t>Sidney Humberto Seriani</t>
-  </si>
-  <si>
-    <t>COMPRA - SANDVIK</t>
-  </si>
-  <si>
-    <t>R$7,282.22 BRL</t>
-  </si>
-  <si>
-    <t>COMPRA - QUALICLEAN</t>
-  </si>
-  <si>
-    <t>R$13,500.00 BRL</t>
-  </si>
-  <si>
-    <t>Pedro Henrique Pedrosa Ribeiro</t>
-  </si>
-  <si>
-    <t>Adesivo, Lona e Backdrop - Family Day</t>
-  </si>
-  <si>
-    <t>$1,015.31 USD</t>
-  </si>
-  <si>
-    <t>Copy of Resfriador Industrial TASCO RLT1820 220v 60Hz RAL 7035</t>
-  </si>
-  <si>
-    <t>$20,521.36 USD</t>
+    <t>PR NITROGÊNIO Industrial - 18X50S 200B UN1066, NITROGÊNIO, COMPRIMIDO, 2.2, * 1 Bateria de Cilindros</t>
+  </si>
+  <si>
+    <t>$1,628.06 USD</t>
+  </si>
+  <si>
+    <t>Vanessa Alexandra Fleitas Trujillo Caldas</t>
+  </si>
+  <si>
+    <t>MANSERV LOG - 11.2025</t>
+  </si>
+  <si>
+    <t>$1,776.78 USD</t>
+  </si>
+  <si>
+    <t>Stefany Decnop Felipe</t>
+  </si>
+  <si>
+    <t>Boletim de Medição 12255-011/2025.00(01/11-30/11)</t>
+  </si>
+  <si>
+    <t>$3,287.40 USD</t>
+  </si>
+  <si>
+    <t>Leonardo Guerra Dos Santos</t>
+  </si>
+  <si>
+    <t>PC Request - HP EliteBook 8 G1i 14'' Notebook Next Gen AI PC (HP EliteBook 8 G1i 14'' Notebook Next Gen AI PC)</t>
+  </si>
+  <si>
+    <t>$709.00 USD</t>
+  </si>
+  <si>
+    <t>MOVITRAN MCE - 11.2025</t>
+  </si>
+  <si>
+    <t>$41,700.26 USD</t>
+  </si>
+  <si>
+    <t>Vinicius Da Silva Ramos</t>
+  </si>
+  <si>
+    <t>OP25-939 ROLAMENTO 40TAC90CSUHPN7C - NSK INTEGREX</t>
+  </si>
+  <si>
+    <t>$473.95 USD</t>
+  </si>
+  <si>
+    <t>Leticia Emila Aquino De Morais</t>
+  </si>
+  <si>
+    <t>PROPO760B_Demolição de piso em concreto armado com remoção</t>
+  </si>
+  <si>
+    <t>$2,044.57 USD</t>
+  </si>
+  <si>
+    <t>OP25-940 MANUNTENÇÃO MAQUINA WFL USINAGEM</t>
+  </si>
+  <si>
+    <t>$9,428.11 USD</t>
+  </si>
+  <si>
+    <t>Luciana Domiciano Raggasine</t>
+  </si>
+  <si>
+    <t>BATERIA DELL LATITUDE 5400</t>
+  </si>
+  <si>
+    <t>$202.60 USD</t>
+  </si>
+  <si>
+    <t>PROPO760C_Fornecimento e instalação de grelha metálica em chapa fechada</t>
+  </si>
+  <si>
+    <t>$2,323.38 USD</t>
+  </si>
+  <si>
+    <t>Vagner Paulo Locatelli</t>
+  </si>
+  <si>
+    <t>REPARO MANGUEIRA CHAVE DE TORQUE VERSA 1</t>
+  </si>
+  <si>
+    <t>R$2,159.82 BRL</t>
+  </si>
+  <si>
+    <t>Syllas Roberto Vicente</t>
+  </si>
+  <si>
+    <t>MEDIDOR DE ESPESSURA</t>
+  </si>
+  <si>
+    <t>$752.77 USD</t>
+  </si>
+  <si>
+    <t>ALUGUEL BRAÇO TRIDI - MAIOR</t>
+  </si>
+  <si>
+    <t>$1,784.35 USD</t>
+  </si>
+  <si>
+    <t>ALUGUEL BRAÇO TRIDIMENSIONAL</t>
+  </si>
+  <si>
+    <t>$1,765.77 USD</t>
+  </si>
+  <si>
+    <t>Douglas Simoes</t>
+  </si>
+  <si>
+    <t>FECHAMENTO REFEIÇAO (EXTRAS) 1ª QUINZ/NOVEMBRO-2025</t>
+  </si>
+  <si>
+    <t>R$33,582.47 BRL</t>
+  </si>
+  <si>
+    <t>Cassia Kimberly Antunes De Paula</t>
+  </si>
+  <si>
+    <t>HP EliteBook 8 G1i 14'' Notebook Next Gen AI PC</t>
+  </si>
+  <si>
+    <t>$706.00 USD</t>
+  </si>
+  <si>
+    <t>Bruno De Souza Marques</t>
+  </si>
+  <si>
+    <t>NR 11 - OPERADORES DE PONTE ROLANTE - 8H</t>
+  </si>
+  <si>
+    <t>R$19,000.00 BRL</t>
+  </si>
+  <si>
+    <t>PROPO760A_Corte de piso em concreto armado com remoção</t>
+  </si>
+  <si>
+    <t>$2,036.21 USD</t>
+  </si>
+  <si>
+    <t>PR788434-V2</t>
+  </si>
+  <si>
+    <t>PR788069-V3</t>
+  </si>
+  <si>
+    <t>PR788347-V3</t>
   </si>
 </sst>
 </file>
@@ -770,14 +790,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1098,7 +1116,7 @@
     <col min="8" max="8" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1155,15 +1173,15 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1172,15 +1190,15 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1189,15 +1207,15 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1206,15 +1224,15 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1223,16 +1241,15 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1241,16 +1258,15 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1259,16 +1275,15 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1277,16 +1292,15 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1295,16 +1309,15 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1313,15 +1326,15 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1330,15 +1343,15 @@
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1347,15 +1360,15 @@
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1364,15 +1377,15 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1381,15 +1394,15 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1398,15 +1411,15 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1415,15 +1428,15 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1432,15 +1445,15 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1449,154 +1462,151 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23"/>
+        <v>49</v>
+      </c>
       <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23"/>
+        <v>48</v>
+      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
       <c r="H28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1605,16 +1615,15 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1623,16 +1632,15 @@
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1641,430 +1649,367 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" t="s">
         <v>84</v>
       </c>
-      <c r="C50" t="s">
-        <v>68</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
-      <sortCondition descending="1" ref="G1:G55"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 SLB-Private</oddFooter>
@@ -2074,22 +2019,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="101" customWidth="1"/>
+    <col min="9" max="9" width="112" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="38" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
@@ -2098,46 +2041,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -2145,28 +2088,28 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2">
-        <v>45987.6</v>
+        <v>45993.642361111109</v>
       </c>
       <c r="G2" s="2">
-        <v>45987.598611111112</v>
+        <v>45993.603472222218</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2177,28 +2120,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3" s="2">
-        <v>45987.522916666669</v>
+        <v>45993.665277777778</v>
       </c>
       <c r="G3" s="2">
-        <v>45987.519444444442</v>
+        <v>45993.661805555559</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
         <v>110</v>
-      </c>
-      <c r="J3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>112</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2206,31 +2149,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45993.664583333331</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45993.656944444447</v>
+      </c>
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45987.463194444441</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45987.461805555547</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2238,31 +2181,31 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F5" s="2">
-        <v>45987.463888888888</v>
+        <v>45993.647916666669</v>
       </c>
       <c r="G5" s="2">
-        <v>45987.463194444441</v>
+        <v>45993.638888888891</v>
       </c>
       <c r="H5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
         <v>117</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>112</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2270,31 +2213,31 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2">
-        <v>45987.465277777781</v>
+        <v>45993.674305555563</v>
       </c>
       <c r="G6" s="2">
-        <v>45987.464583333327</v>
+        <v>45993.667361111111</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2302,31 +2245,31 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2">
-        <v>45987.470138888893</v>
+        <v>45993.675694444442</v>
       </c>
       <c r="G7" s="2">
-        <v>45987.46875</v>
+        <v>45993.673611111109</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2334,31 +2277,31 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F8" s="2">
-        <v>45987.47152777778</v>
+        <v>45993.64166666667</v>
       </c>
       <c r="G8" s="2">
-        <v>45987.470138888893</v>
+        <v>45993.637499999997</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>112</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2366,31 +2309,31 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2">
-        <v>45987.513888888891</v>
+        <v>45993.638888888891</v>
       </c>
       <c r="G9" s="2">
-        <v>45987.511111111111</v>
+        <v>45993.633333333331</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2398,31 +2341,31 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F10" s="2">
-        <v>45987.472222222219</v>
+        <v>45993.681250000001</v>
       </c>
       <c r="G10" s="2">
-        <v>45987.467361111107</v>
+        <v>45993.675000000003</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2430,31 +2373,31 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F11" s="2">
-        <v>45987.510416666657</v>
+        <v>45993.624305555553</v>
       </c>
       <c r="G11" s="2">
-        <v>45987.509722222218</v>
+        <v>45993.619444444441</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2462,31 +2405,31 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="F12" s="2">
-        <v>45987.472222222219</v>
+        <v>45993.618055555547</v>
       </c>
       <c r="G12" s="2">
-        <v>45987.47152777778</v>
+        <v>45993.617361111108</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2494,31 +2437,31 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F13" s="2">
-        <v>45987.504861111112</v>
+        <v>45993.617361111108</v>
       </c>
       <c r="G13" s="2">
-        <v>45987.5</v>
+        <v>45993.617361111108</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2526,31 +2469,31 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2">
-        <v>45987.473611111112</v>
+        <v>45993.614583333343</v>
       </c>
       <c r="G14" s="2">
-        <v>45987.472916666673</v>
+        <v>45993.613888888889</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2558,31 +2501,31 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2">
-        <v>45987.474305555559</v>
+        <v>45993.59652777778</v>
       </c>
       <c r="G15" s="2">
-        <v>45987.473611111112</v>
+        <v>45993.584027777782</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2590,31 +2533,31 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F16" s="2">
-        <v>45987.497916666667</v>
+        <v>45993.569444444453</v>
       </c>
       <c r="G16" s="2">
-        <v>45987.495138888888</v>
+        <v>45993.556944444441</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2622,31 +2565,31 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F17" s="2">
-        <v>45987.480555555558</v>
+        <v>45993.561805555553</v>
       </c>
       <c r="G17" s="2">
-        <v>45987.475694444453</v>
+        <v>45993.55972222222</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2654,31 +2597,31 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F18" s="2">
-        <v>45987.490972222222</v>
+        <v>45993.581944444442</v>
       </c>
       <c r="G18" s="2">
-        <v>45987.489583333343</v>
+        <v>45993.578472222223</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2686,31 +2629,31 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F19" s="2">
-        <v>45987.492361111108</v>
+        <v>45993.587500000001</v>
       </c>
       <c r="G19" s="2">
-        <v>45987.478472222218</v>
+        <v>45993.57916666667</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2718,31 +2661,31 @@
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F20" s="2">
-        <v>45987.493055555547</v>
+        <v>45993.585416666669</v>
       </c>
       <c r="G20" s="2">
-        <v>45987.491666666669</v>
+        <v>45993.583333333343</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2750,31 +2693,31 @@
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F21" s="2">
-        <v>45987.428472222222</v>
+        <v>45993.689583333333</v>
       </c>
       <c r="G21" s="2">
-        <v>45987.411805555559</v>
+        <v>45993.686111111107</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K21" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2782,31 +2725,31 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="F22" s="2">
-        <v>45987.431250000001</v>
+        <v>45993.690972222219</v>
       </c>
       <c r="G22" s="2">
-        <v>45987.427083333343</v>
+        <v>45993.67291666667</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K22" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L22" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2814,31 +2757,31 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F23" s="2">
-        <v>45987.431944444441</v>
+        <v>45993.69027777778</v>
       </c>
       <c r="G23" s="2">
-        <v>45987.42291666667</v>
+        <v>45993.688194444447</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J23" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2846,31 +2789,31 @@
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="F24" s="2">
-        <v>45987.445138888892</v>
+        <v>45993.552083333343</v>
       </c>
       <c r="G24" s="2">
-        <v>45987.440972222219</v>
+        <v>45993.552083333343</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L24" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2878,31 +2821,31 @@
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F25" s="2">
-        <v>45987.456250000003</v>
+        <v>45993.655555555553</v>
       </c>
       <c r="G25" s="2">
-        <v>45987.43472222222</v>
+        <v>45993.652083333327</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J25" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2910,31 +2853,31 @@
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F26" s="2">
-        <v>45987.459722222222</v>
+        <v>45993.683333333327</v>
       </c>
       <c r="G26" s="2">
-        <v>45987.458333333343</v>
+        <v>45993.662499999999</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L26" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2942,31 +2885,31 @@
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="F27" s="2">
-        <v>45987.460416666669</v>
+        <v>45993.594444444447</v>
       </c>
       <c r="G27" s="2">
-        <v>45987.456250000003</v>
+        <v>45993.594444444447</v>
       </c>
       <c r="H27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J27" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L27" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2974,31 +2917,31 @@
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="F28" s="2">
-        <v>45987.461111111108</v>
+        <v>45993.581944444442</v>
       </c>
       <c r="G28" s="2">
-        <v>45986.688194444447</v>
+        <v>45992.581250000003</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -3006,31 +2949,31 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="F29" s="2">
-        <v>45987.461805555547</v>
+        <v>45993.563194444447</v>
       </c>
       <c r="G29" s="2">
-        <v>45987.460416666669</v>
+        <v>45993.543749999997</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="K29" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="L29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3038,31 +2981,31 @@
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F30" s="2">
-        <v>45987.587500000001</v>
+        <v>45993.671527777777</v>
       </c>
       <c r="G30" s="2">
-        <v>45987.57916666667</v>
+        <v>45993.667361111111</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L30" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3070,31 +3013,31 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F31" s="2">
-        <v>45987.455555555563</v>
+        <v>45993.661111111112</v>
       </c>
       <c r="G31" s="2">
-        <v>45987.45208333333</v>
+        <v>45993.647916666669</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="J31" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3102,31 +3045,31 @@
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F32" s="2">
-        <v>45987.519444444442</v>
+        <v>45993.546527777777</v>
       </c>
       <c r="G32" s="2">
-        <v>45987.421527777777</v>
+        <v>45993.542361111111</v>
       </c>
       <c r="H32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J32" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K32" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3134,31 +3077,31 @@
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F33" s="2">
-        <v>45987.569444444453</v>
+        <v>45993.551388888889</v>
       </c>
       <c r="G33" s="2">
-        <v>45987.563194444447</v>
+        <v>45993.549305555563</v>
       </c>
       <c r="H33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J33" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3166,31 +3109,31 @@
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F34" s="2">
-        <v>45987.560416666667</v>
+        <v>45993.549305555563</v>
       </c>
       <c r="G34" s="2">
-        <v>45987.549305555563</v>
+        <v>45993.54583333333</v>
       </c>
       <c r="H34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I34" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J34" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L34" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3198,31 +3141,31 @@
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="F35" s="2">
-        <v>45987.545138888891</v>
+        <v>45993.579861111109</v>
       </c>
       <c r="G35" s="2">
-        <v>45987.542361111111</v>
+        <v>45993.565972222219</v>
       </c>
       <c r="H35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I35" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="J35" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L35" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3230,31 +3173,31 @@
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F36" s="2">
-        <v>45987.495833333327</v>
+        <v>45993.546527777777</v>
       </c>
       <c r="G36" s="2">
-        <v>45987.48541666667</v>
+        <v>45993.543749999997</v>
       </c>
       <c r="H36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I36" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J36" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3262,31 +3205,31 @@
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F37" s="2">
-        <v>45987.50277777778</v>
+        <v>45993.586111111108</v>
       </c>
       <c r="G37" s="2">
-        <v>45987.492361111108</v>
+        <v>45993.582638888889</v>
       </c>
       <c r="H37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J37" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L37" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3294,31 +3237,31 @@
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F38" s="2">
-        <v>45987.469444444447</v>
+        <v>45993.617361111108</v>
       </c>
       <c r="G38" s="2">
-        <v>45987.462500000001</v>
+        <v>45993.613888888889</v>
       </c>
       <c r="H38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I38" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J38" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="K38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L38" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3326,31 +3269,31 @@
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F39" s="2">
-        <v>45987.470138888893</v>
+        <v>45993.620138888888</v>
       </c>
       <c r="G39" s="2">
-        <v>45987.466666666667</v>
+        <v>45993.593055555553</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J39" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L39" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3358,63 +3301,63 @@
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F40" s="2">
-        <v>45987.470833333333</v>
+        <v>45993.621527777781</v>
       </c>
       <c r="G40" s="2">
-        <v>45987.467361111107</v>
+        <v>45992.594444444447</v>
       </c>
       <c r="H40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I40" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J40" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L40" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F41" s="2">
-        <v>45987.572916666657</v>
+        <v>45993.62222222222</v>
       </c>
       <c r="G41" s="2">
-        <v>45987.275694444441</v>
+        <v>45993.619444444441</v>
       </c>
       <c r="H41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I41" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="J41" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L41" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3422,31 +3365,31 @@
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="F42" s="2">
-        <v>45987.569444444453</v>
+        <v>45993.62222222222</v>
       </c>
       <c r="G42" s="2">
-        <v>45987.560416666667</v>
+        <v>45993.616666666669</v>
       </c>
       <c r="H42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I42" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="J42" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L42" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3454,31 +3397,31 @@
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="F43" s="2">
-        <v>45987.474305555559</v>
+        <v>45993.634027777778</v>
       </c>
       <c r="G43" s="2">
-        <v>45987.470833333333</v>
+        <v>45993.631249999999</v>
       </c>
       <c r="H43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I43" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="J43" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L43" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3486,31 +3429,31 @@
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="F44" s="2">
-        <v>45987.494444444441</v>
+        <v>45993.635416666657</v>
       </c>
       <c r="G44" s="2">
-        <v>45987.490277777782</v>
+        <v>45993.634027777778</v>
       </c>
       <c r="H44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="J44" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L44" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3518,31 +3461,31 @@
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F45" s="2">
-        <v>45987.540277777778</v>
+        <v>45993.636111111111</v>
       </c>
       <c r="G45" s="2">
-        <v>45987.529861111107</v>
+        <v>45993.635416666657</v>
       </c>
       <c r="H45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I45" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="J45" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="K45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L45" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3550,31 +3493,31 @@
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F46" s="2">
-        <v>45987.474999999999</v>
+        <v>45993.645138888889</v>
       </c>
       <c r="G46" s="2">
-        <v>45987.470833333333</v>
+        <v>45993.620138888888</v>
       </c>
       <c r="H46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I46" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="J46" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="K46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3582,63 +3525,63 @@
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="F47" s="2">
-        <v>45987.479861111111</v>
+        <v>45993.550694444442</v>
       </c>
       <c r="G47" s="2">
-        <v>45987.475694444453</v>
+        <v>45989.585416666669</v>
       </c>
       <c r="H47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I47" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="J47" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L47" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="F48" s="2">
-        <v>45987.480555555558</v>
+        <v>45993.567361111112</v>
       </c>
       <c r="G48" s="2">
-        <v>45987.477777777778</v>
+        <v>45993.5625</v>
       </c>
       <c r="H48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J48" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="K48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L48" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3646,230 +3589,37 @@
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F49" s="2">
-        <v>45987.480555555558</v>
+        <v>45993.5625</v>
       </c>
       <c r="G49" s="2">
-        <v>45987.474999999999</v>
+        <v>45993.557638888888</v>
       </c>
       <c r="H49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J49" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L49" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>187</v>
-      </c>
-      <c r="F50" s="2">
-        <v>45987.48541666667</v>
-      </c>
-      <c r="G50" s="2">
-        <v>45987.480555555558</v>
-      </c>
-      <c r="H50" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" t="s">
-        <v>215</v>
-      </c>
-      <c r="J50" t="s">
-        <v>216</v>
-      </c>
-      <c r="K50" t="s">
-        <v>64</v>
-      </c>
-      <c r="L50" t="s">
-        <v>108</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" t="s">
-        <v>187</v>
-      </c>
-      <c r="F51" s="2">
-        <v>45987.489583333343</v>
-      </c>
-      <c r="G51" s="2">
-        <v>45987.486805555563</v>
-      </c>
-      <c r="H51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I51" t="s">
-        <v>217</v>
-      </c>
-      <c r="J51" t="s">
-        <v>218</v>
-      </c>
-      <c r="K51" t="s">
-        <v>64</v>
-      </c>
-      <c r="L51" t="s">
-        <v>108</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>219</v>
-      </c>
-      <c r="F52" s="2">
-        <v>45987.491666666669</v>
-      </c>
-      <c r="G52" s="2">
-        <v>45987.490277777782</v>
-      </c>
-      <c r="H52" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" t="s">
-        <v>220</v>
-      </c>
-      <c r="J52" t="s">
-        <v>221</v>
-      </c>
-      <c r="K52" t="s">
-        <v>64</v>
-      </c>
-      <c r="L52" t="s">
-        <v>108</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
-      <c r="F53" s="2">
-        <v>45987.462500000001</v>
-      </c>
-      <c r="G53" s="2">
-        <v>45987.461111111108</v>
-      </c>
-      <c r="H53" t="s">
-        <v>105</v>
-      </c>
-      <c r="I53" t="s">
-        <v>222</v>
-      </c>
-      <c r="J53" t="s">
-        <v>223</v>
-      </c>
-      <c r="K53" t="s">
-        <v>64</v>
-      </c>
-      <c r="L53" t="s">
-        <v>108</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" t="s">
-        <v>224</v>
-      </c>
-      <c r="F54" s="2">
-        <v>45987.452777777777</v>
-      </c>
-      <c r="G54" s="2">
-        <v>45987.450694444437</v>
-      </c>
-      <c r="H54" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" t="s">
-        <v>225</v>
-      </c>
-      <c r="J54" t="s">
-        <v>226</v>
-      </c>
-      <c r="K54" t="s">
-        <v>64</v>
-      </c>
-      <c r="L54" t="s">
-        <v>108</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" t="s">
-        <v>187</v>
-      </c>
-      <c r="F55" s="2">
-        <v>45987.443749999999</v>
-      </c>
-      <c r="G55" s="2">
-        <v>45987.442361111112</v>
-      </c>
-      <c r="H55" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" t="s">
-        <v>227</v>
-      </c>
-      <c r="J55" t="s">
-        <v>228</v>
-      </c>
-      <c r="K55" t="s">
-        <v>64</v>
-      </c>
-      <c r="L55" t="s">
-        <v>108</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N55" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K000000 SLB-Private</oddFooter>

--- a/data/Resultado.xlsx
+++ b/data/Resultado.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="4" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
     <col width="4" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
@@ -493,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PR793954</t>
+          <t>PR914472</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KHEBERT2</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -518,12 +518,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PR793835</t>
+          <t>PR914567</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CWalker16</t>
+          <t>BMurry</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -536,24 +536,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PNP_US18 (Cameron Energy Services)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PR794088</t>
+          <t>PR914527</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HBurns2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Natalia Martinez</t>
+          <t>BReagan</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -573,12 +568,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PR794246</t>
+          <t>PR914214</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JCELESTINE</t>
+          <t>JJONES75</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -598,12 +593,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PR794238</t>
+          <t>PR914231</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JCELESTINE</t>
+          <t>JJONES75</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -623,12 +618,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PR794227</t>
+          <t>PR914235</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GMORENO20</t>
+          <t>JJONES75</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -648,12 +643,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PR794233</t>
+          <t>PR914250</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JCELESTINE</t>
+          <t>JJONES75</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -673,12 +668,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PR794191</t>
+          <t>PR914190</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CLong4</t>
+          <t>BMurry</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -698,12 +693,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PR794183</t>
+          <t>PR914225</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GMORENO20</t>
+          <t>RHUGHES9</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -723,12 +718,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PR794157</t>
+          <t>PR914272</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>RHUGHES9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -748,12 +743,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PR794125</t>
+          <t>PR914276</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CLong4</t>
+          <t>KMartinez13</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -773,12 +768,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PR794058</t>
+          <t>PR914284</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RAHRENS2</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -798,12 +793,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PR793513</t>
+          <t>PR914320</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CPwhittaker</t>
+          <t>WSACKMANN</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -823,12 +818,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PR793944</t>
+          <t>PR914315</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RBOOK</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -848,12 +843,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PR793931</t>
+          <t>PR914324</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MGALLEGOS6</t>
+          <t>KMartinez13</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -873,12 +868,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PR793853</t>
+          <t>PR914387</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CLong4</t>
+          <t>KMartinez13</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -898,12 +893,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PR793663</t>
+          <t>PR914394</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>WSACKMANN</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -923,12 +918,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PR793745</t>
+          <t>PR914443</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>JArdoin3</t>
+          <t>MRAMOS17</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -948,7 +943,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PR793763</t>
+          <t>PR914484</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -973,12 +968,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PR793726</t>
+          <t>PR914453</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OCARMONA2</t>
+          <t>JSalazar68</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -986,24 +981,24 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PR793790</t>
+          <t>PR914456</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LLEAL7</t>
+          <t>MRAMOS17</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1011,24 +1006,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PR783186</t>
+          <t>PR914467</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JBENNETT16</t>
+          <t>BMurry</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1041,19 +1036,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PR794243</t>
+          <t>PR914439</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MMORAES5</t>
+          <t>KMartinez13</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1061,24 +1056,24 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PR794222</t>
+          <t>PR914516</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LJuliao</t>
+          <t>BReagan</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1086,24 +1081,24 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PR794201</t>
+          <t>PR914232</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LJuliao</t>
+          <t>MLopez119</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1116,19 +1111,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PR794180</t>
+          <t>PR914433</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>aandrade20</t>
+          <t>ALAI2</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1136,24 +1131,24 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PR794172</t>
+          <t>PR914266</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>aandrade20</t>
+          <t>ALAI2</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1161,24 +1156,24 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PR794156</t>
+          <t>PR914192</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>aandrade20</t>
+          <t>MQUINTANILHA2</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1198,12 +1193,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PR794130</t>
+          <t>PR914229</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>aandrade20</t>
+          <t>MQUINTANILHA2</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1223,12 +1218,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PR794069</t>
+          <t>PR914259</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>aandrade20</t>
+          <t>MQUINTANILHA2</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1248,12 +1243,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PR794048</t>
+          <t>PR914277</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VLOCATELLI</t>
+          <t>GCRUZ24</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1273,12 +1268,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PR793904</t>
+          <t>PR914287</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GMendonca2</t>
+          <t>MQUINTANILHA2</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1298,12 +1293,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PR793856</t>
+          <t>PR914237</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MQUINTANILHA2</t>
+          <t>DSIMOES2</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1323,16 +1318,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PR793872</t>
+          <t>PR912708</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SVICENTE2</t>
+          <t>VMotta</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1348,12 +1343,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PR793698</t>
+          <t>PR914340</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MQUINTANILHA2</t>
+          <t>DSIMOES2</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1373,12 +1368,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PR793740</t>
+          <t>PR912710</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DSIMOES2</t>
+          <t>TSANTOS22</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1398,12 +1393,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PR793616</t>
+          <t>PR914328</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MQUINTANILHA2</t>
+          <t>TSANTOS22</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1423,25 +1418,75 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PR792761</t>
+          <t>PR914376</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>aandrade20</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PR914479</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GSalemi</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PR914191</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>DMachado6</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>CAMERON LAM</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,16 +1512,16 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="99" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="69" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
     <col width="38" customWidth="1" min="11" max="11"/>
     <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
@@ -1555,19 +1600,19 @@
     <row r="2">
       <c r="C2" t="inlineStr">
         <is>
-          <t>PR793954</t>
+          <t>PR914472</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Keith Hebert</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>45994.60763888889</v>
+        <v>46030.59930555556</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>45994.60416666666</v>
+        <v>46030.59722222222</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1576,12 +1621,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Battery Ind Alk Energizer D Box of 12</t>
+          <t>Hose Source Quote 112873 TLM-Jamie</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$64.77 USD</t>
+          <t>$687.72 USD</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1601,19 +1646,19 @@
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>PR793835</t>
+          <t>PR914567</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Catherine R Walker</t>
+          <t>BRITTANEA BATTEN</t>
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>45994.58194444444</v>
+        <v>46030.62013888889</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>45994.57847222222</v>
+        <v>46030.61805555555</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1622,17 +1667,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>calendar</t>
+          <t>WELD TECH QUOTE# 16523</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$275.94 USD</t>
+          <t>$1,605.00 USD</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>PNP_US18 (Cameron Energy Services)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1647,24 +1692,19 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>PR794088</t>
+          <t>PR914527</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Henry Burns</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Natalia Martinez</t>
+          <t>Bobby Reagan</t>
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>45994.64513888889</v>
+        <v>46030.60972222222</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>45994.62986111111</v>
+        <v>46030.60763888889</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1673,12 +1713,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8206 Mold</t>
+          <t>TriMark - Invoice Number: 0980090</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$9,525.00 USD</t>
+          <t>$165.00 USD</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1690,9 +1730,6 @@
         <is>
           <t>No</t>
         </is>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>45994.65208333333</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1701,19 +1738,19 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>PR794246</t>
+          <t>PR914214</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Joseph Celestine</t>
+          <t>Casey Jones</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>45994.66458333333</v>
+        <v>46030.54097222222</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>45994.66388888889</v>
+        <v>46030.53958333333</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1722,12 +1759,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PALLET WAREHOUSE 44 X 46 REV HARDWOOD</t>
+          <t>Test Flange</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$1,818.00 USD</t>
+          <t>$2,000.00 USD</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1747,19 +1784,19 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>PR794238</t>
+          <t>PR914231</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joseph Celestine</t>
+          <t>Casey Jones</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>45994.66319444445</v>
+        <v>46030.54236111111</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>45994.6625</v>
+        <v>46030.54166666666</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1768,12 +1805,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>PALLET WAREHOUSE 44 X 46 REV HARDWOOD</t>
+          <t>Test Flange</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$1,818.00 USD</t>
+          <t>$2,000.00 USD</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1793,19 +1830,19 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>PR794227</t>
+          <t>PR914235</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Guadalupe Moreno</t>
+          <t>Casey Jones</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>45994.66180555556</v>
+        <v>46030.54444444444</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>45994.65972222222</v>
+        <v>46030.54305555556</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1814,12 +1851,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Elvas Pallets - Quote 1701</t>
+          <t>Test Flange</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$1,750.00 USD</t>
+          <t>$2,000.00 USD</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1839,19 +1876,19 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>PR794233</t>
+          <t>PR914250</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Joseph Celestine</t>
+          <t>Casey Jones</t>
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>45994.66180555556</v>
+        <v>46030.54652777778</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>45994.66111111111</v>
+        <v>46030.54583333333</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1860,12 +1897,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PALLET WAREHOUSE 44 X 46 REV HARDWOOD</t>
+          <t>Fittings</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>$1,818.00 USD</t>
+          <t>$1,156.32 USD</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1885,19 +1922,19 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>PR794191</t>
+          <t>PR914190</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cynthia Long</t>
+          <t>BRITTANEA BATTEN</t>
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>45994.66041666667</v>
+        <v>46030.54722222222</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>45994.65208333333</v>
+        <v>46030.53472222222</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1906,12 +1943,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>AIRGAS A483 Q 2014000286</t>
+          <t>SOUTHWEST INVOICE # RT03-I31061</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>$2,304.00 USD</t>
+          <t>$1,866.80 USD</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1921,7 +1958,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1931,19 +1968,19 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>PR794183</t>
+          <t>PR914225</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Guadalupe Moreno</t>
+          <t>Robert Hughes</t>
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>45994.65902777778</v>
+        <v>46030.54791666667</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>45994.65069444444</v>
+        <v>46030.54097222222</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1952,12 +1989,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Elvas Pallets - Quote 1704</t>
+          <t>1/2 H HYD QUICK CONNECT</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>$1,225.00 USD</t>
+          <t>$500.31 USD</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1967,7 +2004,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1977,19 +2014,19 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>PR794157</t>
+          <t>PR914272</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Robert Hughes</t>
         </is>
       </c>
       <c r="F11" s="3" t="n">
-        <v>45994.64930555555</v>
+        <v>46030.55208333334</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>45994.64444444444</v>
+        <v>46030.54930555556</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1998,12 +2035,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>A514 - C&amp;W - OCT 2025 / MO LABOR 4203 RASCO</t>
+          <t>HOSE ASSY 2X100 MXF LAYFLAT</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>$8,289.61 USD</t>
+          <t>$278.84 USD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2023,19 +2060,19 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>PR794125</t>
+          <t>PR914276</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cynthia Long</t>
+          <t>Kimberly Martinez</t>
         </is>
       </c>
       <c r="F12" s="3" t="n">
-        <v>45994.64236111111</v>
+        <v>46030.55277777778</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>45994.6375</v>
+        <v>46030.55</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2044,12 +2081,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>HAGER 8569</t>
+          <t>CINTAS #4255487126</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>$1,680.00 USD</t>
+          <t>$45.00 USD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2069,19 +2106,19 @@
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>PR794058</t>
+          <t>PR914284</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Robert Ahrens</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F13" s="3" t="n">
-        <v>45994.6375</v>
+        <v>46030.55902777778</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>45994.62361111111</v>
+        <v>46030.55138888889</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2090,12 +2127,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>151857 Fastenal</t>
+          <t>TRUCK TICKET 2273</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>$2,034.87 USD</t>
+          <t>$1,760.00 USD</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2115,19 +2152,19 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>PR793513</t>
+          <t>PR914320</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Christina Pendarvis-Whittaker</t>
+          <t>William Sackmann</t>
         </is>
       </c>
       <c r="F14" s="3" t="n">
-        <v>45994.625</v>
+        <v>46030.56388888889</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>45994.51388888889</v>
+        <v>46030.56111111111</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2136,12 +2173,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Gas &amp; Supply INVOICE 10124</t>
+          <t>#2813638-INDUSTRIL SCIENTIFIC</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>$1,973.37 USD</t>
+          <t>$1,202.80 USD</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2151,7 +2188,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -2161,19 +2198,19 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>PR793944</t>
+          <t>PR914315</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Richard Book</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F15" s="3" t="n">
-        <v>45994.60555555556</v>
+        <v>46030.56388888889</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>45994.60208333333</v>
+        <v>46030.56041666667</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2182,12 +2219,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Igniters for maintenance</t>
+          <t>TRUCK TICKET 2275</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>$194.50 USD</t>
+          <t>$2,750.00 USD</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2207,19 +2244,19 @@
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>PR793931</t>
+          <t>PR914324</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Miguel Gallegos</t>
+          <t>Kimberly Martinez</t>
         </is>
       </c>
       <c r="F16" s="3" t="n">
-        <v>45994.60138888889</v>
+        <v>46030.57708333333</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>45994.6</v>
+        <v>46030.56180555555</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2228,12 +2265,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ORDER 12462 - DOUBLE STUDDED ADAPTER 2-1/16 10M STD X 2-1/16 15M STD</t>
+          <t>MIDWEST HOSE #00860589</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>$1,090.00 USD</t>
+          <t>$3,800.00 USD</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2243,7 +2280,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -2253,19 +2290,19 @@
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>PR793853</t>
+          <t>PR914387</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cynthia Long</t>
+          <t>Kimberly Martinez</t>
         </is>
       </c>
       <c r="F17" s="3" t="n">
-        <v>45994.58333333334</v>
+        <v>46030.58611111111</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>45994.58194444444</v>
+        <v>46030.58125</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2274,12 +2311,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>26' Vel Artic Lddr</t>
+          <t>SAFETY KLEEN</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>$1,469.28 USD</t>
+          <t>$879.13 USD</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2289,7 +2326,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -2299,19 +2336,19 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>PR793663</t>
+          <t>PR914394</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>William Sackmann</t>
         </is>
       </c>
       <c r="F18" s="3" t="n">
-        <v>45994.57569444444</v>
+        <v>46030.58888888889</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>45994.54236111111</v>
+        <v>46030.58263888889</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2320,12 +2357,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CINTAS #8407942593</t>
+          <t>#0008522-SCOUT</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>$517.57 USD</t>
+          <t>$4,638.60 USD</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2345,19 +2382,19 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>PR793745</t>
+          <t>PR914443</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Joseph Ardoin</t>
+          <t>Martin Ramos</t>
         </is>
       </c>
       <c r="F19" s="3" t="n">
-        <v>45994.56666666667</v>
+        <v>46030.59305555555</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>45994.56041666667</v>
+        <v>46030.59027777778</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2366,12 +2403,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Instructor day rate</t>
+          <t>UNIFIRST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>$2,306.50 USD</t>
+          <t>$387.75 USD</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2391,7 +2428,7 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>PR793763</t>
+          <t>PR914484</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2400,10 +2437,10 @@
         </is>
       </c>
       <c r="F20" s="3" t="n">
-        <v>45994.56597222222</v>
+        <v>46030.60277777778</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>45994.56319444445</v>
+        <v>46030.6</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2412,12 +2449,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>SECURED DOC INVOICE # 1095102</t>
+          <t>C&amp;W WO# SMMB004430</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>$210.18 USD</t>
+          <t>$500.00 USD</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2437,19 +2474,19 @@
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>PR793726</t>
+          <t>PR914453</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Oscar Gael Carmona</t>
+          <t>Judith Salazar</t>
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>45994.55972222222</v>
+        <v>46030.59513888889</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>45994.55625</v>
+        <v>46030.59305555555</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2458,22 +2495,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>LAMPARA LED LUMINARIA BUCARAMANGA IX</t>
+          <t>RELIABLE PUMPS MID3754</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>$10.00 USD</t>
+          <t>$268.91 USD</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2483,19 +2520,19 @@
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>PR793790</t>
+          <t>PR914456</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Luis Martin Leal</t>
+          <t>Martin Ramos</t>
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>45994.575</v>
+        <v>46030.59722222222</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>45994.56944444445</v>
+        <v>46030.59375</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2504,22 +2541,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Retiro de tanque estacionario (Trabajos)</t>
+          <t>REPUBLIC</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>$678.25 USD</t>
+          <t>$226.24 USD</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2529,19 +2566,19 @@
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>PR783186</t>
+          <t>PR914467</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jenna Bennett</t>
+          <t>BRITTANEA BATTEN</t>
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>45994.6375</v>
+        <v>46030.59722222222</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>45992.6875</v>
+        <v>46030.59583333333</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2550,17 +2587,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>DBA Apparel #199758</t>
+          <t>(4 Clamp) Electric Actuator Protective Guard</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>$606.00 CAD</t>
+          <t>$58,500.00 USD</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2569,25 +2606,25 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>PR794243</t>
+          <t>PR914439</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mirian Moraes</t>
+          <t>Kimberly Martinez</t>
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>45994.66458333333</v>
+        <v>46030.59861111111</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>45994.66319444445</v>
+        <v>46030.59027777778</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2596,17 +2633,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NITROGÊNIO Industrial - 18X50S 200B UN1066, NITROGÊNIO, COMPRIMIDO, 2.2, * 1 Bateria de Cilindros</t>
+          <t>SAFETY KLEEN #98932152</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>$542.69 USD</t>
+          <t>$5,155.40 USD</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2621,19 +2658,19 @@
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>PR794222</t>
+          <t>PR914516</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lilian Regina Juliao</t>
+          <t>Bobby Reagan</t>
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>45994.66388888889</v>
+        <v>46030.60763888889</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>45994.65833333333</v>
+        <v>46030.60555555556</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2642,22 +2679,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MMB SETEMBRO25</t>
+          <t>INV: 140262766 - TOYOTA LIFT OF HOUSTON</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>$9,273.07 USD</t>
+          <t>$670.30 USD</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2667,19 +2704,19 @@
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>PR794201</t>
+          <t>PR914232</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Lilian Regina Juliao</t>
+          <t>MANUEL ALEJANDRO ORTIZ LOPEZ</t>
         </is>
       </c>
       <c r="F26" s="3" t="n">
-        <v>45994.65763888889</v>
+        <v>46030.54513888889</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>45994.65347222222</v>
+        <v>46030.54166666666</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2688,22 +2725,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>MMB INPLANT</t>
+          <t>FLEJES CORDSTRAP 1" Y NEUPRENO PARA PREPARACION DE EQUIPOS DE VENTA</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>$2,156.44 USD</t>
+          <t>$559.54 USD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2713,19 +2750,19 @@
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>PR794180</t>
+          <t>PR914433</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Amanda Silva De Andrade</t>
+          <t>Albert Lai</t>
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>45994.65277777778</v>
+        <v>46030.60972222222</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>45994.65069444444</v>
+        <v>46030.58958333333</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2734,17 +2771,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>OP25-944 ORÇ 1342 - CONSTRUÇÃO ACOPLAMENTO BRONZE DA BOMBA</t>
+          <t>Advanced Heat Solutions - Estimate #Q26-0106</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>$362.45 USD</t>
+          <t>$3,850.00 CAD</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2759,19 +2796,19 @@
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>PR794172</t>
+          <t>PR914266</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Amanda Silva De Andrade</t>
+          <t>Albert Lai</t>
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>45994.64930555555</v>
+        <v>46030.59652777778</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>45994.64791666667</v>
+        <v>46030.54861111111</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2780,17 +2817,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>OP25-943 ORÇ 1336 - RETRABALHO NA FLANGE DA BOMBA TRIPLA</t>
+          <t>Advanced Heat Solutions - Estimate #Q26-0106A</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>$182.15 USD</t>
+          <t>$1,230.00 CAD</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2805,19 +2842,19 @@
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>PR794156</t>
+          <t>PR914192</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Amanda Silva De Andrade</t>
+          <t>Michelly Serpa Quintanilha</t>
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>45994.64583333334</v>
+        <v>46030.54166666666</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>45994.64444444444</v>
+        <v>46030.53541666667</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2826,12 +2863,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>OP25-942 ORÇ 1339 - MONTAGEM DA BOMBA TRIPLA</t>
+          <t>SYDEL LOCAÇÃO CONTROLE DE ACESSO 02 P MUSTER</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>$134.76 USD</t>
+          <t>R$6,156.00 BRL</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2841,7 +2878,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2851,19 +2888,19 @@
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>PR794130</t>
+          <t>PR914229</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Amanda Silva De Andrade</t>
+          <t>Michelly Serpa Quintanilha</t>
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>45994.64375</v>
+        <v>46030.54583333333</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>45994.63888888889</v>
+        <v>46030.54166666666</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2872,12 +2909,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>OP25-942 ORÇ 1338 - ADAPTAÇÃO BOMBA TRIPLA</t>
+          <t>SYDEL LOCAÇÃO DE 03 CÂMERAS PTZ C/ SUPORTE REG</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>$585.49 USD</t>
+          <t>R$7,638.00 BRL</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2887,7 +2924,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2897,19 +2934,19 @@
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>PR794069</t>
+          <t>PR914259</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Amanda Silva De Andrade</t>
+          <t>Michelly Serpa Quintanilha</t>
         </is>
       </c>
       <c r="F31" s="3" t="n">
-        <v>45994.63055555556</v>
+        <v>46030.54930555556</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>45994.62638888889</v>
+        <v>46030.54722222222</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2918,12 +2955,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>OP25-941 REP25-191 -OS16389 - BOMBA SPV 20CV</t>
+          <t>SYDEL LOCAÇÃO SISTEMA CONTROLE DE ACESSO</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>$3,528.37 USD</t>
+          <t>R$103,854.00 BRL</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2933,7 +2970,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2943,19 +2980,19 @@
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>PR794048</t>
+          <t>PR914277</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Vagner Paulo Locatelli</t>
+          <t>Giovani Alves Da Cruz</t>
         </is>
       </c>
       <c r="F32" s="3" t="n">
-        <v>45994.62708333333</v>
+        <v>46030.55347222222</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>45994.62152777778</v>
+        <v>46030.55</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2964,12 +3001,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>SERVIÇO - RETRABALHO EM ADAPTADOR FERRAMENTA - PN 2251440-29</t>
+          <t>COMPRAS_WD_GUARDA CORPO TUBULAR</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>R$875.00 BRL</t>
+          <t>$451.28 USD</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2989,19 +3026,19 @@
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>PR793904</t>
+          <t>PR914287</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Gabriela Basilio Mendonca</t>
+          <t>Michelly Serpa Quintanilha</t>
         </is>
       </c>
       <c r="F33" s="3" t="n">
-        <v>45994.59791666667</v>
+        <v>46030.55763888889</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>45994.59305555555</v>
+        <v>46030.55208333334</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3010,12 +3047,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Coffee break - Brigada MCE e RDO</t>
+          <t>SYDEL LOCAÇÃO DE 09 CAMARAS- EXTENSAÕ PATIO 01</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>$446.09 USD</t>
+          <t>R$68,600.00 BRL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3025,7 +3062,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -3035,19 +3072,19 @@
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>PR793856</t>
+          <t>PR914237</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Michelly Serpa Quintanilha</t>
+          <t>Douglas Simoes</t>
         </is>
       </c>
       <c r="F34" s="3" t="n">
-        <v>45994.59027777778</v>
+        <v>46030.5625</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>45994.58194444444</v>
+        <v>46030.54375</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3056,12 +3093,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>BRASCLEAN - COPA- NOVEMBRO</t>
+          <t>PEDIDO CONSUMO GLP ULTRAGAZ RESTAURANTE - 2026</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>R$7,268.60 BRL</t>
+          <t>R$2,437.28 BRL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3071,7 +3108,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3081,19 +3118,19 @@
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>PR793872</t>
+          <t>PR912708</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Syllas Roberto Vicente</t>
+          <t>VITOR ARAUJO MOTTA</t>
         </is>
       </c>
       <c r="F35" s="3" t="n">
-        <v>45994.58819444444</v>
+        <v>46030.56805555556</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>45994.58472222222</v>
+        <v>46030.31944444445</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3102,12 +3139,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>VENTILADOR</t>
+          <t>URG SLSS/PRIO/ARMAZEM QUOTE 115099-A</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>$79.92 USD</t>
+          <t>$3,877.35 USD</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3127,19 +3164,19 @@
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>PR793698</t>
+          <t>PR914340</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Michelly Serpa Quintanilha</t>
+          <t>Douglas Simoes</t>
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>45994.57777777778</v>
+        <v>46030.56875</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>45994.54930555556</v>
+        <v>46030.56597222222</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3148,12 +3185,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BRASCLEAN - M.LIMPEZA DEZEMBRO</t>
+          <t>FECHAMENTO REFEIÇAO (Nº OF) 2ª QUINZ/DEZEMBRO 2025</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>R$15,028.12 BRL</t>
+          <t>R$1,250.00 BRL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3173,19 +3210,19 @@
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>PR793740</t>
+          <t>PR912710</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Douglas Simoes</t>
+          <t>Thawane Chagas Dos Santos</t>
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>45994.57013888889</v>
+        <v>46030.575</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>45994.55972222222</v>
+        <v>46030.31944444445</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3194,12 +3231,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>PEDIDO CONSUMO GLP ULTRAGAZ RESTAURANTE - 2025</t>
+          <t>Profissionais de Saúde - Dezembro 2025</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>R$1,706.10 BRL</t>
+          <t>R$47,303.60 BRL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3209,7 +3246,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3219,19 +3256,19 @@
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>PR793616</t>
+          <t>PR914328</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Michelly Serpa Quintanilha</t>
+          <t>Thawane Chagas Dos Santos</t>
         </is>
       </c>
       <c r="F38" s="3" t="n">
-        <v>45994.56736111111</v>
+        <v>46030.57708333333</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>45994.53333333333</v>
+        <v>46030.56319444445</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3240,12 +3277,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>BRASCLEAN - FAMILY DAY</t>
+          <t>Análise de Água Potável (Dezembro/2025)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>R$13,072.90 BRL</t>
+          <t>R$2,150.31 BRL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3265,46 +3302,138 @@
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>PR792761</t>
+          <t>PR914376</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Amanda Silva De Andrade</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>46030.58263888889</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>46030.57847222222</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>OP25-760 10 UN FUSIVEL 80A NH00****10 UN FUSIVEL 100A NH00</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>$79.42 USD</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PR914479</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Guilherme Vianna Salemi</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>46030.60138888889</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>46030.59861111111</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>HP USB-C Dock G5 BRZL</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>$166.86 USD</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PR914191</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>Debora Oliveira Machado</t>
         </is>
       </c>
-      <c r="F39" s="3" t="n">
-        <v>45994.55763888889</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>45994.40763888889</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>FAT. MOVITRAN - NF 2893/2896/2898</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>$2,808.35 USD</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="F41" s="3" t="n">
+        <v>46030.54097222222</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>46030.53472222222</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE 26732 CAMERON</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>$323.47 USD</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Resultado.xlsx
+++ b/data/Resultado.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,9 +438,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="4" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="4" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PR914472</t>
+          <t>PR918624</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -518,12 +518,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PR914567</t>
+          <t>PR919054</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BMurry</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -536,19 +536,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PR914527</t>
+          <t>PR919072</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BReagan</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -561,19 +561,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PR914214</t>
+          <t>PR918997</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JJONES75</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -586,19 +586,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PR914231</t>
+          <t>PR919042</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JJONES75</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -611,19 +611,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PR914235</t>
+          <t>PR919095</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JJONES75</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -636,19 +636,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PR914250</t>
+          <t>PR919084</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JJONES75</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -661,19 +661,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PR914190</t>
+          <t>PR918955</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BMurry</t>
+          <t>JSalazar68</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -693,12 +693,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PR914225</t>
+          <t>PR918706</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RHUGHES9</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -718,12 +718,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PR914272</t>
+          <t>PR918845</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RHUGHES9</t>
+          <t>LKiehm</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -743,12 +743,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PR914276</t>
+          <t>PR918685</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>JBROUSSARD12</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -768,12 +768,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PR914284</t>
+          <t>PR917945</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>JSalazar68</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -793,12 +793,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PR914320</t>
+          <t>PR918969</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>JSalazar68</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -818,12 +818,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PR914315</t>
+          <t>PR914701</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -843,12 +843,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PR914324</t>
+          <t>PR918959</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>CPwhittaker</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -868,12 +868,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PR914387</t>
+          <t>PR918975</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -893,12 +893,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PR914394</t>
+          <t>PR918998</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -918,12 +918,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PR914443</t>
+          <t>PR919025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MRAMOS17</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -943,12 +943,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PR914484</t>
+          <t>PR919022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BMurry</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -968,12 +968,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PR914453</t>
+          <t>PR909497</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JSalazar68</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -993,12 +993,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PR914456</t>
+          <t>PR919033</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MRAMOS17</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1018,12 +1018,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PR914467</t>
+          <t>PR919041</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BMurry</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1043,12 +1043,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PR914439</t>
+          <t>PR918907</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>BLewis9</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1068,12 +1068,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PR914516</t>
+          <t>PR918888</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BReagan</t>
+          <t>PKimball</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1093,12 +1093,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PR914232</t>
+          <t>PR918897</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MLopez119</t>
+          <t>JSalazar68</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1106,24 +1106,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PR914433</t>
+          <t>PR918938</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALAI2</t>
+          <t>CLong4</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1136,19 +1136,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PR914266</t>
+          <t>PR918908</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALAI2</t>
+          <t>JSalazar68</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1161,19 +1161,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PR914192</t>
+          <t>PR918920</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MQUINTANILHA2</t>
+          <t>CPwhittaker</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1181,24 +1181,24 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PR914229</t>
+          <t>PR918951</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MQUINTANILHA2</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1206,24 +1206,24 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PR914259</t>
+          <t>PR918952</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MQUINTANILHA2</t>
+          <t>MRAMOS17</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1231,24 +1231,24 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PR914277</t>
+          <t>PR918704</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GCRUZ24</t>
+          <t>KYOUNG3</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1256,24 +1256,24 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PR914287</t>
+          <t>PR918501</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MQUINTANILHA2</t>
+          <t>RAHRENS2</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1281,24 +1281,24 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PR914237</t>
+          <t>PR918569</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DSIMOES2</t>
+          <t>GMORENO20</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1306,49 +1306,49 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PR912708</t>
+          <t>PR918568</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VMotta</t>
+          <t>KYOUNG3</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PR914340</t>
+          <t>PR918510</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DSIMOES2</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1356,24 +1356,24 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PR912710</t>
+          <t>PR918556</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TSANTOS22</t>
+          <t>KYOUNG3</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1381,24 +1381,24 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PR914328</t>
+          <t>PR918748</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TSANTOS22</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1406,24 +1406,24 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PR914376</t>
+          <t>PR918777</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>aandrade20</t>
+          <t>JSalazar68</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1431,24 +1431,24 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PR914479</t>
+          <t>PR918866</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GSalemi</t>
+          <t>MRAMOS17</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1456,35 +1456,1460 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PR914191</t>
+          <t>PR918491</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>CPwhittaker</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PR918431</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>LKiehm</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PR918657</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PR918837</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>JCELESTINE</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PR918821</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>JCELESTINE</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PR918809</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>JCELESTINE</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PR918473</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PR918313</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BMartin18</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PR918815</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CLong4</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PR918358</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KHodges</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PR918365</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KHodges</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PR918595</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PR918371</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KHodges</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PR918903</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PR918868</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PR918882</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PR919098</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KYOUNG3</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PR919088</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>KYOUNG3</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PR919086</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PR919081</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>RLEYVA2</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PR919071</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>RLEYVA2</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PR919073</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PR919049</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RLEYVA2</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PR919265</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>LLEAL7</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PR919245</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>VAburto</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PR919343</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>LUSCANGA</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PR919351</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>LUSCANGA</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PR919354</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>LUSCANGA</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PR919241</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>VAburto</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PR919061</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BChino</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PR919119</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BChino</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PR918143</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MLopez160</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PR919239</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>VAburto</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PR919230</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>VAburto</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PR918432</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FCARCAMO</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PR918472</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>FCARCAMO</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PR919174</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>GFehr</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PR910027-V2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DCosta18</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PR919014</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MSANTOS80</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PR918458</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>LFigueiredo5</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PR918619</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>LFigueiredo5</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PR918230</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>VMotta</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PR918518</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>LJuliao</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PR918730</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DSIMOES2</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PR918750</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>DMachado6</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>CAMERON LAM</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PR918528</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PR918514</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PR918578</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PR918793</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PR918770</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PR918806</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PR918823</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PR918631</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PR918323</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PR918478</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>PR918442</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PR918439</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PR918836</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>DMachado6</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
         </is>
@@ -1501,7 +2926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1511,14 +2936,14 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="69" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="53" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
     <col width="38" customWidth="1" min="11" max="11"/>
     <col width="17" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
@@ -1600,7 +3025,7 @@
     <row r="2">
       <c r="C2" t="inlineStr">
         <is>
-          <t>PR914472</t>
+          <t>PR918624</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1609,10 +3034,10 @@
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>46030.59930555556</v>
+        <v>46031.60208333333</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>46030.59722222222</v>
+        <v>46031.59791666667</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1621,12 +3046,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hose Source Quote 112873 TLM-Jamie</t>
+          <t>Redwing - Derek S.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$687.72 USD</t>
+          <t>$227.00 USD</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1646,19 +3071,19 @@
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>PR914567</t>
+          <t>PR919054</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRITTANEA BATTEN</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>46030.62013888889</v>
+        <v>46031.7</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>46030.61805555555</v>
+        <v>46031.69722222222</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1667,17 +3092,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>WELD TECH QUOTE# 16523</t>
+          <t>Bunkie SO 102140653- TLM Jamie Folse</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$1,605.00 USD</t>
+          <t>$2,003.20 USD</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1692,19 +3117,19 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>PR914527</t>
+          <t>PR919072</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bobby Reagan</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>46030.60972222222</v>
+        <v>46031.70347222222</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>46030.60763888889</v>
+        <v>46031.70208333333</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1713,17 +3138,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TriMark - Invoice Number: 0980090</t>
+          <t>Bunkie SO 102140655-CP</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$165.00 USD</t>
+          <t>$1,162.50 USD</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1738,19 +3163,19 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>PR914214</t>
+          <t>PR918997</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Casey Jones</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>46030.54097222222</v>
+        <v>46031.68888888889</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>46030.53958333333</v>
+        <v>46031.68472222222</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1759,17 +3184,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Test Flange</t>
+          <t>Shannon Quote 2772814</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$2,000.00 USD</t>
+          <t>$176.77 USD</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1784,19 +3209,19 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>PR914231</t>
+          <t>PR919042</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Casey Jones</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>46030.54236111111</v>
+        <v>46031.69583333333</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>46030.54166666666</v>
+        <v>46031.69444444445</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1805,17 +3230,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Test Flange</t>
+          <t>Bunkie SO 102140654- TLM Jamie Folse</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$2,000.00 USD</t>
+          <t>$1,234.80 USD</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1830,19 +3255,19 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>PR914235</t>
+          <t>PR919095</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Casey Jones</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>46030.54444444444</v>
+        <v>46031.71041666667</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>46030.54305555556</v>
+        <v>46031.70902777778</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1851,17 +3276,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Test Flange</t>
+          <t>Bunkie SO 102140665- CP</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$2,000.00 USD</t>
+          <t>$1,162.50 USD</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1876,19 +3301,19 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>PR914250</t>
+          <t>PR919084</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Casey Jones</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>46030.54652777778</v>
+        <v>46031.70694444444</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>46030.54583333333</v>
+        <v>46031.70555555556</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1897,17 +3322,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Fittings</t>
+          <t>Bunkie SO 102140667-CP</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>$1,156.32 USD</t>
+          <t>$1,223.00 USD</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1922,19 +3347,19 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>PR914190</t>
+          <t>PR918955</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRITTANEA BATTEN</t>
+          <t>Judith Salazar</t>
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>46030.54722222222</v>
+        <v>46031.67708333334</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>46030.53472222222</v>
+        <v>46031.67569444444</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1943,12 +3368,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SOUTHWEST INVOICE # RT03-I31061</t>
+          <t>LONE STAR GASKET WELLHEAD 25715</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>$1,866.80 USD</t>
+          <t>$968.20 USD</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1968,19 +3393,19 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>PR914225</t>
+          <t>PR918706</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Robert Hughes</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>46030.54791666667</v>
+        <v>46031.66597222222</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>46030.54097222222</v>
+        <v>46031.61875</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1989,12 +3414,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1/2 H HYD QUICK CONNECT</t>
+          <t>ANKY 1H, 2HB, 4HB TEST HAND</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>$500.31 USD</t>
+          <t>$2,600.00 USD</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2004,7 +3429,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -2014,19 +3439,19 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>PR914272</t>
+          <t>PR918845</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Robert Hughes</t>
+          <t>LAURA KIEHM</t>
         </is>
       </c>
       <c r="F11" s="3" t="n">
-        <v>46030.55208333334</v>
+        <v>46031.65138888889</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>46030.54930555556</v>
+        <v>46031.65</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2035,12 +3460,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>HOSE ASSY 2X100 MXF LAYFLAT</t>
+          <t>Steel Toe Boots_JCocker</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>$278.84 USD</t>
+          <t>$138.00 USD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2050,7 +3475,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -2060,19 +3485,19 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>PR914276</t>
+          <t>PR918685</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Joseph Broussard</t>
         </is>
       </c>
       <c r="F12" s="3" t="n">
-        <v>46030.55277777778</v>
+        <v>46031.62638888889</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>46030.55</v>
+        <v>46031.61458333334</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2081,12 +3506,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CINTAS #4255487126</t>
+          <t>NI WELDING SUPPLY ORD.10561485-00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>$45.00 USD</t>
+          <t>$2,562.39 USD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2106,19 +3531,19 @@
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>PR914284</t>
+          <t>PR917945</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Judith Salazar</t>
         </is>
       </c>
       <c r="F13" s="3" t="n">
-        <v>46030.55902777778</v>
+        <v>46031.63472222222</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>46030.55138888889</v>
+        <v>46031.46041666667</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2127,12 +3552,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TRUCK TICKET 2273</t>
+          <t>MANSFIELD 319884 SPLIT SERVICE AND FLOWBACK</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>$1,760.00 USD</t>
+          <t>$1,441.00 USD</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2142,7 +3567,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -2152,19 +3577,19 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>PR914320</t>
+          <t>PR918969</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Judith Salazar</t>
         </is>
       </c>
       <c r="F14" s="3" t="n">
-        <v>46030.56388888889</v>
+        <v>46031.67916666667</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>46030.56111111111</v>
+        <v>46031.67777777778</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2173,12 +3598,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>#2813638-INDUSTRIL SCIENTIFIC</t>
+          <t>P&amp;W SALES 0361771</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>$1,202.80 USD</t>
+          <t>$385.50 USD</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2198,19 +3623,19 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>PR914315</t>
+          <t>PR914701</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F15" s="3" t="n">
-        <v>46030.56388888889</v>
+        <v>46031.68958333333</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>46030.56041666667</v>
+        <v>46030.64652777778</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2219,12 +3644,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TRUCK TICKET 2275</t>
+          <t>P&amp;W SALES - ORDER NO 0360040</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>$2,750.00 USD</t>
+          <t>$1,225.00 USD</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2238,25 +3663,25 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>PR914324</t>
+          <t>PR918959</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Christina Pendarvis-Whittaker</t>
         </is>
       </c>
       <c r="F16" s="3" t="n">
-        <v>46030.57708333333</v>
+        <v>46031.67986111111</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>46030.56180555555</v>
+        <v>46031.67638888889</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2265,12 +3690,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MIDWEST HOSE #00860589</t>
+          <t>MSC Quote # 30151200</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>$3,800.00 USD</t>
+          <t>$504.09 USD</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2290,19 +3715,19 @@
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>PR914387</t>
+          <t>PR918975</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F17" s="3" t="n">
-        <v>46030.58611111111</v>
+        <v>46031.68402777778</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>46030.58125</v>
+        <v>46031.67916666667</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2311,12 +3736,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SAFETY KLEEN</t>
+          <t>WHITTAKER IH TEST HAND</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>$879.13 USD</t>
+          <t>$4,550.00 USD</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2336,19 +3761,19 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>PR914394</t>
+          <t>PR918998</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F18" s="3" t="n">
-        <v>46030.58888888889</v>
+        <v>46031.69027777778</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>46030.58263888889</v>
+        <v>46031.68472222222</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2357,12 +3782,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>#0008522-SCOUT</t>
+          <t>WHITTAKER IH TEST HAND</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>$4,638.60 USD</t>
+          <t>$1,951.00 USD</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2372,7 +3797,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -2382,19 +3807,19 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>PR914443</t>
+          <t>PR919025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Martin Ramos</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F19" s="3" t="n">
-        <v>46030.59305555555</v>
+        <v>46031.69375</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>46030.59027777778</v>
+        <v>46031.69027777778</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2403,12 +3828,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>UNIFIRST</t>
+          <t>HORTON 29H 1, 2, 3 TEST HAND</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>$387.75 USD</t>
+          <t>$3,250.00 USD</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2418,7 +3843,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -2428,19 +3853,19 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>PR914484</t>
+          <t>PR919022</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BRITTANEA BATTEN</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F20" s="3" t="n">
-        <v>46030.60277777778</v>
+        <v>46031.69166666667</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>46030.6</v>
+        <v>46031.68958333333</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2449,12 +3874,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>C&amp;W WO# SMMB004430</t>
+          <t>P&amp;W SALES - ORDER NO 0360047</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>$500.00 USD</t>
+          <t>$1,942.00 USD</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2464,7 +3889,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -2474,19 +3899,19 @@
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>PR914453</t>
+          <t>PR909497</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Judith Salazar</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>46030.59513888889</v>
+        <v>46031.71180555555</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>46030.59305555555</v>
+        <v>46029.62361111111</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2495,12 +3920,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>RELIABLE PUMPS MID3754</t>
+          <t>P&amp;W SALES - ORDER NO 0361769</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>$268.91 USD</t>
+          <t>$504.00 USD</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2510,29 +3935,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>PR914456</t>
+          <t>PR919033</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Martin Ramos</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>46030.59722222222</v>
+        <v>46031.69513888889</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>46030.59375</v>
+        <v>46031.69236111111</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2541,12 +3966,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>REPUBLIC</t>
+          <t>P&amp;W SALES - ORDER NO 0360052</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>$226.24 USD</t>
+          <t>$1,125.50 USD</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2556,7 +3981,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2566,19 +3991,19 @@
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>PR914467</t>
+          <t>PR919041</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BRITTANEA BATTEN</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>46030.59722222222</v>
+        <v>46031.69791666666</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>46030.59583333333</v>
+        <v>46031.69375</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2587,12 +4012,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>(4 Clamp) Electric Actuator Protective Guard</t>
+          <t>HORTON 29H 1, 2, 3 TEST HAND</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>$58,500.00 USD</t>
+          <t>$3,250.00 USD</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2612,19 +4037,19 @@
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>PR914439</t>
+          <t>PR918907</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Brett Lewis</t>
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>46030.59861111111</v>
+        <v>46031.66597222222</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>46030.59027777778</v>
+        <v>46031.66458333333</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2633,12 +4058,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>SAFETY KLEEN #98932152</t>
+          <t>fastenal quote 121701</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>$5,155.40 USD</t>
+          <t>$455.76 USD</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2648,7 +4073,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2658,19 +4083,19 @@
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>PR914516</t>
+          <t>PR918888</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bobby Reagan</t>
+          <t>Paula Kimball</t>
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>46030.60763888889</v>
+        <v>46031.66805555556</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>46030.60555555556</v>
+        <v>46031.66111111111</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2679,12 +4104,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>INV: 140262766 - TOYOTA LIFT OF HOUSTON</t>
+          <t>Copy of A514 - C&amp;W - NOV 2025 / MO LABOR 4408 RASCO</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>$670.30 USD</t>
+          <t>$689.49 USD</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2704,19 +4129,19 @@
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>PR914232</t>
+          <t>PR918897</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MANUEL ALEJANDRO ORTIZ LOPEZ</t>
+          <t>Judith Salazar</t>
         </is>
       </c>
       <c r="F26" s="3" t="n">
-        <v>46030.54513888889</v>
+        <v>46031.66458333333</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>46030.54166666666</v>
+        <v>46031.66319444445</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2725,22 +4150,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>FLEJES CORDSTRAP 1" Y NEUPRENO PARA PREPARACION DE EQUIPOS DE VENTA</t>
+          <t>CRUEDE 5256</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>$559.54 USD</t>
+          <t>$209.85 USD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2750,19 +4175,19 @@
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>PR914433</t>
+          <t>PR918938</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Albert Lai</t>
+          <t>Cynthia Long</t>
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>46030.60972222222</v>
+        <v>46031.69513888889</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>46030.58958333333</v>
+        <v>46031.67222222222</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2771,22 +4196,22 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Advanced Heat Solutions - Estimate #Q26-0106</t>
+          <t>LIF-EN1-901-03 SLING 1X3 IPLY</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>$3,850.00 CAD</t>
+          <t>$1,430.73 USD</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2796,19 +4221,19 @@
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>PR914266</t>
+          <t>PR918908</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Albert Lai</t>
+          <t>Judith Salazar</t>
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>46030.59652777778</v>
+        <v>46031.67430555556</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>46030.54861111111</v>
+        <v>46031.66527777778</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2817,17 +4242,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Advanced Heat Solutions - Estimate #Q26-0106A</t>
+          <t>SOUTHWEST SPEC RT03-I31077</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>$1,230.00 CAD</t>
+          <t>$2,498.95 USD</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2842,19 +4267,19 @@
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>PR914192</t>
+          <t>PR918920</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Michelly Serpa Quintanilha</t>
+          <t>Christina Pendarvis-Whittaker</t>
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>46030.54166666666</v>
+        <v>46031.67361111111</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>46030.53541666667</v>
+        <v>46031.66805555556</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2863,22 +4288,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>SYDEL LOCAÇÃO CONTROLE DE ACESSO 02 P MUSTER</t>
+          <t>PTSOLUTIONS QUOTE 1210758</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>R$6,156.00 BRL</t>
+          <t>$1,034.00 USD</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2888,19 +4313,19 @@
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>PR914229</t>
+          <t>PR918951</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Michelly Serpa Quintanilha</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>46030.54583333333</v>
+        <v>46031.67847222222</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>46030.54166666666</v>
+        <v>46031.675</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2909,22 +4334,22 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>SYDEL LOCAÇÃO DE 03 CÂMERAS PTZ C/ SUPORTE REG</t>
+          <t>WHITTAKER IH</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>R$7,638.00 BRL</t>
+          <t>$2,600.00 USD</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2934,19 +4359,19 @@
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>PR914259</t>
+          <t>PR918952</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Michelly Serpa Quintanilha</t>
+          <t>Martin Ramos</t>
         </is>
       </c>
       <c r="F31" s="3" t="n">
-        <v>46030.54930555556</v>
+        <v>46031.67638888889</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>46030.54722222222</v>
+        <v>46031.675</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2955,22 +4380,22 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>SYDEL LOCAÇÃO SISTEMA CONTROLE DE ACESSO</t>
+          <t>Copy of MCMASTER Quote 213426</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>R$103,854.00 BRL</t>
+          <t>$219.48 USD</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2980,19 +4405,19 @@
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>PR914277</t>
+          <t>PR918704</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Giovani Alves Da Cruz</t>
+          <t>Kevin Young</t>
         </is>
       </c>
       <c r="F32" s="3" t="n">
-        <v>46030.55347222222</v>
+        <v>46031.62083333333</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>46030.55</v>
+        <v>46031.61805555555</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3001,22 +4426,22 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>COMPRAS_WD_GUARDA CORPO TUBULAR</t>
+          <t>I" FNPT MALE NIPPLE B STYLE QC</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>$451.28 USD</t>
+          <t>$2,511.60 USD</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -3026,19 +4451,19 @@
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>PR914287</t>
+          <t>PR918501</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Michelly Serpa Quintanilha</t>
+          <t>Robert Ahrens</t>
         </is>
       </c>
       <c r="F33" s="3" t="n">
-        <v>46030.55763888889</v>
+        <v>46031.57986111111</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>46030.55208333334</v>
+        <v>46031.57361111111</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3047,22 +4472,22 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>SYDEL LOCAÇÃO DE 09 CAMARAS- EXTENSAÕ PATIO 01</t>
+          <t>3807299 Certified</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>R$68,600.00 BRL</t>
+          <t>$5,362.50 USD</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -3072,19 +4497,19 @@
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>PR914237</t>
+          <t>PR918569</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Douglas Simoes</t>
+          <t>Guadalupe Moreno</t>
         </is>
       </c>
       <c r="F34" s="3" t="n">
-        <v>46030.5625</v>
+        <v>46031.59375</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>46030.54375</v>
+        <v>46031.58611111111</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3093,17 +4518,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>PEDIDO CONSUMO GLP ULTRAGAZ RESTAURANTE - 2026</t>
+          <t>Amigos - 0618416</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>R$2,437.28 BRL</t>
+          <t>$1,460.00 USD</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3118,19 +4543,19 @@
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>PR912708</t>
+          <t>PR918568</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VITOR ARAUJO MOTTA</t>
+          <t>Kevin Young</t>
         </is>
       </c>
       <c r="F35" s="3" t="n">
-        <v>46030.56805555556</v>
+        <v>46031.58611111111</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>46030.31944444445</v>
+        <v>46031.58541666667</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3139,17 +4564,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>URG SLSS/PRIO/ARMAZEM QUOTE 115099-A</t>
+          <t>BF415</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>$3,877.35 USD</t>
+          <t>$4,500.00 USD</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3164,19 +4589,19 @@
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>PR914340</t>
+          <t>PR918510</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Douglas Simoes</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>46030.56875</v>
+        <v>46031.66597222222</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>46030.56597222222</v>
+        <v>46031.575</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3185,17 +4610,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>FECHAMENTO REFEIÇAO (Nº OF) 2ª QUINZ/DEZEMBRO 2025</t>
+          <t>CREW HAND</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>R$1,250.00 BRL</t>
+          <t>$4,840.00 USD</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3210,19 +4635,19 @@
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>PR912710</t>
+          <t>PR918556</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thawane Chagas Dos Santos</t>
+          <t>Kevin Young</t>
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>46030.575</v>
+        <v>46031.58472222222</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>46030.31944444445</v>
+        <v>46031.58402777778</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3231,17 +4656,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Profissionais de Saúde - Dezembro 2025</t>
+          <t>BF715</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>R$47,303.60 BRL</t>
+          <t>$5,000.00 USD</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3256,19 +4681,19 @@
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>PR914328</t>
+          <t>PR918748</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thawane Chagas Dos Santos</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F38" s="3" t="n">
-        <v>46030.57708333333</v>
+        <v>46031.63472222222</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>46030.56319444445</v>
+        <v>46031.62986111111</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -3277,22 +4702,22 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Análise de Água Potável (Dezembro/2025)</t>
+          <t>RICKS SIGNS 41957</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>R$2,150.31 BRL</t>
+          <t>$892.50 USD</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3302,19 +4727,19 @@
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>PR914376</t>
+          <t>PR918777</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Amanda Silva De Andrade</t>
+          <t>Judith Salazar</t>
         </is>
       </c>
       <c r="F39" s="3" t="n">
-        <v>46030.58263888889</v>
+        <v>46031.66180555556</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>46030.57847222222</v>
+        <v>46031.63611111111</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -3323,22 +4748,22 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>OP25-760 10 UN FUSIVEL 80A NH00****10 UN FUSIVEL 100A NH00</t>
+          <t>HYTORC SOV410398</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>$79.42 USD</t>
+          <t>$2,407.92 USD</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -3348,19 +4773,19 @@
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>PR914479</t>
+          <t>PR918866</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Guilherme Vianna Salemi</t>
+          <t>Martin Ramos</t>
         </is>
       </c>
       <c r="F40" s="3" t="n">
-        <v>46030.60138888889</v>
+        <v>46031.66041666667</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>46030.59861111111</v>
+        <v>46031.65555555555</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -3369,22 +4794,22 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>HP USB-C Dock G5 BRZL</t>
+          <t>C&amp;W</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>$166.86 USD</t>
+          <t>$4,290.00 USD</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -3394,46 +4819,2668 @@
     <row r="41">
       <c r="C41" t="inlineStr">
         <is>
-          <t>PR914191</t>
+          <t>PR918491</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Christina Pendarvis-Whittaker</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>46031.66666666666</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>46031.57152777778</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>PTSOULTIONS Quote 1210983</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>$1,690.96 USD</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PR918431</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LAURA KIEHM</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>46031.57916666667</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>46031.56111111111</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Post Fact PO_Laura Goldner</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>$5,188.91 USD</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PR918657</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>46031.66736111111</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>46031.60486111111</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ANKY 1H, 2HB, 4HB TEST HAND</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>$2,600.00 USD</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PR918837</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Joseph Celestine</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>46031.65138888889</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>46031.64930555555</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>PALLET---- 40" X 30" HT</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>$4,067.50 USD</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PR918821</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Joseph Celestine</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>46031.64722222222</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>46031.64652777778</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>PALLET---- 96" X 72" BOLTED SYP HT</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>$5,550.00 USD</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PR918809</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Joseph Celestine</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>46031.64513888889</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>46031.64305555556</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>SKID---60" X 44" SYP----W/CUTOUT HT</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>$5,852.00 USD</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PR918473</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>46031.575</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>46031.56944444445</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ENERGY SURCHARGE - VAC</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>$3,731.30 USD</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PR918313</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Benjamin Martin</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>46031.725</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>46031.53333333333</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>McMaster - Orbit Core Fixture</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>$78.55 USD</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PR918815</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Cynthia Long</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>46031.65208333333</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>46031.64444444444</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>YEAR INVENTORY LABELS - "2025", 2" CIRCLE</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>$36.00 USD</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PR918358</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>KELLY HODGES</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>46031.54652777778</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>46031.54583333333</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>INNOVATIONS THROUGH DESIGN 2658</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>$2,200.00 USD</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PR918365</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>KELLY HODGES</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>46031.54722222222</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>46031.54722222222</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>INNOVATIONS THROUGH DESIGN 2655</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>$2,200.00 USD</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PR918595</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>46031.60138888889</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>46031.59097222222</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2” 1502 LVL 1IRON REC VIS UT HY</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>$2,978.50 USD</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PR918371</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>KELLY HODGES</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>46031.55</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>46031.54861111111</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>INNOVATIONS THROUGH DESIGN 2656</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>$2,200.00 USD</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PR918903</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>46031.67013888889</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>46031.66388888889</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>CORONADO COUSTEAU A 5H, B 6H TEST HAND</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>$1,300.00 USD</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PR918868</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>46031.66666666666</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>46031.65694444445</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>USA BOONE 1HB &amp; 3HB TEST HAND</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>$3,900.00 USD</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PR918882</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>46031.66319444445</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>46031.66041666667</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CORONADO COUSTEAU A 5H, B 6H TEST HAND</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>$3,900.00 USD</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PR919098</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kevin Young</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>46031.71944444445</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>46031.70972222222</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>CAMERON BLUE PAINT 5 GAL</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>$2,258.00 USD</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PR919088</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kevin Young</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>46031.70694444444</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>46031.70694444444</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>16.9oz bottle water case</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>$1,008.00 USD</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PR919086</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>46031.70972222222</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>46031.70625</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>CHIPPER-TEDDY-NOLTE 3,4 TEST HAND</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>$3,250.00 USD</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PR919081</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Rakel Leyva</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>46031.70902777778</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>46031.70486111111</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>P&amp;W SALES - ORDER NO 0360833</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>$2,079.00 USD</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PR919071</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rakel Leyva</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>46031.70347222222</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>46031.70208333333</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>P&amp;W SALES - ORDER NO 0360826</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>$2,430.00 USD</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PR919073</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>46031.70486111111</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>46031.70208333333</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>HORTON 29H 1, 2, 3 TEST HAND</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>$3,250.00 USD</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PR919049</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Rakel Leyva</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>46031.70069444444</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>46031.69583333333</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>P&amp;W SALES - ORDER NO 0360819</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>$1,662.60 USD</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PR919265</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Luis Martin Leal</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>46031.82222222222</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>46031.82222222222</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Tornillo Allen 1 3/4" 8UN, 2 1/2" long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>$0.40 USD</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PR919245</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Victor Daniel Carvajal</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>46031.77847222222</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>46031.77638888889</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Inspeccion con Ballbar</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>$2.00 USD</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PR919343</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Luis Alfonso Hernandez</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>46031.94930555556</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>46031.94375</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Copy of Transductor de Presión 30,000 psi</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PR919351</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Luis Alfonso Hernandez</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>46031.97222222222</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>46031.96944444445</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>14A Redi-Bath Particulas Magneticas</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PR919354</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Luis Alfonso Hernandez</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>46031.97638888889</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>46031.97361111111</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Alcohol Isopropílico</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PR919241</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Victor Daniel Carvajal</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>46031.77430555555</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>46031.77361111111</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Guarda del eje Z mori</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PR919061</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Blanca Kristhell Chino</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>46031.70347222222</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>46031.69861111111</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Lentes Antonio Molina</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>$3.00 USD</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PR919119</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Blanca Kristhell Chino</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>46031.71875</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>46031.71666666667</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Playeras tipo Polo SET ENERO</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>$335.22 USD</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PR918143</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Monsserrath Lopez</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>46031.54583333333</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>46031.49444444444</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>PAGO ANCABE ENERO</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>$18,636.66 USD</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PR919239</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Victor Daniel Carvajal</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>46031.77361111111</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>46031.77291666667</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Guarda de luneta 8330</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PR919230</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Victor Daniel Carvajal</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>46031.77152777778</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>46031.76458333333</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Guarda del eje Z toyoda 8460</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PR918432</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Francisco Hernandez</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>46031.56388888889</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>46031.56111111111</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Pallets para manejo interno Almance</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>$0.06 USD</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PR918472</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Francisco Hernandez</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>46031.57013888889</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>46031.56875</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Etiqueta tamaño carta en vinil autoadhesivo</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>$335.22 USD</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PR919174</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Gregory Fehr</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>46031.73819444444</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>46031.73263888889</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Uline Supply</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>$739.03 USD</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PR910027-V2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Denis Roberto Leite Da Costa</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>46031.79930555556</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>46031.36111111111</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>COMPRA_FOSFATIZANTE M</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>$1,683.89 USD</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PR919014</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Marcos Vinicius Leao Santos</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>46031.70486111111</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>46031.68819444445</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Requisicao Smartphone Samsung</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>$202.19 USD</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PR918458</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Lorena FIGUEIREDO</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>46031.57291666666</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>46031.56597222222</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>267852 ONESUBSEA BR Torque Tool Cables</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>R$21,766.65 BRL</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PR918619</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Lorena FIGUEIREDO</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>46031.60277777778</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>46031.59722222222</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Jupiter 2 interconnection electric cable</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>R$20,740.23 BRL</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PR918230</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>VITOR ARAUJO MOTTA</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>46031.54930555556</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>46031.5125</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>URG SLSS/TLM/ARMAZEM QUOTE 0114310-A</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>$397.64 USD</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PR918518</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Lilian Regina Juliao</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>46031.59027777778</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>46031.57708333333</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>MMB MAIO 2025</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>$8,367.53 USD</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PR918730</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Douglas Simoes</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>46031.63680555556</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>46031.62569444445</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>FECHAMENTO QUALITY DRIVE (WBS) - NOVEMBRO 2025</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>R$136.50 BRL</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PR918750</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>Debora Oliveira Machado</t>
         </is>
       </c>
-      <c r="F41" s="3" t="n">
-        <v>46030.54097222222</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>46030.53472222222</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>FAT. TECNOLOG - CTE 26732 CAMERON</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>$323.47 USD</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
+      <c r="F85" s="3" t="n">
+        <v>46031.63472222222</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>46031.62986111111</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 14</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>$4,599.13 USD</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PR918528</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>46031.58611111111</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>46031.57916666667</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 10</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>$1,798.74 USD</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PR918514</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>46031.57916666667</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>46031.57569444444</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 9</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>$3,398.01 USD</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PR918578</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>46031.59027777778</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>46031.58819444444</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 11</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>$4,834.81 USD</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N41" t="n">
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PR918793</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>46031.64236111111</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>46031.64027777778</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 16</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>$4,216.47 USD</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PR918770</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>46031.64027777778</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>46031.63541666666</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 15</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>$4,681.10 USD</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PR918806</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>46031.64513888889</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>46031.64236111111</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 17</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>$3,429.36 USD</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PR918823</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>46031.64861111111</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>46031.64652777778</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 18</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>$3,940.53 USD</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PR918631</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>46031.60138888889</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>46031.59861111111</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 13</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>$4,555.09 USD</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PR918323</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>46031.54652777778</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>46031.53680555556</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 4</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>$2,636.42 USD</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PR918478</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>46031.57569444444</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>46031.57013888889</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 8</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>$4,504.06 USD</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PR918442</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>46031.56944444445</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>46031.56319444445</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 8</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>$4,291.60 USD</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PR918439</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>46031.59375</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>46031.5625</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 6</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>$4,996.73 USD</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PR918836</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Debora Oliveira Machado</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>46031.68194444444</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>46031.64861111111</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>FAT. TECNOLOG - CTE CAMERON 19</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>$4,681.39 USD</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Resultado.xlsx
+++ b/data/Resultado.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,9 +438,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="4" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="4" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PR930906</t>
+          <t>PR936332</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -518,12 +518,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PR930650</t>
+          <t>PR937128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JMACIAS10</t>
+          <t>MEATON4</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -536,19 +536,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US11 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PR930632</t>
+          <t>PR937075</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>MEATON4</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -561,19 +561,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US11 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PR930760</t>
+          <t>PR937036</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>MEATON4</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -586,19 +586,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US11 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PR930810</t>
+          <t>PR936050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -618,12 +618,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PR930782</t>
+          <t>PR936040</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BMurry</t>
+          <t>KMartinez13</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -643,12 +643,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PR930854</t>
+          <t>PR936061</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BMurry</t>
+          <t>MGALLEGOS6</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -668,12 +668,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PR930887</t>
+          <t>PR936036</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CPETERSON3</t>
+          <t>WSACKMANN</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -693,12 +693,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PR930828</t>
+          <t>PR936108</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>MGALLEGOS6</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -718,12 +718,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PR930832</t>
+          <t>PR936276</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NDINGER</t>
+          <t>SMcfadyen</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -743,12 +743,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PR930885</t>
+          <t>PR925992</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RAHRENS2</t>
+          <t>PKimball</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -768,12 +768,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PR930920</t>
+          <t>PR925977</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JBROUSSARD12</t>
+          <t>PKimball</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -793,12 +793,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PR930902</t>
+          <t>PR925952</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CLong4</t>
+          <t>PKimball</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -818,12 +818,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PR930918</t>
+          <t>PR925936</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>PKimball</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -843,12 +843,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PR930951</t>
+          <t>PR925060</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>PKimball</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -868,12 +868,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PR930943</t>
+          <t>PR936653</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LTan17</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -893,12 +893,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PR930581</t>
+          <t>PR936663</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NWARD7</t>
+          <t>TFONTENOT3</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -918,7 +918,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PR930968</t>
+          <t>PR936677</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -943,12 +943,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PR930878</t>
+          <t>PR926066</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FVaradi</t>
+          <t>PKimball</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -968,12 +968,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PR930981</t>
+          <t>PR936711</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>MRivera25</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -993,12 +993,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PR930996</t>
+          <t>PR936786</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NDINGER</t>
+          <t>CPwhittaker</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1018,12 +1018,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PR914494</t>
+          <t>PR936852</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JSalazar68</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1043,12 +1043,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PR930998</t>
+          <t>PR936865</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MRAMOS17</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1068,12 +1068,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PR931004</t>
+          <t>PR936871</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1093,12 +1093,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PR930705</t>
+          <t>PR936880</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>YHernandez22</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1106,24 +1106,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PR930917</t>
+          <t>PR936951</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SVICENTE2</t>
+          <t>RAHRENS2</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1131,24 +1131,24 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PR930952</t>
+          <t>PR936959</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MMORAES5</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1156,24 +1156,24 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PR930962</t>
+          <t>PR936979</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SVICENTE2</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1181,24 +1181,24 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PR930722</t>
+          <t>PR936990</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MREGUERA</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1206,37 +1206,1487 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PR929962</t>
+          <t>PR936995</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>KHodges</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PR939300</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BBROWN23</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PR936277</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BMurry</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PR936306</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MRAMOS17</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PR936317</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>KMartinez13</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PR930775</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CPwhittaker</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PR936380</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BTAYLOR27</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PR936438</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>JSalazar68</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PR929963</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>EGarza20</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PR936481</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>JSalazar68</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PR936519</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>RAHRENS2</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PR936520</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>TLAMKIN</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PR936608</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>JSalazar68</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PR936595</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>KMartinez13</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PR936616</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>JSalazar68</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PR936617</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PR935330</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PKimball</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PR935313</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PKimball</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PR935008</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PKimball</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PR934976</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PKimball</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PR936637</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KSIMON4</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PR934935</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PKimball</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PR934919</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PKimball</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PR936468</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>LUSCANGA</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PR936762</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MLopez119</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PR936674</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>LUSCANGA</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PR936565</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>LUSCANGA</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PR936801</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LLEAL7</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PR936827</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>LLEAL7</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PR935496</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>BChino</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PR936166</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>VAburto</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PR937711</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>GGarcia53</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PR937696</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GGarcia53</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PR936160</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>VAburto</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PR936906</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BChino</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PR936934</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>LLEAL7</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PR936114</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>VAburto</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PR936102</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>VAburto</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PR936088</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>VAburto</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PR936964</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>LLEAL7</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PR936782</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MJOSEPH3</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PR936057</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MREHMAN10</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>CAMERON NAM</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PR930282</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>VCaldas2</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PR936035</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MQUINTANILHA2</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PR939051</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>TSANTOS22</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>CAMERON LAM</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PR939209</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>AGuimaraes10</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PR939374</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>aandrade20</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PR936066</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DSIMOES2</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PR926240-V2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DCosta18</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PR936917</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DCosta18</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PR936119</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>LJuliao</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PR936265</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MQUINTANILHA2</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PR936301</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>LJuliao</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PR936353</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MREGUERA</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PR936563</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>VLOCATELLI</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PR936574</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>VAmaral</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PR936133</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>VMotta</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PR936136</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>LJuliao</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PR936488</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>KRodrigues3</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CAMERON LAM</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
         </is>
       </c>
     </row>
@@ -1251,7 +2701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,14 +2711,14 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="91" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="117" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
     <col width="38" customWidth="1" min="11" max="11"/>
     <col width="17" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
@@ -1350,7 +2800,7 @@
     <row r="2">
       <c r="C2" t="inlineStr">
         <is>
-          <t>PR930906</t>
+          <t>PR936332</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1359,10 +2809,10 @@
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>46035.61458333334</v>
+        <v>46036.59791666667</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>46035.60416666666</v>
+        <v>46036.59513888889</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1371,12 +2821,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Redwing- Jesse/Tait/Brody</t>
+          <t>Redwing- Magee</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$237.00 USD</t>
+          <t>$79.00 USD</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1396,19 +2846,19 @@
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>PR930650</t>
+          <t>PR937128</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Juan Macias</t>
+          <t>Melanie Eaton</t>
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>46035.55277777778</v>
+        <v>46036.85555555556</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>46035.54930555556</v>
+        <v>46036.84652777778</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1417,17 +2867,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Olympus - QT-US-TX-S-68402</t>
+          <t>Facility Maintenance Supplies Invoice 2890144927</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$230.00 USD</t>
+          <t>$125.17 USD</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US11 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1442,19 +2892,19 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>PR930632</t>
+          <t>PR937075</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Melanie Eaton</t>
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>46035.55555555555</v>
+        <v>46036.82361111111</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>46035.54583333333</v>
+        <v>46036.82083333333</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1463,17 +2913,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LABOR TO REPAIR STEWARTS 10K GAUGE</t>
+          <t>Helium Delivery</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$1,083.14 USD</t>
+          <t>$2,587.55 USD</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US11 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1488,19 +2938,19 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>PR930760</t>
+          <t>PR937036</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Melanie Eaton</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>46035.57986111111</v>
+        <v>46036.81041666667</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>46035.57361111111</v>
+        <v>46036.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1509,17 +2959,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>#0282874-TSI</t>
+          <t>#1487 Starbucks K cup Veranda</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$2,091.90 USD</t>
+          <t>$674.51 USD</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US11 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1534,19 +2984,19 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>PR930810</t>
+          <t>PR936050</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>46035.58333333334</v>
+        <v>46036.55555555555</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>46035.58125</v>
+        <v>46036.55486111111</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1555,12 +3005,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>#0283540-TSI</t>
+          <t>Bearing Service &amp; Supply - Order Number: 1111716</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$3,324.96 USD</t>
+          <t>$750.00 USD</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1570,7 +3020,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -1580,19 +3030,19 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>PR930782</t>
+          <t>PR936040</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRITTANEA BATTEN</t>
+          <t>Kimberly Martinez</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>46035.58333333334</v>
+        <v>46036.55555555555</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>46035.57777777778</v>
+        <v>46036.55277777778</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1601,12 +3051,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SHREVEPORT ORDER#S13587</t>
+          <t>WILSON WORKS #79085</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$1,417.22 USD</t>
+          <t>$1,283.00 USD</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1626,19 +3076,19 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>PR930854</t>
+          <t>PR936061</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRITTANEA BATTEN</t>
+          <t>Miguel Gallegos</t>
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>46035.59236111111</v>
+        <v>46036.55972222222</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>46035.59097222222</v>
+        <v>46036.55694444444</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1647,12 +3097,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>PROPANE</t>
+          <t>ORDER 361643 - WECO 2-1/16" 15K X 2" 1502 MALE</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>$160.00 USD</t>
+          <t>$4,285.00 USD</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1672,19 +3122,19 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>PR930887</t>
+          <t>PR936036</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cariann Peterson</t>
+          <t>William Sackmann</t>
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>46035.60208333333</v>
+        <v>46036.56597222222</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>46035.59791666667</v>
+        <v>46036.55277777778</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1693,12 +3143,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Copy of 1Vision</t>
+          <t>#1PS150093-H&amp;K EQUIPMENT</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>$640.00 USD</t>
+          <t>$3,060.00 USD</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1708,7 +3158,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1718,19 +3168,19 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>PR930828</t>
+          <t>PR936108</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Miguel Gallegos</t>
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>46035.60347222222</v>
+        <v>46036.56875</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>46035.58472222222</v>
+        <v>46036.5625</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1739,12 +3189,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>STAPLES</t>
+          <t>ORDER 361650 - 2"X2" SRV @ 2000 ORF-G TAYLOR</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>$1,941.53 USD</t>
+          <t>$1,005.00 USD</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1754,7 +3204,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1764,19 +3214,19 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>PR930832</t>
+          <t>PR936276</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nicole Dinger</t>
+          <t>SCOTT MCFADYEN</t>
         </is>
       </c>
       <c r="F11" s="3" t="n">
-        <v>46035.60347222222</v>
+        <v>46036.59027777778</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>46035.58541666667</v>
+        <v>46036.57986111111</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1785,12 +3235,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>David Mardavich Quote 0126-B (lacie)</t>
+          <t>CALIBRATION SERVICES</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>$3,660.00 USD</t>
+          <t>$1,731.00 USD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1810,19 +3260,19 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>PR930885</t>
+          <t>PR925992</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Robert Ahrens</t>
+          <t>Paula Kimball</t>
         </is>
       </c>
       <c r="F12" s="3" t="n">
-        <v>46035.60763888889</v>
+        <v>46036.66527777778</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>46035.59722222222</v>
+        <v>46034.66736111111</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1831,12 +3281,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>134845 Central Machine &amp; Pump</t>
+          <t>A514 - GPS - 11798131 / AKITA 524 / DT 117981</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>$1,200.00 USD</t>
+          <t>$1,085.00 USD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1850,25 +3300,25 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>PR930920</t>
+          <t>PR925977</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Joseph Broussard</t>
+          <t>Paula Kimball</t>
         </is>
       </c>
       <c r="F13" s="3" t="n">
-        <v>46035.60833333333</v>
+        <v>46036.66527777778</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>46035.60763888889</v>
+        <v>46034.66111111111</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1877,12 +3327,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>GULF AMERICA/QUOTE 176593</t>
+          <t>A514 - GPS Invoice # : 11842926</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>$288.28 USD</t>
+          <t>$852.50 USD</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1892,29 +3342,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>PR930902</t>
+          <t>PR925952</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cynthia Long</t>
+          <t>Paula Kimball</t>
         </is>
       </c>
       <c r="F14" s="3" t="n">
-        <v>46035.60902777778</v>
+        <v>46036.66597222222</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>46035.60347222222</v>
+        <v>46034.65347222222</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1923,12 +3373,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Provide 222 gallons of Dyed Diesel Fuel #1</t>
+          <t>A514 - GPS - 11977707 / HP267 / DT 119777</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>$2,163.38 USD</t>
+          <t>$1,162.50 USD</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1942,25 +3392,25 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>PR930918</t>
+          <t>PR925936</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Paula Kimball</t>
         </is>
       </c>
       <c r="F15" s="3" t="n">
-        <v>46035.61111111111</v>
+        <v>46036.66597222222</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>46035.60694444444</v>
+        <v>46034.64930555555</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1969,12 +3419,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>RECERT SERVICES</t>
+          <t>GPS - INV 11989206</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>$3,876.15 USD</t>
+          <t>$790.50 USD</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1984,29 +3434,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>PR930951</t>
+          <t>PR925060</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Paula Kimball</t>
         </is>
       </c>
       <c r="F16" s="3" t="n">
-        <v>46035.61458333334</v>
+        <v>46036.66666666666</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>46035.61180555556</v>
+        <v>46034.46527777778</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2015,12 +3465,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>RECERT SERVICES</t>
+          <t>A514 - GPS - 12006403 / HP517 / DT 120064</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>$3,160.92 USD</t>
+          <t>$1,085.00 USD</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2030,29 +3480,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>PR930943</t>
+          <t>PR936653</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Li Pheng Tan</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F17" s="3" t="n">
-        <v>46035.61736111111</v>
+        <v>46036.66875</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>46035.61041666667</v>
+        <v>46036.66527777778</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2061,12 +3511,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>47 x 47 Pallets</t>
+          <t>(CP) CHOKE BODY, CAM-20, 3”15M REPAIR AS NEEDED</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>$15,000.00 USD</t>
+          <t>$3,550.00 USD</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2086,19 +3536,19 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>PR930581</t>
+          <t>PR936663</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nanetta Ward</t>
+          <t>Trina Fontenot</t>
         </is>
       </c>
       <c r="F18" s="3" t="n">
-        <v>46035.61736111111</v>
+        <v>46036.66944444444</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>46035.53680555556</v>
+        <v>46036.66666666666</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2107,12 +3557,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>INV 54673 - October Janitorial</t>
+          <t>PARKING LOT SIGNS</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>$1,300.00 USD</t>
+          <t>$3,120.00 USD</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2122,7 +3572,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -2132,7 +3582,7 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>PR930968</t>
+          <t>PR936677</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2141,10 +3591,10 @@
         </is>
       </c>
       <c r="F19" s="3" t="n">
-        <v>46035.61805555555</v>
+        <v>46036.67430555556</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>46035.61458333334</v>
+        <v>46036.67013888889</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2153,12 +3603,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>RECERT SERVICES</t>
+          <t>Labor - Hourly Rate</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>$3,160.92 USD</t>
+          <t>$677.04 USD</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2178,19 +3628,19 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>PR930878</t>
+          <t>PR926066</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fanni Varadi-Chiles</t>
+          <t>Paula Kimball</t>
         </is>
       </c>
       <c r="F20" s="3" t="n">
-        <v>46035.61805555555</v>
+        <v>46036.68402777778</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>46035.59583333333</v>
+        <v>46034.69236111111</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2199,12 +3649,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Environmental Testing Quote #1497</t>
+          <t>A514 - C&amp;W -WO SMYD000553</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>$650.00 USD</t>
+          <t>$2,750.00 USD</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2214,29 +3664,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>PR930981</t>
+          <t>PR936711</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Mario Rivera</t>
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>46035.62361111111</v>
+        <v>46036.68402777778</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>46035.61805555555</v>
+        <v>46036.67986111111</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2245,12 +3695,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>RECERT SERVICES</t>
+          <t>Red Wing Coveralls</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>$3,092.38 USD</t>
+          <t>$416.00 USD</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2270,19 +3720,19 @@
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>PR930996</t>
+          <t>PR936786</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nicole Dinger</t>
+          <t>Christina Pendarvis-Whittaker</t>
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>46035.62430555555</v>
+        <v>46036.70347222222</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>46035.62291666667</v>
+        <v>46036.7</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2291,12 +3741,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>K&amp;J Invoice 615741-Nate</t>
+          <t>SUN PACKING QUOTE 011426-4</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>$594.49 USD</t>
+          <t>$6,408.00 USD</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2316,19 +3766,19 @@
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>PR914494</t>
+          <t>PR936852</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Judith Salazar</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>46035.62708333333</v>
+        <v>46036.72222222222</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>46030.60208333333</v>
+        <v>46036.72083333333</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2337,12 +3787,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>SCHAEFFER AGS1253</t>
+          <t>GAS AND SUPPLY 39843499</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>$7,200.00 USD</t>
+          <t>$171.25 USD</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2356,25 +3806,25 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>PR930998</t>
+          <t>PR936865</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Martin Ramos</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>46035.63402777778</v>
+        <v>46036.72569444445</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>46035.62291666667</v>
+        <v>46036.725</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2383,12 +3833,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>MCMASTER</t>
+          <t>GAS AND SUPPLY 39838752</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>$13.24 USD</t>
+          <t>$294.00 USD</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2398,7 +3848,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2408,19 +3858,19 @@
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>PR931004</t>
+          <t>PR936871</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>46035.63472222222</v>
+        <v>46036.72777777778</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>46035.62430555555</v>
+        <v>46036.72777777778</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2429,12 +3879,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TRUCK</t>
+          <t>MEYER SOM30106</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>$5,000.00 USD</t>
+          <t>$500.00 USD</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2454,19 +3904,19 @@
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>PR930705</t>
+          <t>PR936880</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yareli Hernandez</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F26" s="3" t="n">
-        <v>46035.56180555555</v>
+        <v>46036.76180555556</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>46035.56041666667</v>
+        <v>46036.72986111111</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2475,22 +3925,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Pila de 3volts</t>
+          <t>P W SALES 362186</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>$2.00 MXN</t>
+          <t>$939.78 USD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2500,19 +3950,19 @@
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>PR930917</t>
+          <t>PR936951</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Syllas Roberto Vicente</t>
+          <t>Robert Ahrens</t>
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>46035.6125</v>
+        <v>46036.77083333334</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>46035.60694444444</v>
+        <v>46036.76111111111</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2521,17 +3971,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TROCA DE ROLDANAS</t>
+          <t>SNDC000201 C&amp;W Services</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>$216.61 USD</t>
+          <t>$2,000.00 USD</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2546,19 +3996,19 @@
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>PR930952</t>
+          <t>PR936959</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mirian Moraes</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>46035.61388888889</v>
+        <v>46036.77152777778</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>46035.61180555556</v>
+        <v>46036.76388888889</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2567,22 +4017,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Tenda Nautika 20 X 30 X 6</t>
+          <t>P W SALES 0361862</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>$1,744.14 USD</t>
+          <t>$744.12 USD</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2592,19 +4042,19 @@
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>PR930962</t>
+          <t>PR936979</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Syllas Roberto Vicente</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>46035.63194444445</v>
+        <v>46036.77430555555</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>46035.61319444444</v>
+        <v>46036.77222222222</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2613,22 +4063,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ACIONADOR P/ MOVIMENTO P/ SJ-201 178-230-3 MITUTO* Observação:PRAZO DE ENTREGA : IMEDIATO</t>
+          <t>P W SALES 361932</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>$1,854.75 USD</t>
+          <t>$431.35 USD</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2638,19 +4088,19 @@
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>PR930722</t>
+          <t>PR936990</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Marcos Figueiredo Reguera</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>46035.56944444445</v>
+        <v>46036.77638888889</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>46035.56527777778</v>
+        <v>46036.775</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2659,17 +4109,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>RC COTAÇÃO - XIAMETER PMX-200 500CST (BOMBONA)</t>
+          <t>SHREVEPORT AIR S13683</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>$36.10 USD</t>
+          <t>$890.00 USD</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2684,46 +4134,2714 @@
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>PR929962</t>
+          <t>PR936995</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>KELLY HODGES</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>46036.78263888889</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>46036.77777777778</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>SHREVEPORT AIR S13684</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>$1,853.19 USD</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PR939300</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Brian Brown</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>46037.28472222222</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>46037.28194444445</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Ir 192 Plus 87501 Source 100ci</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>$4,498.00 USD</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PR936277</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BRITTANEA BATTEN</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>46036.59027777778</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>46036.57986111111</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Rutherford Surface MiniMag w/Integrated Contact</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>$21,710.00 USD</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PR936306</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Martin Ramos</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>46036.59166666667</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>46036.58888888889</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>UNIFIRST</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>$144.21 USD</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PR936317</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Kimberly Martinez</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>46036.59722222222</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>46036.59097222222</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>CINTAS #5312637101</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>$231.46 USD</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PR930775</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Christina Pendarvis-Whittaker</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>46036.6</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>46035.57638888889</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Johnson Crating Quote 7287</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>$10,920.00 USD</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PR936380</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Brian Taylor</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>46036.60833333333</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>46036.60555555556</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Sliding Gate - West Gate - Luis Lujan – 1/8/26</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>$1,575.00 USD</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PR936438</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Judith Salazar</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>46036.62430555555</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>46036.61805555555</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>RELIABLE PUMPS MID3766</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>$2,715.54 USD</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PR929963</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Edith Yuneri Espinosa</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>46036.63194444445</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>46035.43402777778</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Logitech H570e - Wired Headset</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>$499.90 USD</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PR936481</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Judith Salazar</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>46036.63333333333</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>46036.62569444445</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>CRUEDE 5262</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>$2,896.32 USD</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PR936519</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Robert Ahrens</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>46036.63819444444</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>46036.63333333333</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>134846 Central Machine &amp; Pump</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>$300.00 USD</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PR936520</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tom Lamkin</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>46036.64097222222</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>46036.63402777778</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Heat Treat T-7117 Seat Press Adapter</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>$200.00 USD</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PR936608</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Judith Salazar</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>46036.65416666667</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>46036.65277777778</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>SPARTAN 20712</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>$339.50 USD</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PR936595</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Kimberly Martinez</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>46036.65763888889</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>46036.65</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>KONECRANES #1-1BE75CJ5/1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>$12,735.00 USD</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PR936616</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Judith Salazar</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>46036.65972222222</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>46036.65486111111</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>SPARTAN 20713</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>$221.50 USD</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PR936617</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>46036.66041666667</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>46036.65486111111</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>(CP) CHOKE BODY, CAM-20 MODIFY FOR WEAR SLEEVE</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>$3,675.00 USD</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PR935330</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Paula Kimball</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>46036.66319444445</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>46036.43611111111</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>A514 - GPS - 11915515 / HP 266 / DT 119155</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>$682.00 USD</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PR935313</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Paula Kimball</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>46036.66319444445</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>46036.43402777778</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>A514 - GPS - 11892918 / HP 451 / DT 118929</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>$1,162.50 USD</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PR935008</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Paula Kimball</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>46036.66388888889</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>46036.39444444444</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>A514 - GPS - 11847225/ OXY HP 415 / DT 118472</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>$852.50 USD</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PR934976</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Paula Kimball</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>46036.66388888889</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>46036.38958333333</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>A514 - GPS - 11925214/ HP 244 / DT 119252</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>$744.00 USD</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PR936637</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Kelli Simon</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>46036.66388888889</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>46036.66111111111</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>(CP) CHOKE BODY, 2”15K FXF. CLEAN, INSPECT &amp; REPAIR</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>$1,200.00 USD</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PR934935</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Paula Kimball</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>46036.66458333333</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>46036.38333333333</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>A514 - GPS-11922914 / HP 434 / DT 119229</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>$744.00 USD</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PR934919</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Paula Kimball</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>46036.66458333333</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>46036.38055555556</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>A514 - GPS - 11902317 / HP 423 / DT 119023</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>$852.50 USD</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PR936468</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Luis Alfonso Hernandez</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>46036.62986111111</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>46036.62361111111</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Copy of Servicio de Calibración 2.00" Tubing Sharp V"</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PR936762</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MANUEL ALEJANDRO ORTIZ LOPEZ</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>46036.7</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>46036.69375</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>SEAL, GRAYLOC #14 MOLY W/GRAPHITE COATED PARA LUBRICADOR H-15</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>$0.00 USD</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PR936674</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Luis Alfonso Hernandez</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>46036.67430555556</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>46036.66944444444</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Calibración de Torquimetro</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>$0.06 USD</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PR936565</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Luis Alfonso Hernandez</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>46036.64722222222</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>46036.64236111111</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Indicador de Caratula Starret</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>$0.06 USD</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PR936801</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Luis Martin Leal</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>46036.70694444444</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>46036.70625</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>MANTENIMIENTO Y REPARACIÓN EQUIPO TELESIS MODELO TMP700</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PR936827</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Luis Martin Leal</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>46036.71458333333</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>46036.7125</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Solicitud de orden de compra – EPP para practicantes de Materiales</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>$0.90 USD</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PR935496</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Blanca Kristhell Chino</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>46036.73333333333</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>46036.45972222222</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Cotización ELECTROLITOS EN POLVO HIDRO 220 varios sabores</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>$20.28 USD</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PR936166</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Victor Daniel Carvajal</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>46036.57777777778</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>46036.57708333333</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Antiderrapante para bandas</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>$0.11 USD</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PR937711</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Gerardo Rincon</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>46037.03680555556</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>46037.03541666667</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>MRP-5003, INTERNAL/EXTERNAL TUBING AND CASING CONNECTIONS, 13-3/8" A 20"</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PR937696</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Gerardo Rincon</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>46037.03333333333</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>46037.03194444445</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TR-B10I Thread Roll Set, Buttress Casing*Internal, 16-20"</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>$1.00 USD</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PR936160</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Victor Daniel Carvajal</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>46036.57638888889</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>46036.57569444444</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Soldadura a bisagras</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>$0.06 USD</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PR936906</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Blanca Kristhell Chino</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>46036.73958333334</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>46036.7375</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>COTIZACIÓN BOX LUNH CAMPAÑA DE VACUNACION 2DA JORNADA</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>$9.00 USD</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PR936934</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Luis Martin Leal</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>46036.75208333333</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>46036.75138888889</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>F0564323 ADAPTADOR DE CAMBIO RAPIDO DE ACERO 7/8" EM04- 7/8"</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>$0.60 USD</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PR936114</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Victor Daniel Carvajal</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>46036.56597222222</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>46036.56458333333</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>5PK2800 bandas dentadas</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>$0.56 USD</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PR936102</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Victor Daniel Carvajal</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>46036.5625</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>46036.56180555555</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Reparacion guarda eje Z 8930</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>$0.06 USD</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PR936088</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Victor Daniel Carvajal</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>46036.56041666667</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>46036.55972222222</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Contactor</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>$0.22 USD</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PR936964</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Luis Martin Leal</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>46036.76597222222</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>46036.76527777778</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>ARGON AP CRIOBLEND GAS CILINDRO DE 9M3</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>$6.40 USD</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PR936782</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Mark Joseph</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>46036.70486111111</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>46036.69861111111</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>QC PASSED DECALS</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>$399.09 CAD</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PR936057</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Moiz Rehman</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>46036.56041666667</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>46036.55625</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Lapping consumables for Bay 1 (Quote 34787)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>$2,420.00 CAD</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PR930282</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Vanessa Alexandra Fleitas Trujillo Caldas</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>46036.56041666667</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>46035.48958333334</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>PACIFIC - 12.2025</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>$32,448.58 USD</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PR936035</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Michelly Serpa Quintanilha</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>46036.55416666667</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>46036.55277777778</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>SERV. VIGILÂNCIA E SEGURANÇA ESTACIONAMENTO</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>R$14,014.93 BRL</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PR939051</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>Thawane Chagas Dos Santos</t>
         </is>
       </c>
-      <c r="F31" s="3" t="n">
-        <v>46035.56180555555</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>46035.43333333333</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Assessoria em Saúde Ocupacional e Exames Operacionais (Dezembro/25) - Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>R$187.65 BRL</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="F75" s="3" t="n">
+        <v>46037.24097222222</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>46037.23819444444</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Serviço Topside Support - Julho 2025</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>R$4,047.06 BRL</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PR939209</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ana Cecilia de Carvalho Guimaraes</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>46037.27569444444</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>46037.2625</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Cotação 8 Ferraz</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>$196.76 USD</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PR939374</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Amanda Silva De Andrade</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>46037.30138888889</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>46037.29722222222</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>OP25-062 "13/01/2025 ORDEM DE SERVIÇO N° 1807 RELATÓRIO 8073 - CMAX 34 - 13/01/25 ATENDIMENTO MONTAGEM FUSO EIXO W"</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>$8,206.17 USD</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PR936066</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Douglas Simoes</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>46036.56736111111</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>46036.55763888889</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>PEDIDO SERVIÇO CHAVEIRO - PEDIDO 201/202/203/204 E 205 - 2026</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>R$926.00 BRL</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PR926240-V2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Denis Roberto Leite Da Costa</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>46036.75208333333</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>46035.66527777778</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>COMPRA_ULTRA - R</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>$1,254.91 USD</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PR936917</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Denis Roberto Leite Da Costa</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>46036.74930555555</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>46036.74305555555</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>COMPRA_FOSFATIZANTE M</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>$1,683.89 USD</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PR936119</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Lilian Regina Juliao</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>46036.56944444445</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>46036.56597222222</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>MMB INPLANT OUTUBRO</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>$2,256.38 USD</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PR936265</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Michelly Serpa Quintanilha</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>46036.57986111111</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>46036.57777777778</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>POSTO - GASOLINA - 268232</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>R$94.52 BRL</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PR936301</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Lilian Regina Juliao</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>46036.59930555556</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>46036.5875</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>MMB NOVEMBRO 2025</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>$9,069.57 USD</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PR936353</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Marcos Figueiredo Reguera</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>46036.60069444445</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>46036.59930555556</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>MEDIÇÃO - SWIRE - JANEIRO / 25</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>$874.78 USD</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PR936563</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Vagner Paulo Locatelli</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>46036.64513888889</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>46036.64236111111</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>PURGA STAB PLATE EXXON USAN - DES.X-425392-79</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>R$1,985.00 BRL</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PR936574</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Vitor Marcos Silva Amaral</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>46036.65069444444</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>46036.64444444444</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Kit de reparo bomba Haskel - CWOS Rework</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>$245.58 USD</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PR936133</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>VITOR ARAUJO MOTTA</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>46036.66597222222</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>46036.56875</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>URG SLSS/CWOS/EQN/WOM SERVICE QUOTE E26013</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>$6,999.99 USD</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PR936136</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Lilian Regina Juliao</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>46036.58263888889</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>46036.57013888889</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>MMB CAM NOVEMBRO25</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>$500.31 USD</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PR936488</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Kayane Castilho Rodrigues</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>46036.6375</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>46036.62777777778</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Cadeiras</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>$570.05 USD</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Resultado.xlsx
+++ b/data/Resultado.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,9 +438,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="4" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="4" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PR936332</t>
+          <t>PR945293</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -518,12 +518,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PR937128</t>
+          <t>PR945334</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MEATON4</t>
+          <t>CLong4</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -536,19 +536,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PNP_US11 (Cameron Intl Corp)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PR937075</t>
+          <t>PR945344</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEATON4</t>
+          <t>WSACKMANN</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -561,19 +561,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>PNP_US11 (Cameron Intl Corp)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PR937036</t>
+          <t>PR945071</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MEATON4</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -586,19 +586,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PNP_US11 (Cameron Intl Corp)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PR936050</t>
+          <t>PR945353</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>KHodges</t>
+          <t>CLong4</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -618,12 +618,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PR936040</t>
+          <t>PR945313</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -643,12 +643,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PR936061</t>
+          <t>PR945360</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MGALLEGOS6</t>
+          <t>WSACKMANN</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -668,12 +668,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PR936036</t>
+          <t>PR945536</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -693,12 +693,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PR936108</t>
+          <t>PR945371</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MGALLEGOS6</t>
+          <t>CPwhittaker</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -718,12 +718,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PR936276</t>
+          <t>PR944967</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SMcfadyen</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -743,12 +743,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PR925992</t>
+          <t>PR944875</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>LFULTON</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -768,12 +768,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PR925977</t>
+          <t>PR944880</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>JSalazar68</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -793,12 +793,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PR925952</t>
+          <t>PR936675</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -818,12 +818,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PR925936</t>
+          <t>PR944774</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>KMartinez13</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -843,12 +843,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PR925060</t>
+          <t>PR945095</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -868,12 +868,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PR936653</t>
+          <t>PR945112</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -893,12 +893,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PR936663</t>
+          <t>PR945122</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TFONTENOT3</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -918,12 +918,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PR936677</t>
+          <t>PR945165</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>EFULTS</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -943,12 +943,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PR926066</t>
+          <t>PR945172</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>KHodges</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -968,12 +968,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PR936711</t>
+          <t>PR945154</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MRivera25</t>
+          <t>CLong4</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -993,12 +993,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PR936786</t>
+          <t>PR945146</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CPwhittaker</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1018,12 +1018,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PR936852</t>
+          <t>PR945194</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>KHodges</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1043,12 +1043,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PR936865</t>
+          <t>PR945209</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>KHodges</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1068,12 +1068,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PR936871</t>
+          <t>PR945193</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KHodges</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1093,12 +1093,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PR936880</t>
+          <t>PR945213</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KHodges</t>
+          <t>RLEYVA2</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1118,12 +1118,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PR936951</t>
+          <t>PR945236</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RAHRENS2</t>
+          <t>SSCHROEDER3</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1143,12 +1143,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PR936959</t>
+          <t>PR945533</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>KHodges</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1168,12 +1168,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PR936979</t>
+          <t>PR945452</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>KHodges</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1193,12 +1193,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PR936990</t>
+          <t>PR945459</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>KHodges</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1218,12 +1218,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PR936995</t>
+          <t>PR945476</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>KHodges</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1243,12 +1243,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PR939300</t>
+          <t>PR945491</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BBROWN23</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1268,12 +1268,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PR936277</t>
+          <t>PR945498</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BMurry</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1293,12 +1293,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PR936306</t>
+          <t>PR945504</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MRAMOS17</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1318,12 +1318,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PR936317</t>
+          <t>PR945507</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1343,12 +1343,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PR930775</t>
+          <t>PR945445</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CPwhittaker</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1368,12 +1368,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PR936380</t>
+          <t>PR945510</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BTAYLOR27</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1393,12 +1393,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PR936438</t>
+          <t>PR945399</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JSalazar68</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1418,12 +1418,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PR929963</t>
+          <t>PR945403</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EGarza20</t>
+          <t>CPwhittaker</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1443,12 +1443,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PR936481</t>
+          <t>PR945515</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JSalazar68</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1468,12 +1468,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PR936519</t>
+          <t>PR945523</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RAHRENS2</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1493,12 +1493,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PR936520</t>
+          <t>PR945077</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TLAMKIN</t>
+          <t>LFULTON</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1518,12 +1518,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PR936608</t>
+          <t>PR945530</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JSalazar68</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1543,12 +1543,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PR936595</t>
+          <t>PR945375</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>TBenham</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1568,12 +1568,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PR936616</t>
+          <t>PR945370</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JSalazar68</t>
+          <t>KSIMON4</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1593,12 +1593,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PR936617</t>
+          <t>PR945430</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>CRuiz25</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -1606,24 +1606,24 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PR935330</t>
+          <t>PR945228</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>MLopez160</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PR935313</t>
+          <t>PR945513</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>CGarcia144</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -1656,24 +1656,24 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PR935008</t>
+          <t>PR945428</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>MLopez160</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -1681,24 +1681,24 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PR934976</t>
+          <t>PR945597</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>LLEAL7</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -1706,24 +1706,24 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PR936637</t>
+          <t>PR945528</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>KSIMON4</t>
+          <t>LLEAL7</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -1731,24 +1731,24 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PR934935</t>
+          <t>PR946108</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>LLEAL7</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -1756,24 +1756,24 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PR934919</t>
+          <t>PR946105</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PKimball</t>
+          <t>LLEAL7</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -1781,19 +1781,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PR936468</t>
+          <t>PR946135</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1818,12 +1818,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PR936762</t>
+          <t>PR944869</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MLopez119</t>
+          <t>CGarcia144</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -1843,12 +1843,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PR936674</t>
+          <t>PR944889</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LUSCANGA</t>
+          <t>CGarcia144</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -1868,12 +1868,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PR936565</t>
+          <t>PR944958</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>LUSCANGA</t>
+          <t>LLEAL7</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -1893,12 +1893,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PR936801</t>
+          <t>PR945289</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LLEAL7</t>
+          <t>NIniesta</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -1906,24 +1906,24 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PR936827</t>
+          <t>PR945572</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LLEAL7</t>
+          <t>MREHMAN10</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -1931,24 +1931,24 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PR935496</t>
+          <t>PR945563</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BChino</t>
+          <t>MREHMAN10</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -1956,24 +1956,24 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PR936166</t>
+          <t>PR945149</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>VAburto</t>
+          <t>ALAI2</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -1981,24 +1981,24 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>CAMERON LAM</t>
+          <t>CAMERON NAM</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PR937711</t>
+          <t>PR945659</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GGarcia53</t>
+          <t>ABarros8</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2011,19 +2011,19 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PR937696</t>
+          <t>PR945654</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GGarcia53</t>
+          <t>ABarros8</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2036,19 +2036,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PR936160</t>
+          <t>PR946283</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VAburto</t>
+          <t>LAGUIAR4</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2061,19 +2061,19 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PR936906</t>
+          <t>PR945640</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BChino</t>
+          <t>ABarros8</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2086,19 +2086,19 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PR936934</t>
+          <t>PR946265</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LLEAL7</t>
+          <t>LAGUIAR4</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2111,19 +2111,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PR936114</t>
+          <t>PR945664</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VAburto</t>
+          <t>ABarros8</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -2136,19 +2136,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PR936102</t>
+          <t>PR945965</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>VAburto</t>
+          <t>GCRUZ24</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -2161,19 +2161,19 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PR936088</t>
+          <t>PR946117</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VAburto</t>
+          <t>LAGUIAR4</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PR936964</t>
+          <t>PR945976</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LLEAL7</t>
+          <t>GCRUZ24</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -2211,19 +2211,19 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PR936782</t>
+          <t>PR944913</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MJOSEPH3</t>
+          <t>LAGUIAR4</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -2231,24 +2231,24 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PR936057</t>
+          <t>PR944950</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MREHMAN10</t>
+          <t>AOLIVEIRA53</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -2256,24 +2256,24 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PR930282</t>
+          <t>PR944963</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>VCaldas2</t>
+          <t>AOLIVEIRA53</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2293,12 +2293,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PR936035</t>
+          <t>PR944955</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MQUINTANILHA2</t>
+          <t>LAGUIAR4</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -2318,12 +2318,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PR939051</t>
+          <t>PR944979</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TSANTOS22</t>
+          <t>AOLIVEIRA53</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -2343,12 +2343,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PR939209</t>
+          <t>PR944966</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AGuimaraes10</t>
+          <t>AMacedo4</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -2368,12 +2368,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PR939374</t>
+          <t>PR945003</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>aandrade20</t>
+          <t>AOLIVEIRA53</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2393,12 +2393,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PR936066</t>
+          <t>PR944999</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DSIMOES2</t>
+          <t>aandrade20</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -2418,12 +2418,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PR926240-V2</t>
+          <t>PR945017</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DCosta18</t>
+          <t>aandrade20</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -2443,12 +2443,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PR936917</t>
+          <t>PR945029</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DCosta18</t>
+          <t>aandrade20</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -2468,12 +2468,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PR936119</t>
+          <t>PR945075</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LJuliao</t>
+          <t>aandrade20</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -2493,12 +2493,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PR936265</t>
+          <t>PR945274</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MQUINTANILHA2</t>
+          <t>SVICENTE2</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -2512,181 +2512,6 @@
       <c r="H82" t="inlineStr">
         <is>
           <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>PR936301</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>LJuliao</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>PR936353</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>MREGUERA</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>PR936563</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>VLOCATELLI</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>PR936574</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>VAmaral</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>PR936133</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>VMotta</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>PR936136</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>LJuliao</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>PR936488</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>KRodrigues3</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2711,13 +2536,13 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="43" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="34" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="117" customWidth="1" min="9" max="9"/>
+    <col width="130" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="38" customWidth="1" min="11" max="11"/>
     <col width="17" customWidth="1" min="12" max="12"/>
@@ -2800,7 +2625,7 @@
     <row r="2">
       <c r="C2" t="inlineStr">
         <is>
-          <t>PR936332</t>
+          <t>PR945293</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2809,10 +2634,10 @@
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>46036.59791666667</v>
+        <v>46038.65763888889</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>46036.59513888889</v>
+        <v>46038.65625</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -2821,12 +2646,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Redwing- Magee</t>
+          <t>Global Quote 8040559- Ashley</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$79.00 USD</t>
+          <t>$135.49 USD</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2846,19 +2671,19 @@
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>PR937128</t>
+          <t>PR945334</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Melanie Eaton</t>
+          <t>Cynthia Long</t>
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>46036.85555555556</v>
+        <v>46038.67013888889</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>46036.84652777778</v>
+        <v>46038.66666666666</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2867,17 +2692,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Facility Maintenance Supplies Invoice 2890144927</t>
+          <t>B&amp;C 45462</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$125.17 USD</t>
+          <t>$3,614.80 USD</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>PNP_US11 (Cameron Intl Corp)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -2892,19 +2717,19 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>PR937075</t>
+          <t>PR945344</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Melanie Eaton</t>
+          <t>William Sackmann</t>
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>46036.82361111111</v>
+        <v>46038.67291666667</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>46036.82083333333</v>
+        <v>46038.66875</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2913,22 +2738,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Helium Delivery</t>
+          <t>#WBS0000636-WEIR</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$2,587.55 USD</t>
+          <t>$654.80 USD</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>PNP_US11 (Cameron Intl Corp)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -2938,19 +2763,19 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>PR937036</t>
+          <t>PR945071</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Melanie Eaton</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>46036.81041666667</v>
+        <v>46038.60694444444</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>46036.8</v>
+        <v>46038.60208333333</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2959,17 +2784,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>#1487 Starbucks K cup Veranda</t>
+          <t>Heritage Invoice 19758181 patt</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$674.51 USD</t>
+          <t>$1,552.00 USD</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>PNP_US11 (Cameron Intl Corp)</t>
+          <t>PNP_US10 (Cameron Intl Corp)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -2984,19 +2809,19 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>PR936050</t>
+          <t>PR945353</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>KELLY HODGES</t>
+          <t>Cynthia Long</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>46036.55555555555</v>
+        <v>46038.67361111111</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>46036.55486111111</v>
+        <v>46038.67083333333</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3005,12 +2830,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Bearing Service &amp; Supply - Order Number: 1111716</t>
+          <t>B&amp;C 45466</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$750.00 USD</t>
+          <t>$3,315.20 USD</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -3020,7 +2845,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -3030,19 +2855,19 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>PR936040</t>
+          <t>PR945313</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>46036.55555555555</v>
+        <v>46038.67430555556</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>46036.55277777778</v>
+        <v>46038.66319444445</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3051,12 +2876,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>WILSON WORKS #79085</t>
+          <t>CHOKE BODY ASSEMBLY 2"-1502</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$1,283.00 USD</t>
+          <t>$4,999.98 USD</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -3066,7 +2891,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -3076,19 +2901,19 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>PR936061</t>
+          <t>PR945360</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Miguel Gallegos</t>
+          <t>William Sackmann</t>
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>46036.55972222222</v>
+        <v>46038.67638888889</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>46036.55694444444</v>
+        <v>46038.67291666667</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3097,12 +2922,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ORDER 361643 - WECO 2-1/16" 15K X 2" 1502 MALE</t>
+          <t>#49271-RDI</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>$4,285.00 USD</t>
+          <t>$659.25 USD</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -3122,19 +2947,19 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>PR936036</t>
+          <t>PR945536</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>46036.56597222222</v>
+        <v>46038.74305555555</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>46036.55277777778</v>
+        <v>46038.74236111111</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3143,12 +2968,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>#1PS150093-H&amp;K EQUIPMENT</t>
+          <t>GATE VALVE 2-1/16” 15,000 PSI FLANGED</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>$3,060.00 USD</t>
+          <t>$1,600.00 USD</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -3158,7 +2983,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -3168,19 +2993,19 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>PR936108</t>
+          <t>PR945371</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Miguel Gallegos</t>
+          <t>Christina Pendarvis-Whittaker</t>
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>46036.56875</v>
+        <v>46038.67916666667</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>46036.5625</v>
+        <v>46038.67777777778</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3189,12 +3014,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ORDER 361650 - 2"X2" SRV @ 2000 ORF-G TAYLOR</t>
+          <t>MSC Quote # 30175203</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>$1,005.00 USD</t>
+          <t>$439.88 USD</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -3204,7 +3029,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -3214,19 +3039,19 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>PR936276</t>
+          <t>PR944967</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SCOTT MCFADYEN</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F11" s="3" t="n">
-        <v>46036.59027777778</v>
+        <v>46038.60555555556</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>46036.57986111111</v>
+        <v>46038.58194444444</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3235,12 +3060,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>CALIBRATION SERVICES</t>
+          <t>SOUTHWEST SPECIALTY - INV_RT03-I31079</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>$1,731.00 USD</t>
+          <t>$2,345.92 USD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -3260,19 +3085,19 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>PR925992</t>
+          <t>PR944875</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Letha Fulton</t>
         </is>
       </c>
       <c r="F12" s="3" t="n">
-        <v>46036.66527777778</v>
+        <v>46038.55763888889</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>46034.66736111111</v>
+        <v>46038.55555555555</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3281,12 +3106,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>A514 - GPS - 11798131 / AKITA 524 / DT 117981</t>
+          <t>AZTEC BOLTING 0065788</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>$1,085.00 USD</t>
+          <t>$8,931.39 USD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3296,29 +3121,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>PR925977</t>
+          <t>PR944880</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Judith Salazar</t>
         </is>
       </c>
       <c r="F13" s="3" t="n">
-        <v>46036.66527777778</v>
+        <v>46038.55902777778</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>46034.66111111111</v>
+        <v>46038.55763888889</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -3327,12 +3152,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A514 - GPS Invoice # : 11842926</t>
+          <t>CRUEDE 5269</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>$852.50 USD</t>
+          <t>$1,469.27 USD</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3346,25 +3171,25 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>PR925952</t>
+          <t>PR936675</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F14" s="3" t="n">
-        <v>46036.66597222222</v>
+        <v>46038.57916666667</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>46034.65347222222</v>
+        <v>46036.66944444444</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3373,12 +3198,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>A514 - GPS - 11977707 / HP267 / DT 119777</t>
+          <t>CHARTS LTD - SO NO 431534</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>$1,162.50 USD</t>
+          <t>$1,895.67 USD</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3388,7 +3213,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -3398,19 +3223,19 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>PR925936</t>
+          <t>PR944774</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Kimberly Martinez</t>
         </is>
       </c>
       <c r="F15" s="3" t="n">
-        <v>46036.66597222222</v>
+        <v>46038.58055555556</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>46034.64930555555</v>
+        <v>46038.53125</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3419,12 +3244,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>GPS - INV 11989206</t>
+          <t>INTERSTATE CHEMICAL</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>$790.50 USD</t>
+          <t>$3,651.62 USD</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3434,29 +3259,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>PR925060</t>
+          <t>PR945095</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F16" s="3" t="n">
-        <v>46036.66666666666</v>
+        <v>46038.61041666667</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>46034.46527777778</v>
+        <v>46038.60694444444</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3465,12 +3290,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>A514 - GPS - 12006403 / HP517 / DT 120064</t>
+          <t>Heritage Invoice 19578030 DRL HB</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>$1,085.00 USD</t>
+          <t>$4,947.61 USD</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3484,25 +3309,25 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>PR936653</t>
+          <t>PR945112</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F17" s="3" t="n">
-        <v>46036.66875</v>
+        <v>46038.61597222222</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>46036.66527777778</v>
+        <v>46038.61319444444</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -3511,12 +3336,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>(CP) CHOKE BODY, CAM-20, 3”15M REPAIR AS NEEDED</t>
+          <t>K&amp;J Invoice 616104-Nate</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>$3,550.00 USD</t>
+          <t>$781.89 USD</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3536,19 +3361,19 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>PR936663</t>
+          <t>PR945122</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Trina Fontenot</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F18" s="3" t="n">
-        <v>46036.66944444444</v>
+        <v>46038.62013888889</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>46036.66666666666</v>
+        <v>46038.61527777778</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -3557,12 +3382,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>PARKING LOT SIGNS</t>
+          <t>RECON - INV. 69052</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>$3,120.00 USD</t>
+          <t>$2,700.00 USD</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3582,19 +3407,19 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>PR936677</t>
+          <t>PR945165</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Emanuel Fults</t>
         </is>
       </c>
       <c r="F19" s="3" t="n">
-        <v>46036.67430555556</v>
+        <v>46038.62430555555</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>46036.67013888889</v>
+        <v>46038.62361111111</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3603,12 +3428,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Labor - Hourly Rate</t>
+          <t>Magnet For Large Assembly (KC)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>$677.04 USD</t>
+          <t>$870.00 USD</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3628,19 +3453,19 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>PR926066</t>
+          <t>PR945172</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>KELLY HODGES</t>
         </is>
       </c>
       <c r="F20" s="3" t="n">
-        <v>46036.68402777778</v>
+        <v>46038.62569444445</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>46034.69236111111</v>
+        <v>46038.625</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -3649,12 +3474,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A514 - C&amp;W -WO SMYD000553</t>
+          <t>BEARING SERVICE 1112339</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>$2,750.00 USD</t>
+          <t>$1,169.50 USD</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3664,29 +3489,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>PR936711</t>
+          <t>PR945154</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mario Rivera</t>
+          <t>Cynthia Long</t>
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>46036.68402777778</v>
+        <v>46038.62777777778</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>46036.67986111111</v>
+        <v>46038.62152777778</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3695,12 +3520,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Red Wing Coveralls</t>
+          <t>LgBlkNitrPFGlv100Ct</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>$416.00 USD</t>
+          <t>$2,714.82 USD</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3720,19 +3545,19 @@
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>PR936786</t>
+          <t>PR945146</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Christina Pendarvis-Whittaker</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>46036.70347222222</v>
+        <v>46038.62847222222</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>46036.7</v>
+        <v>46038.62083333333</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -3741,12 +3566,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>SUN PACKING QUOTE 011426-4</t>
+          <t>RECON - INV. 69501</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>$6,408.00 USD</t>
+          <t>$3,660.00 USD</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3766,19 +3591,19 @@
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>PR936852</t>
+          <t>PR945194</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KELLY HODGES</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>46036.72222222222</v>
+        <v>46038.63125</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>46036.72083333333</v>
+        <v>46038.62916666667</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -3787,12 +3612,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>GAS AND SUPPLY 39843499</t>
+          <t>P&amp;W SALES - ORDER NO 0360840</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>$171.25 USD</t>
+          <t>$1,000.00 USD</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3802,7 +3627,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -3812,19 +3637,19 @@
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>PR936865</t>
+          <t>PR945209</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>KELLY HODGES</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>46036.72569444445</v>
+        <v>46038.63333333333</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>46036.725</v>
+        <v>46038.63194444445</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -3833,12 +3658,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>GAS AND SUPPLY 39838752</t>
+          <t>P&amp;W SALES - ORDER NO 0361765</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>$294.00 USD</t>
+          <t>$1,166.75 USD</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3848,7 +3673,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -3858,19 +3683,19 @@
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>PR936871</t>
+          <t>PR945193</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>KELLY HODGES</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>46036.72777777778</v>
+        <v>46038.63541666666</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>46036.72777777778</v>
+        <v>46038.62916666667</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -3879,12 +3704,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MEYER SOM30106</t>
+          <t>9/16" MALE X MALE ADAPTER, HIGH PRESSURE</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>$500.00 USD</t>
+          <t>$4,491.97 USD</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3894,7 +3719,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -3904,19 +3729,19 @@
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>PR936880</t>
+          <t>PR945213</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>KELLY HODGES</t>
+          <t>Rakel Leyva</t>
         </is>
       </c>
       <c r="F26" s="3" t="n">
-        <v>46036.76180555556</v>
+        <v>46038.63541666666</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>46036.72986111111</v>
+        <v>46038.63333333333</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -3925,12 +3750,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>P W SALES 362186</t>
+          <t>P&amp;W SALES - ORDER NO 0361774</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>$939.78 USD</t>
+          <t>$1,603.25 USD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3940,7 +3765,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -3950,19 +3775,19 @@
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>PR936951</t>
+          <t>PR945236</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Robert Ahrens</t>
+          <t>Susan Schroeder</t>
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>46036.77083333334</v>
+        <v>46038.64930555555</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>46036.76111111111</v>
+        <v>46038.63958333333</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -3971,12 +3796,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>SNDC000201 C&amp;W Services</t>
+          <t>3t Training Services - Invoice 9989</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>$2,000.00 USD</t>
+          <t>$45.00 USD</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3986,7 +3811,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -3996,19 +3821,19 @@
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>PR936959</t>
+          <t>PR945533</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>KELLY HODGES</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>46036.77152777778</v>
+        <v>46038.74166666667</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>46036.76388888889</v>
+        <v>46038.74166666667</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -4017,12 +3842,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>P W SALES 0361862</t>
+          <t>GATE VALVE 2-1/16” 15,000 PSI FLANGED</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>$744.12 USD</t>
+          <t>$3,200.00 USD</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4042,19 +3867,19 @@
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>PR936979</t>
+          <t>PR945452</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>KELLY HODGES</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>46036.77430555555</v>
+        <v>46038.71458333333</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>46036.77222222222</v>
+        <v>46038.7125</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -4063,12 +3888,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>P W SALES 361932</t>
+          <t>CHOKE SAVER ASSY 2” - 1502</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>$431.35 USD</t>
+          <t>$4,609.52 USD</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4088,19 +3913,19 @@
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>PR936990</t>
+          <t>PR945459</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>KELLY HODGES</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>46036.77638888889</v>
+        <v>46038.72013888889</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>46036.775</v>
+        <v>46038.71597222222</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -4109,12 +3934,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>SHREVEPORT AIR S13683</t>
+          <t>SPACER ASSY 24” LONG, 2” 1502</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>$890.00 USD</t>
+          <t>$4,806.25 USD</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4124,7 +3949,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -4134,19 +3959,19 @@
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>PR936995</t>
+          <t>PR945476</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>KELLY HODGES</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F31" s="3" t="n">
-        <v>46036.78263888889</v>
+        <v>46038.72430555556</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>46036.77777777778</v>
+        <v>46038.72291666667</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -4155,12 +3980,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>SHREVEPORT AIR S13684</t>
+          <t>SPACER ASSY 24” LONG, 2” 1502</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>$1,853.19 USD</t>
+          <t>$4,806.25 USD</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4170,7 +3995,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -4180,19 +4005,19 @@
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>PR939300</t>
+          <t>PR945491</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Brian Brown</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F32" s="3" t="n">
-        <v>46037.28472222222</v>
+        <v>46038.72847222222</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>46037.28194444445</v>
+        <v>46038.72708333333</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -4201,12 +4026,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ir 192 Plus 87501 Source 100ci</t>
+          <t>SPACER SPOOL ASSEMBLY</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>$4,498.00 USD</t>
+          <t>$3,012.50 USD</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4216,7 +4041,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -4226,19 +4051,19 @@
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>PR936277</t>
+          <t>PR945498</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BRITTANEA BATTEN</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F33" s="3" t="n">
-        <v>46036.59027777778</v>
+        <v>46038.72986111111</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>46036.57986111111</v>
+        <v>46038.72986111111</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -4247,12 +4072,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Rutherford Surface MiniMag w/Integrated Contact</t>
+          <t>FLOW LINE 10’ X 2” – 1502 END CONNECTIONS</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>$21,710.00 USD</t>
+          <t>$4,320.00 USD</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4262,7 +4087,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -4272,19 +4097,19 @@
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>PR936306</t>
+          <t>PR945504</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Martin Ramos</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F34" s="3" t="n">
-        <v>46036.59166666667</v>
+        <v>46038.73194444444</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>46036.58888888889</v>
+        <v>46038.73125</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -4293,12 +4118,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>UNIFIRST</t>
+          <t>FLOW LINE 10’ X 2” – 1502 END CONNECTIONS</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>$144.21 USD</t>
+          <t>$4,320.00 USD</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4318,19 +4143,19 @@
     <row r="35">
       <c r="C35" t="inlineStr">
         <is>
-          <t>PR936317</t>
+          <t>PR945507</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F35" s="3" t="n">
-        <v>46036.59722222222</v>
+        <v>46038.73333333333</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>46036.59097222222</v>
+        <v>46038.73263888889</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -4339,12 +4164,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>CINTAS #5312637101</t>
+          <t>FLOW LINE 10’ X 2” – 1502 END CONNECTIONS</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>$231.46 USD</t>
+          <t>$1,625.00 USD</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4364,19 +4189,19 @@
     <row r="36">
       <c r="C36" t="inlineStr">
         <is>
-          <t>PR930775</t>
+          <t>PR945445</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Christina Pendarvis-Whittaker</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>46036.6</v>
+        <v>46038.71041666667</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>46035.57638888889</v>
+        <v>46038.70902777778</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -4385,12 +4210,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Johnson Crating Quote 7287</t>
+          <t>CHOKE BODY ASSY 2” - 1502</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>$10,920.00 USD</t>
+          <t>$4,867.20 USD</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4400,29 +4225,29 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="inlineStr">
         <is>
-          <t>PR936380</t>
+          <t>PR945510</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Brian Taylor</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>46036.60833333333</v>
+        <v>46038.73472222222</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>46036.60555555556</v>
+        <v>46038.73472222222</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -4431,12 +4256,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Sliding Gate - West Gate - Luis Lujan – 1/8/26</t>
+          <t>2-1/16" 15M PC &amp; JWA CHOKE BODY</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>$1,575.00 USD</t>
+          <t>$4,120.00 USD</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4456,19 +4281,19 @@
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
-          <t>PR936438</t>
+          <t>PR945399</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Judith Salazar</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F38" s="3" t="n">
-        <v>46036.62430555555</v>
+        <v>46038.69930555556</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>46036.61805555555</v>
+        <v>46038.68819444445</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -4477,12 +4302,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>RELIABLE PUMPS MID3766</t>
+          <t>2-1/16" 15M X 2" 1502 FLANGED CROSSOVER ASSY</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>$2,715.54 USD</t>
+          <t>$4,841.96 USD</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4502,19 +4327,19 @@
     <row r="39">
       <c r="C39" t="inlineStr">
         <is>
-          <t>PR929963</t>
+          <t>PR945403</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Edith Yuneri Espinosa</t>
+          <t>Christina Pendarvis-Whittaker</t>
         </is>
       </c>
       <c r="F39" s="3" t="n">
-        <v>46036.63194444445</v>
+        <v>46038.69236111111</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>46035.43402777778</v>
+        <v>46038.68958333333</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -4523,12 +4348,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Logitech H570e - Wired Headset</t>
+          <t>Johnson Controls Invoice 42070321</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>$499.90 USD</t>
+          <t>$2,071.15 USD</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4542,25 +4367,25 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="inlineStr">
         <is>
-          <t>PR936481</t>
+          <t>PR945515</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Judith Salazar</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F40" s="3" t="n">
-        <v>46036.63333333333</v>
+        <v>46038.7375</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>46036.62569444445</v>
+        <v>46038.73611111111</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -4569,12 +4394,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>CRUEDE 5262</t>
+          <t>ADJUSTABLE CHOKE ASSY 2” 1502 EC.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>$2,896.32 USD</t>
+          <t>$2,182.14 USD</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -4594,19 +4419,19 @@
     <row r="41">
       <c r="C41" t="inlineStr">
         <is>
-          <t>PR936519</t>
+          <t>PR945523</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Robert Ahrens</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F41" s="3" t="n">
-        <v>46036.63819444444</v>
+        <v>46038.73958333334</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>46036.63333333333</v>
+        <v>46038.73888888889</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -4615,12 +4440,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>134846 Central Machine &amp; Pump</t>
+          <t>GATE VALVE 2-1/16” 15,000 PSI FLANGED</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>$300.00 USD</t>
+          <t>$3,200.00 USD</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4640,19 +4465,19 @@
     <row r="42">
       <c r="C42" t="inlineStr">
         <is>
-          <t>PR936520</t>
+          <t>PR945077</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tom Lamkin</t>
+          <t>Letha Fulton</t>
         </is>
       </c>
       <c r="F42" s="3" t="n">
-        <v>46036.64097222222</v>
+        <v>46038.68888888889</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>46036.63402777778</v>
+        <v>46038.60347222222</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -4661,12 +4486,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Heat Treat T-7117 Seat Press Adapter</t>
+          <t>SHREVEPORT AIR TOOL - S13699</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>$200.00 USD</t>
+          <t>$1,275.00 USD</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4686,19 +4511,19 @@
     <row r="43">
       <c r="C43" t="inlineStr">
         <is>
-          <t>PR936608</t>
+          <t>PR945530</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Judith Salazar</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F43" s="3" t="n">
-        <v>46036.65416666667</v>
+        <v>46038.74097222222</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>46036.65277777778</v>
+        <v>46038.74027777778</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -4707,12 +4532,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>SPARTAN 20712</t>
+          <t>GATE VALVE 2-1/16” 15,000 PSI FLANGED</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>$339.50 USD</t>
+          <t>$3,200.00 USD</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4732,19 +4557,19 @@
     <row r="44">
       <c r="C44" t="inlineStr">
         <is>
-          <t>PR936595</t>
+          <t>PR945375</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Tammy Benham</t>
         </is>
       </c>
       <c r="F44" s="3" t="n">
-        <v>46036.65763888889</v>
+        <v>46038.68263888889</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>46036.65</v>
+        <v>46038.67916666667</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -4753,12 +4578,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>KONECRANES #1-1BE75CJ5/1</t>
+          <t>ELM Creek Gravel - Invoice Number: 27920</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>$12,735.00 USD</t>
+          <t>$3,900.00 USD</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4768,7 +4593,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -4778,19 +4603,19 @@
     <row r="45">
       <c r="C45" t="inlineStr">
         <is>
-          <t>PR936616</t>
+          <t>PR945370</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Judith Salazar</t>
+          <t>Kelli Simon</t>
         </is>
       </c>
       <c r="F45" s="3" t="n">
-        <v>46036.65972222222</v>
+        <v>46038.68263888889</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>46036.65486111111</v>
+        <v>46038.67708333334</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4799,12 +4624,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>SPARTAN 20713</t>
+          <t>2-1/16 - 15M, PC &amp; JWA CHOKE BODY</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>$221.50 USD</t>
+          <t>$4,993.14 USD</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4814,7 +4639,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -4824,19 +4649,19 @@
     <row r="46">
       <c r="C46" t="inlineStr">
         <is>
-          <t>PR936617</t>
+          <t>PR945430</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Cesar Eduardo Ruiz</t>
         </is>
       </c>
       <c r="F46" s="3" t="n">
-        <v>46036.66041666667</v>
+        <v>46038.72013888889</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>46036.65486111111</v>
+        <v>46038.70277777778</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4845,17 +4670,17 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>(CP) CHOKE BODY, CAM-20 MODIFY FOR WEAR SLEEVE</t>
+          <t>RENTA DE UNIDADES TRANSPORTE PERSONAL CAMERON</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>$3,675.00 USD</t>
+          <t>$567,450.00 MXN</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4870,19 +4695,19 @@
     <row r="47">
       <c r="C47" t="inlineStr">
         <is>
-          <t>PR935330</t>
+          <t>PR945228</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Monsserrath Lopez</t>
         </is>
       </c>
       <c r="F47" s="3" t="n">
-        <v>46036.66319444445</v>
+        <v>46038.68333333333</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>46036.43611111111</v>
+        <v>46038.6375</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4891,22 +4716,22 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>A514 - GPS - 11915515 / HP 266 / DT 119155</t>
+          <t>TRANSPORTE GRDP</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>$682.00 USD</t>
+          <t>$965.99 USD</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -4916,19 +4741,19 @@
     <row r="48">
       <c r="C48" t="inlineStr">
         <is>
-          <t>PR935313</t>
+          <t>PR945513</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Cosme Damian Garcia</t>
         </is>
       </c>
       <c r="F48" s="3" t="n">
-        <v>46036.66319444445</v>
+        <v>46038.74444444444</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>46036.43402777778</v>
+        <v>46038.73611111111</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4937,22 +4762,22 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>A514 - GPS - 11892918 / HP 451 / DT 118929</t>
+          <t>SUMINISTRO DE MATERIALES PARA TALLER</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>$1,162.50 USD</t>
+          <t>$440.14 USD</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -4962,19 +4787,19 @@
     <row r="49">
       <c r="C49" t="inlineStr">
         <is>
-          <t>PR935008</t>
+          <t>PR945428</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Monsserrath Lopez</t>
         </is>
       </c>
       <c r="F49" s="3" t="n">
-        <v>46036.66388888889</v>
+        <v>46038.74583333333</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>46036.39444444444</v>
+        <v>46038.70208333333</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4983,22 +4808,22 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>A514 - GPS - 11847225/ OXY HP 415 / DT 118472</t>
+          <t>PAGO ANCABE ENERO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>$852.50 USD</t>
+          <t>$18,421.82 USD</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -5008,19 +4833,19 @@
     <row r="50">
       <c r="C50" t="inlineStr">
         <is>
-          <t>PR934976</t>
+          <t>PR945597</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Luis Martin Leal</t>
         </is>
       </c>
       <c r="F50" s="3" t="n">
-        <v>46036.66388888889</v>
+        <v>46038.80208333334</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>46036.38958333333</v>
+        <v>46038.80138888889</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -5029,22 +4854,22 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>A514 - GPS - 11925214/ HP 244 / DT 119252</t>
+          <t>Lowell Pipe Wrench Head Adapter Offers Enhanced Flexibility</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>$744.00 USD</t>
+          <t>$0.10 USD</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -5054,19 +4879,19 @@
     <row r="51">
       <c r="C51" t="inlineStr">
         <is>
-          <t>PR936637</t>
+          <t>PR945528</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kelli Simon</t>
+          <t>Luis Martin Leal</t>
         </is>
       </c>
       <c r="F51" s="3" t="n">
-        <v>46036.66388888889</v>
+        <v>46038.74166666667</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>46036.66111111111</v>
+        <v>46038.74027777778</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -5075,17 +4900,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>(CP) CHOKE BODY, 2”15K FXF. CLEAN, INSPECT &amp; REPAIR</t>
+          <t>Herramienta para rebabado BU-MACH-0007</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>$1,200.00 USD</t>
+          <t>$1.20 USD</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -5100,19 +4925,19 @@
     <row r="52">
       <c r="C52" t="inlineStr">
         <is>
-          <t>PR934935</t>
+          <t>PR946108</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Luis Martin Leal</t>
         </is>
       </c>
       <c r="F52" s="3" t="n">
-        <v>46036.66458333333</v>
+        <v>46039.36875</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>46036.38333333333</v>
+        <v>46039.36875</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -5121,22 +4946,22 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>A514 - GPS-11922914 / HP 434 / DT 119229</t>
+          <t>Kit de herrajes para grapas</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>$744.00 USD</t>
+          <t>$0.10 USD</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -5146,19 +4971,19 @@
     <row r="53">
       <c r="C53" t="inlineStr">
         <is>
-          <t>PR934919</t>
+          <t>PR946105</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Paula Kimball</t>
+          <t>Luis Martin Leal</t>
         </is>
       </c>
       <c r="F53" s="3" t="n">
-        <v>46036.66458333333</v>
+        <v>46039.36736111111</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>46036.38055555556</v>
+        <v>46039.36666666667</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -5167,22 +4992,22 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>A514 - GPS - 11902317 / HP 423 / DT 119023</t>
+          <t>FABRICACIÓN DE ENG_MF_1030-04 EN 4140</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>$852.50 USD</t>
+          <t>$0.30 USD</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -5192,7 +5017,7 @@
     <row r="54">
       <c r="C54" t="inlineStr">
         <is>
-          <t>PR936468</t>
+          <t>PR946135</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5201,10 +5026,10 @@
         </is>
       </c>
       <c r="F54" s="3" t="n">
-        <v>46036.62986111111</v>
+        <v>46039.40833333333</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>46036.62361111111</v>
+        <v>46039.39861111111</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -5213,12 +5038,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Copy of Servicio de Calibración 2.00" Tubing Sharp V"</t>
+          <t>Calibración a Llave de torque 200-1000 lb-ft</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>$1.00 USD</t>
+          <t>$0.06 USD</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5238,19 +5063,19 @@
     <row r="55">
       <c r="C55" t="inlineStr">
         <is>
-          <t>PR936762</t>
+          <t>PR944869</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MANUEL ALEJANDRO ORTIZ LOPEZ</t>
+          <t>Cosme Damian Garcia</t>
         </is>
       </c>
       <c r="F55" s="3" t="n">
-        <v>46036.7</v>
+        <v>46038.55763888889</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>46036.69375</v>
+        <v>46038.55486111111</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -5259,12 +5084,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>SEAL, GRAYLOC #14 MOLY W/GRAPHITE COATED PARA LUBRICADOR H-15</t>
+          <t>NGRASE Y PRUEBA A MEDIO ARBOL GASIFERO 71</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>$0.00 USD</t>
+          <t>$3,050.00 USD</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5284,19 +5109,19 @@
     <row r="56">
       <c r="C56" t="inlineStr">
         <is>
-          <t>PR936674</t>
+          <t>PR944889</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Luis Alfonso Hernandez</t>
+          <t>Cosme Damian Garcia</t>
         </is>
       </c>
       <c r="F56" s="3" t="n">
-        <v>46036.67430555556</v>
+        <v>46038.5625</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>46036.66944444444</v>
+        <v>46038.55972222222</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5305,12 +5130,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Calibración de Torquimetro</t>
+          <t>prueba hidrostatica a medio arbol castarrical 90</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>$0.06 USD</t>
+          <t>$2,100.00 USD</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5330,19 +5155,19 @@
     <row r="57">
       <c r="C57" t="inlineStr">
         <is>
-          <t>PR936565</t>
+          <t>PR944958</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Luis Alfonso Hernandez</t>
+          <t>Luis Martin Leal</t>
         </is>
       </c>
       <c r="F57" s="3" t="n">
-        <v>46036.64722222222</v>
+        <v>46038.57916666667</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>46036.64236111111</v>
+        <v>46038.57847222222</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5351,12 +5176,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Indicador de Caratula Starret</t>
+          <t>CNMG543RS MP9015 MITSUBISHI</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>$0.06 USD</t>
+          <t>$2.00 USD</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5376,19 +5201,19 @@
     <row r="58">
       <c r="C58" t="inlineStr">
         <is>
-          <t>PR936801</t>
+          <t>PR945289</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Luis Martin Leal</t>
+          <t>Nidia Reyes Iniesta</t>
         </is>
       </c>
       <c r="F58" s="3" t="n">
-        <v>46036.70694444444</v>
+        <v>46038.75625</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>46036.70625</v>
+        <v>46038.65486111111</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -5397,17 +5222,17 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>MANTENIMIENTO Y REPARACIÓN EQUIPO TELESIS MODELO TMP700</t>
+          <t>2026 SHIPPING SUPPLIES</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>$1.00 USD</t>
+          <t>$1,461.98 USD</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5422,19 +5247,19 @@
     <row r="59">
       <c r="C59" t="inlineStr">
         <is>
-          <t>PR936827</t>
+          <t>PR945572</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Luis Martin Leal</t>
+          <t>Moiz Rehman</t>
         </is>
       </c>
       <c r="F59" s="3" t="n">
-        <v>46036.71458333333</v>
+        <v>46038.78472222222</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>46036.7125</v>
+        <v>46038.77291666667</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5443,17 +5268,17 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Solicitud de orden de compra – EPP para practicantes de Materiales</t>
+          <t>REPAIR OF 2-3/4" RATCHET LINK ST4-212-000099 (QU-14052)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>$0.90 USD</t>
+          <t>$599.68 CAD</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5468,19 +5293,19 @@
     <row r="60">
       <c r="C60" t="inlineStr">
         <is>
-          <t>PR935496</t>
+          <t>PR945563</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Blanca Kristhell Chino</t>
+          <t>Moiz Rehman</t>
         </is>
       </c>
       <c r="F60" s="3" t="n">
-        <v>46036.73333333333</v>
+        <v>46038.77291666667</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>46036.45972222222</v>
+        <v>46038.76319444444</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -5489,17 +5314,17 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Cotización ELECTROLITOS EN POLVO HIDRO 220 varios sabores</t>
+          <t>REPAIR OF 2-3/4" RATCHET LINK ST4-212-000136 (QU-14053)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>$20.28 USD</t>
+          <t>$735.48 CAD</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5514,19 +5339,19 @@
     <row r="61">
       <c r="C61" t="inlineStr">
         <is>
-          <t>PR936166</t>
+          <t>PR945149</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Victor Daniel Carvajal</t>
+          <t>Albert Lai</t>
         </is>
       </c>
       <c r="F61" s="3" t="n">
-        <v>46036.57777777778</v>
+        <v>46038.64027777778</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>46036.57708333333</v>
+        <v>46038.62083333333</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5535,17 +5360,17 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Antiderrapante para bandas</t>
+          <t>Northern Gauge - Quote#5035</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>$0.11 USD</t>
+          <t>$400.00 CAD</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5560,19 +5385,19 @@
     <row r="62">
       <c r="C62" t="inlineStr">
         <is>
-          <t>PR937711</t>
+          <t>PR945659</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Gerardo Rincon</t>
+          <t>Amanda Pereira Barros</t>
         </is>
       </c>
       <c r="F62" s="3" t="n">
-        <v>46037.03680555556</v>
+        <v>46038.91944444444</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>46037.03541666667</v>
+        <v>46038.9125</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5581,17 +5406,17 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>MRP-5003, INTERNAL/EXTERNAL TUBING AND CASING CONNECTIONS, 13-3/8" A 20"</t>
+          <t>NOVEMBRO - Mac brim OneSubsea marinho Manga longa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>$1.00 USD</t>
+          <t>$805.07 USD</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5606,19 +5431,19 @@
     <row r="63">
       <c r="C63" t="inlineStr">
         <is>
-          <t>PR937696</t>
+          <t>PR945654</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Gerardo Rincon</t>
+          <t>Amanda Pereira Barros</t>
         </is>
       </c>
       <c r="F63" s="3" t="n">
-        <v>46037.03333333333</v>
+        <v>46038.91111111111</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>46037.03194444445</v>
+        <v>46038.90763888889</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -5627,17 +5452,17 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TR-B10I Thread Roll Set, Buttress Casing*Internal, 16-20"</t>
+          <t>ESTOQUE OUTUBRO - Mac brim OneSubsea marinho Manga longa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>$1.00 USD</t>
+          <t>$490.99 USD</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5652,19 +5477,19 @@
     <row r="64">
       <c r="C64" t="inlineStr">
         <is>
-          <t>PR936160</t>
+          <t>PR946283</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Victor Daniel Carvajal</t>
+          <t>Leandro Junior De Aguiar</t>
         </is>
       </c>
       <c r="F64" s="3" t="n">
-        <v>46036.57638888889</v>
+        <v>46039.55</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>46036.57569444444</v>
+        <v>46039.54652777778</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -5673,17 +5498,17 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Soldadura a bisagras</t>
+          <t>Aluguel da estufa - ALUGATEC</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>$0.06 USD</t>
+          <t>$369.32 USD</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5698,19 +5523,19 @@
     <row r="65">
       <c r="C65" t="inlineStr">
         <is>
-          <t>PR936906</t>
+          <t>PR945640</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Blanca Kristhell Chino</t>
+          <t>Amanda Pereira Barros</t>
         </is>
       </c>
       <c r="F65" s="3" t="n">
-        <v>46036.73958333334</v>
+        <v>46038.90694444445</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>46036.7375</v>
+        <v>46038.88819444444</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -5719,17 +5544,17 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>COTIZACIÓN BOX LUNH CAMPAÑA DE VACUNACION 2DA JORNADA</t>
+          <t>Mac brim OneSubsea marinho Manga longa</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>$9.00 USD</t>
+          <t>$1,037.57 USD</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5744,19 +5569,19 @@
     <row r="66">
       <c r="C66" t="inlineStr">
         <is>
-          <t>PR936934</t>
+          <t>PR946265</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Luis Martin Leal</t>
+          <t>Leandro Junior De Aguiar</t>
         </is>
       </c>
       <c r="F66" s="3" t="n">
-        <v>46036.75208333333</v>
+        <v>46039.54027777778</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>46036.75138888889</v>
+        <v>46039.53263888889</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -5765,17 +5590,17 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>F0564323 ADAPTADOR DE CAMBIO RAPIDO DE ACERO 7/8" EM04- 7/8"</t>
+          <t>PLASTIFICADORA A3 150/170 MIC 220V</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>$0.60 USD</t>
+          <t>$98.47 USD</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5790,19 +5615,19 @@
     <row r="67">
       <c r="C67" t="inlineStr">
         <is>
-          <t>PR936114</t>
+          <t>PR945664</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Victor Daniel Carvajal</t>
+          <t>Amanda Pereira Barros</t>
         </is>
       </c>
       <c r="F67" s="3" t="n">
-        <v>46036.56597222222</v>
+        <v>46038.92847222222</v>
       </c>
       <c r="G67" s="3" t="n">
-        <v>46036.56458333333</v>
+        <v>46038.92222222222</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -5811,17 +5636,17 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>5PK2800 bandas dentadas</t>
+          <t>DEZEMBRO - Macacão RF 88/12 Azul Marinho Manga Longa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>$0.56 USD</t>
+          <t>$1,788.67 USD</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5836,19 +5661,19 @@
     <row r="68">
       <c r="C68" t="inlineStr">
         <is>
-          <t>PR936102</t>
+          <t>PR945965</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Victor Daniel Carvajal</t>
+          <t>Giovani Alves Da Cruz</t>
         </is>
       </c>
       <c r="F68" s="3" t="n">
-        <v>46036.5625</v>
+        <v>46039.26527777778</v>
       </c>
       <c r="G68" s="3" t="n">
-        <v>46036.56180555555</v>
+        <v>46039.25763888889</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -5857,17 +5682,17 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Reparacion guarda eje Z 8930</t>
+          <t>COMPRAS_DJ_ELETRICA- TINTA E DIVERSOS</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>$0.06 USD</t>
+          <t>$90.26 USD</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5882,19 +5707,19 @@
     <row r="69">
       <c r="C69" t="inlineStr">
         <is>
-          <t>PR936088</t>
+          <t>PR946117</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Victor Daniel Carvajal</t>
+          <t>Leandro Junior De Aguiar</t>
         </is>
       </c>
       <c r="F69" s="3" t="n">
-        <v>46036.56041666667</v>
+        <v>46039.37986111111</v>
       </c>
       <c r="G69" s="3" t="n">
-        <v>46036.55972222222</v>
+        <v>46039.37569444445</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -5903,17 +5728,17 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Contactor</t>
+          <t>Manutenção do PRÉ HEAT</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>$0.22 USD</t>
+          <t>$609.94 USD</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5928,19 +5753,19 @@
     <row r="70">
       <c r="C70" t="inlineStr">
         <is>
-          <t>PR936964</t>
+          <t>PR945976</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Luis Martin Leal</t>
+          <t>Giovani Alves Da Cruz</t>
         </is>
       </c>
       <c r="F70" s="3" t="n">
-        <v>46036.76597222222</v>
+        <v>46039.26875</v>
       </c>
       <c r="G70" s="3" t="n">
-        <v>46036.76527777778</v>
+        <v>46039.26527777778</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -5949,17 +5774,17 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ARGON AP CRIOBLEND GAS CILINDRO DE 9M3</t>
+          <t>COMPRAS_ZIRTEC_GRANALHA DE ACAÇO G25</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>$6.40 USD</t>
+          <t>$997.32 USD</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>PNP_MX10 (Cameron de Mexico)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5974,19 +5799,19 @@
     <row r="71">
       <c r="C71" t="inlineStr">
         <is>
-          <t>PR936782</t>
+          <t>PR944913</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mark Joseph</t>
+          <t>Leandro Junior De Aguiar</t>
         </is>
       </c>
       <c r="F71" s="3" t="n">
-        <v>46036.70486111111</v>
+        <v>46038.57361111111</v>
       </c>
       <c r="G71" s="3" t="n">
-        <v>46036.69861111111</v>
+        <v>46038.56736111111</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -5995,17 +5820,17 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>QC PASSED DECALS</t>
+          <t>CINTA CATRACA - SpanSet</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>$399.09 CAD</t>
+          <t>$1,580.00 USD</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6020,19 +5845,19 @@
     <row r="72">
       <c r="C72" t="inlineStr">
         <is>
-          <t>PR936057</t>
+          <t>PR944950</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Moiz Rehman</t>
+          <t>Aline Fernanda Da Silva Oliveira</t>
         </is>
       </c>
       <c r="F72" s="3" t="n">
-        <v>46036.56041666667</v>
+        <v>46038.57986111111</v>
       </c>
       <c r="G72" s="3" t="n">
-        <v>46036.55625</v>
+        <v>46038.57638888889</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -6041,17 +5866,17 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Lapping consumables for Bay 1 (Quote 34787)</t>
+          <t>Monitor HP S5 Pro 527pq QHD MNTR US</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>$2,420.00 CAD</t>
+          <t>$899.19 USD</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>PNP_CA10 (Schlumberger Canada LTD)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6066,19 +5891,19 @@
     <row r="73">
       <c r="C73" t="inlineStr">
         <is>
-          <t>PR930282</t>
+          <t>PR944963</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Vanessa Alexandra Fleitas Trujillo Caldas</t>
+          <t>Aline Fernanda Da Silva Oliveira</t>
         </is>
       </c>
       <c r="F73" s="3" t="n">
-        <v>46036.56041666667</v>
+        <v>46038.58125</v>
       </c>
       <c r="G73" s="3" t="n">
-        <v>46035.48958333334</v>
+        <v>46038.58055555556</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -6087,12 +5912,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>PACIFIC - 12.2025</t>
+          <t>HP Nano Key Cab Lk</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>$32,448.58 USD</t>
+          <t>$58.64 USD</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6102,29 +5927,29 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="C74" t="inlineStr">
         <is>
-          <t>PR936035</t>
+          <t>PR944955</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Michelly Serpa Quintanilha</t>
+          <t>Leandro Junior De Aguiar</t>
         </is>
       </c>
       <c r="F74" s="3" t="n">
-        <v>46036.55416666667</v>
+        <v>46038.58125</v>
       </c>
       <c r="G74" s="3" t="n">
-        <v>46036.55277777778</v>
+        <v>46038.57777777778</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -6133,12 +5958,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>SERV. VIGILÂNCIA E SEGURANÇA ESTACIONAMENTO</t>
+          <t>CHAPA PISO - DNAL</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>R$14,014.93 BRL</t>
+          <t>$1,083.06 USD</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6148,7 +5973,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -6158,19 +5983,19 @@
     <row r="75">
       <c r="C75" t="inlineStr">
         <is>
-          <t>PR939051</t>
+          <t>PR944979</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Thawane Chagas Dos Santos</t>
+          <t>Aline Fernanda Da Silva Oliveira</t>
         </is>
       </c>
       <c r="F75" s="3" t="n">
-        <v>46037.24097222222</v>
+        <v>46038.58611111111</v>
       </c>
       <c r="G75" s="3" t="n">
-        <v>46037.23819444444</v>
+        <v>46038.58472222222</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -6179,12 +6004,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Serviço Topside Support - Julho 2025</t>
+          <t>PR FONE COM USB</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>R$4,047.06 BRL</t>
+          <t>$135.38 USD</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6204,19 +6029,19 @@
     <row r="76">
       <c r="C76" t="inlineStr">
         <is>
-          <t>PR939209</t>
+          <t>PR944966</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ana Cecilia de Carvalho Guimaraes</t>
+          <t>Alana Macedo</t>
         </is>
       </c>
       <c r="F76" s="3" t="n">
-        <v>46037.27569444444</v>
+        <v>46038.5875</v>
       </c>
       <c r="G76" s="3" t="n">
-        <v>46037.2625</v>
+        <v>46038.58194444444</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -6225,12 +6050,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Cotação 8 Ferraz</t>
+          <t>Headset JBL</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>$196.76 USD</t>
+          <t>$44.22 USD</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6250,19 +6075,19 @@
     <row r="77">
       <c r="C77" t="inlineStr">
         <is>
-          <t>PR939374</t>
+          <t>PR945003</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Amanda Silva De Andrade</t>
+          <t>Aline Fernanda Da Silva Oliveira</t>
         </is>
       </c>
       <c r="F77" s="3" t="n">
-        <v>46037.30138888889</v>
+        <v>46038.58888888889</v>
       </c>
       <c r="G77" s="3" t="n">
-        <v>46037.29722222222</v>
+        <v>46038.58819444444</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -6271,12 +6096,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>OP25-062 "13/01/2025 ORDEM DE SERVIÇO N° 1807 RELATÓRIO 8073 - CMAX 34 - 13/01/25 ATENDIMENTO MONTAGEM FUSO EIXO W"</t>
+          <t>HP 235 WLS Mse/KB Combo Brac BRZL</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>$8,206.17 USD</t>
+          <t>$76.01 USD</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6296,19 +6121,19 @@
     <row r="78">
       <c r="C78" t="inlineStr">
         <is>
-          <t>PR936066</t>
+          <t>PR944999</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Douglas Simoes</t>
+          <t>Amanda Silva De Andrade</t>
         </is>
       </c>
       <c r="F78" s="3" t="n">
-        <v>46036.56736111111</v>
+        <v>46038.58958333333</v>
       </c>
       <c r="G78" s="3" t="n">
-        <v>46036.55763888889</v>
+        <v>46038.5875</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -6317,12 +6142,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>PEDIDO SERVIÇO CHAVEIRO - PEDIDO 201/202/203/204 E 205 - 2026</t>
+          <t>OP26-052 "ORDEM DE SERVIÇO 2156 2026 MANUTENÇÃO CONFORME RELATÓRIO 0651 2026 INTEGRAÇÃO 09/01/2026 ATENDIMENTO ÁREA USINAGEM 10/</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>R$926.00 BRL</t>
+          <t>$2,920.14 USD</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6342,19 +6167,19 @@
     <row r="79">
       <c r="C79" t="inlineStr">
         <is>
-          <t>PR926240-V2</t>
+          <t>PR945017</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Denis Roberto Leite Da Costa</t>
+          <t>Amanda Silva De Andrade</t>
         </is>
       </c>
       <c r="F79" s="3" t="n">
-        <v>46036.75208333333</v>
+        <v>46038.59166666667</v>
       </c>
       <c r="G79" s="3" t="n">
-        <v>46035.66527777778</v>
+        <v>46038.59027777778</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -6363,12 +6188,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>COMPRA_ULTRA - R</t>
+          <t>OP26-053 "PROPOSTA 946 2026 FUSO EIXO W CMAX 24"</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>$1,254.91 USD</t>
+          <t>$15,767.55 USD</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6382,25 +6207,25 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="C80" t="inlineStr">
         <is>
-          <t>PR936917</t>
+          <t>PR945029</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Denis Roberto Leite Da Costa</t>
+          <t>Amanda Silva De Andrade</t>
         </is>
       </c>
       <c r="F80" s="3" t="n">
-        <v>46036.74930555555</v>
+        <v>46038.59513888889</v>
       </c>
       <c r="G80" s="3" t="n">
-        <v>46036.74305555555</v>
+        <v>46038.59375</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -6409,12 +6234,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>COMPRA_FOSFATIZANTE M</t>
+          <t>OP26-054 GERADOR DE PULSO tipo RE45BA2R1</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>$1,683.89 USD</t>
+          <t>$200.23 USD</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6434,19 +6259,19 @@
     <row r="81">
       <c r="C81" t="inlineStr">
         <is>
-          <t>PR936119</t>
+          <t>PR945075</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Lilian Regina Juliao</t>
+          <t>Amanda Silva De Andrade</t>
         </is>
       </c>
       <c r="F81" s="3" t="n">
-        <v>46036.56944444445</v>
+        <v>46038.60625</v>
       </c>
       <c r="G81" s="3" t="n">
-        <v>46036.56597222222</v>
+        <v>46038.60347222222</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -6455,12 +6280,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>MMB INPLANT OUTUBRO</t>
+          <t>OP26-056 PACOTE PREVENTIVA FRONIUS 2026</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>$2,256.38 USD</t>
+          <t>$12,894.91 USD</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6470,7 +6295,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -6480,19 +6305,19 @@
     <row r="82">
       <c r="C82" t="inlineStr">
         <is>
-          <t>PR936265</t>
+          <t>PR945274</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Michelly Serpa Quintanilha</t>
+          <t>Syllas Roberto Vicente</t>
         </is>
       </c>
       <c r="F82" s="3" t="n">
-        <v>46036.57986111111</v>
+        <v>46038.65347222222</v>
       </c>
       <c r="G82" s="3" t="n">
-        <v>46036.57777777778</v>
+        <v>46038.65069444444</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -6501,12 +6326,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>POSTO - GASOLINA - 268232</t>
+          <t>Bateria Lithium Saft Ls14250 3,6v</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>R$94.52 BRL</t>
+          <t>$216.61 USD</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6516,332 +6341,10 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>PR936301</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Lilian Regina Juliao</t>
-        </is>
-      </c>
-      <c r="F83" s="3" t="n">
-        <v>46036.59930555556</v>
-      </c>
-      <c r="G83" s="3" t="n">
-        <v>46036.5875</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>MMB NOVEMBRO 2025</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>$9,069.57 USD</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>PR936353</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Marcos Figueiredo Reguera</t>
-        </is>
-      </c>
-      <c r="F84" s="3" t="n">
-        <v>46036.60069444445</v>
-      </c>
-      <c r="G84" s="3" t="n">
-        <v>46036.59930555556</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>MEDIÇÃO - SWIRE - JANEIRO / 25</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>$874.78 USD</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>PR936563</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Vagner Paulo Locatelli</t>
-        </is>
-      </c>
-      <c r="F85" s="3" t="n">
-        <v>46036.64513888889</v>
-      </c>
-      <c r="G85" s="3" t="n">
-        <v>46036.64236111111</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>PURGA STAB PLATE EXXON USAN - DES.X-425392-79</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>R$1,985.00 BRL</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>PR936574</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Vitor Marcos Silva Amaral</t>
-        </is>
-      </c>
-      <c r="F86" s="3" t="n">
-        <v>46036.65069444444</v>
-      </c>
-      <c r="G86" s="3" t="n">
-        <v>46036.64444444444</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Kit de reparo bomba Haskel - CWOS Rework</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>$245.58 USD</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>PR936133</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>VITOR ARAUJO MOTTA</t>
-        </is>
-      </c>
-      <c r="F87" s="3" t="n">
-        <v>46036.66597222222</v>
-      </c>
-      <c r="G87" s="3" t="n">
-        <v>46036.56875</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>URG SLSS/CWOS/EQN/WOM SERVICE QUOTE E26013</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>$6,999.99 USD</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>PR936136</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Lilian Regina Juliao</t>
-        </is>
-      </c>
-      <c r="F88" s="3" t="n">
-        <v>46036.58263888889</v>
-      </c>
-      <c r="G88" s="3" t="n">
-        <v>46036.57013888889</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>MMB CAM NOVEMBRO25</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>$500.31 USD</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>PR936488</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Kayane Castilho Rodrigues</t>
-        </is>
-      </c>
-      <c r="F89" s="3" t="n">
-        <v>46036.6375</v>
-      </c>
-      <c r="G89" s="3" t="n">
-        <v>46036.62777777778</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Cadeiras</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>$570.05 USD</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Resultado.xlsx
+++ b/data/Resultado.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
     <col width="4" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
@@ -493,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PR972597</t>
+          <t>PR980926</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BReagan</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -511,19 +511,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PR972452</t>
+          <t>PR980848</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JJONES75</t>
+          <t>NDINGER</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -536,19 +536,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PR972488</t>
+          <t>PR980745</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JJONES75</t>
+          <t>KMartinez13</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -568,12 +568,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PR968891</t>
+          <t>PR980825</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CVidrine2</t>
+          <t>JBROUSSARD12</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -593,12 +593,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PR972502</t>
+          <t>PR980719</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JKramer5</t>
+          <t>RAHRENS2</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -618,12 +618,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PR972585</t>
+          <t>PR980907</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BReagan</t>
+          <t>BBROWN23</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -643,12 +643,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PR972792</t>
+          <t>PR980927</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JArdoin3</t>
+          <t>JCELESTINE</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -668,12 +668,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PR972669</t>
+          <t>PR980717</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>KMartinez13</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -693,12 +693,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PR972702</t>
+          <t>PR981046</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>LUSCANGA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -706,24 +706,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PR972712</t>
+          <t>PR981066</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>LUSCANGA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -731,24 +731,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PR972699</t>
+          <t>PR979733</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GMORENO20</t>
+          <t>MLopez160</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -756,24 +756,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PR972803</t>
+          <t>PR980732</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>BMARQUES</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -781,24 +781,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PR972728</t>
+          <t>PR980853</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>VAmaral</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -806,24 +806,24 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PR972199</t>
+          <t>PR980803</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>JArdoin3</t>
+          <t>BMARQUES</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -831,24 +831,24 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PR972677</t>
+          <t>PR980832</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GMORENO20</t>
+          <t>VAmaral</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -856,24 +856,24 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PR972750</t>
+          <t>PR979067</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>VAmaral</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -881,24 +881,24 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PR972734</t>
+          <t>PR980824</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GMORENO20</t>
+          <t>BMARQUES</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -906,24 +906,24 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PR972636</t>
+          <t>PR980808</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>BMARQUES</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -931,24 +931,24 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PR972615</t>
+          <t>PR980868</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BReagan</t>
+          <t>VAmaral</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -956,24 +956,24 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PR972621</t>
+          <t>PR980789</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>KMartinez13</t>
+          <t>VMELLO4</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -981,24 +981,24 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PR972780</t>
+          <t>PR980791</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>BMARQUES</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1006,24 +1006,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PR972795</t>
+          <t>PR980763</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>BMARQUES</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1031,24 +1031,24 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PR972273</t>
+          <t>PR980938</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JBROUSSARD12</t>
+          <t>ISantos24</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1056,24 +1056,24 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PR972642</t>
+          <t>PR980756</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BReagan</t>
+          <t>BMARQUES</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1081,24 +1081,24 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PR972768</t>
+          <t>PR980940</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>VAmaral</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1106,24 +1106,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PR972652</t>
+          <t>PR980750</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WSACKMANN</t>
+          <t>BMARQUES</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1131,74 +1131,74 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PR972634</t>
+          <t>PR980954</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GMORENO20</t>
+          <t>VMotta</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PR972643</t>
+          <t>PR955335-V5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JArdoin3</t>
+          <t>VMotta</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CAMERON NAM</t>
+          <t>CAMERON LAM</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PR972424</t>
+          <t>PR980560</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IBorges3</t>
+          <t>TJESUS</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1211,19 +1211,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PR972487</t>
+          <t>PR980733</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>aandrade20</t>
+          <t>TJESUS</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1236,157 +1236,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>PR972506</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>aandrade20</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>PR972561</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>VMotta</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>PR972605</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>aandrade20</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>PR972715</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>LPrado3</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>PR972794</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>ESAMPAIO</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PR972806</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ESAMPAIO</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>CAMERON LAM</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,13 +1261,13 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="116" customWidth="1" min="9" max="9"/>
+    <col width="61" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="38" customWidth="1" min="11" max="11"/>
     <col width="17" customWidth="1" min="12" max="12"/>
@@ -1500,19 +1350,19 @@
     <row r="2">
       <c r="C2" t="inlineStr">
         <is>
-          <t>PR972597</t>
+          <t>PR980926</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bobby Reagan</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F2" s="3" t="n">
-        <v>46045.58958333333</v>
+        <v>46048.60625</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>46045.58402777778</v>
+        <v>46048.60208333333</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1521,17 +1371,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>DOGGET- INVOICE: 140263436 - TOYOTA LIFT OF HOUSTON</t>
+          <t>Lafayette Invoice M-402094-TLM</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$508.08 USD</t>
+          <t>$631.48 USD</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -1546,19 +1396,19 @@
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>PR972452</t>
+          <t>PR980848</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Casey Jones</t>
+          <t>Nicole Dinger</t>
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>46045.55902777778</v>
+        <v>46048.5875</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>46045.55347222222</v>
+        <v>46048.58611111111</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1567,22 +1417,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Evans Equipment - #INV304636</t>
+          <t>McMaster Carr Quote 266816-TLM-Jamie F</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$616.44 USD</t>
+          <t>$52.60 USD</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_US40 (OneSubsea LLC)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -1592,19 +1442,19 @@
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>PR972488</t>
+          <t>PR980745</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Casey Jones</t>
+          <t>Kimberly Martinez</t>
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>46045.56388888889</v>
+        <v>46048.57916666667</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>46045.55972222222</v>
+        <v>46048.56319444445</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1613,12 +1463,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Evans Equipment - #INV304634</t>
+          <t>MSC #30201974</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$385.98 USD</t>
+          <t>$1,992.92 USD</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1638,19 +1488,19 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>PR968891</t>
+          <t>PR980825</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Carl Vidrine</t>
+          <t>Joseph Broussard</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>46045.56805555556</v>
+        <v>46048.58680555555</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>46044.69375</v>
+        <v>46048.58055555556</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1659,12 +1509,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2'-6" Sub Face Fixtures, Rings, Mandrals and Collets</t>
+          <t>POWER TOOL SPECIALTIES/ JOB# 201478 &amp; 201379</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$45,445.00 USD</t>
+          <t>$2,065.00 USD</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1678,25 +1528,25 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>PR972502</t>
+          <t>PR980719</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jackson Kramer</t>
+          <t>Robert Ahrens</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>46045.57083333333</v>
+        <v>46048.56111111111</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>46045.56180555555</v>
+        <v>46048.55763888889</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1705,12 +1555,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>P&amp;W TICKET-362239</t>
+          <t>Staples</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$58.60 USD</t>
+          <t>$96.94 USD</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1730,19 +1580,19 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>PR972585</t>
+          <t>PR980907</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bobby Reagan</t>
+          <t>Brian Brown</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>46045.58333333334</v>
+        <v>46048.60208333333</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>46045.58125</v>
+        <v>46048.59861111111</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1751,12 +1601,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>INV: 54443405 - LINDE GAS</t>
+          <t>1/2" F.F. Lead Figure 1 pk each 0-8</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$430.34 USD</t>
+          <t>$673.97 USD</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1766,7 +1616,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1776,19 +1626,19 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>PR972792</t>
+          <t>PR980927</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Joseph Ardoin</t>
+          <t>Joseph Celestine</t>
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>46045.62847222222</v>
+        <v>46048.60416666666</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>46045.62638888889</v>
+        <v>46048.60277777778</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1797,12 +1647,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Industrial Supply 2601-C30749</t>
+          <t>RL-- CMU / V2010B STRETCH WRAP</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>$350.00 USD</t>
+          <t>$2,358.28 USD</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1812,7 +1662,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1822,19 +1672,19 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>PR972669</t>
+          <t>PR980717</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Kimberly Martinez</t>
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>46045.60972222222</v>
+        <v>46048.56180555555</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>46045.59930555556</v>
+        <v>46048.55763888889</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1843,12 +1693,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>#1019829-PRODUCERS</t>
+          <t>TR ENGINEERING #QTE0490</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>$2,478.76 USD</t>
+          <t>$3,580.00 USD</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1868,19 +1718,19 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>PR972702</t>
+          <t>PR981046</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Luis Alfonso Hernandez</t>
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>46045.61805555555</v>
+        <v>46048.63194444445</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>46045.60972222222</v>
+        <v>46048.62708333333</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1889,17 +1739,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>#1019837-PRODUCERS</t>
+          <t>Plug Gage 1 1/2"-11 1/2 NPT</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>$1,964.52 USD</t>
+          <t>$1.00 USD</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1914,19 +1764,19 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>PR972712</t>
+          <t>PR981066</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Luis Alfonso Hernandez</t>
         </is>
       </c>
       <c r="F11" s="3" t="n">
-        <v>46045.61527777778</v>
+        <v>46048.63472222222</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>46045.61180555556</v>
+        <v>46048.63263888889</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1935,17 +1785,17 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>#1019838-PRODUCERS</t>
+          <t>Plug Gage 1"-11 1/2 NPT</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>$2,454.39 USD</t>
+          <t>$1.00 USD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1960,19 +1810,19 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>PR972699</t>
+          <t>PR979733</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Guadalupe Moreno</t>
+          <t>Monsserrath Lopez</t>
         </is>
       </c>
       <c r="F12" s="3" t="n">
-        <v>46045.61527777778</v>
+        <v>46048.56041666667</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>46045.60902777778</v>
+        <v>46048.42013888889</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1981,22 +1831,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>P&amp;W - 0363705</t>
+          <t>TAQUIZA DIAS SIN ACCIDENTES</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>$1,458.45 USD</t>
+          <t>$4,163.01 USD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_MX10 (Cameron de Mexico)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -2006,19 +1856,19 @@
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>PR972803</t>
+          <t>PR980732</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Bruno De Souza Marques</t>
         </is>
       </c>
       <c r="F13" s="3" t="n">
-        <v>46045.62916666667</v>
+        <v>46048.56180555555</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>46045.62847222222</v>
+        <v>46048.56041666667</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -2027,22 +1877,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>#1882A-NAM</t>
+          <t>RC COTAÇÃO- Kendex OCTG Orange</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>$4,800.00 USD</t>
+          <t>R$2.00 BRL</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -2052,19 +1902,19 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>PR972728</t>
+          <t>PR980853</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Vitor Marcos Silva Amaral</t>
         </is>
       </c>
       <c r="F14" s="3" t="n">
-        <v>46045.61736111111</v>
+        <v>46048.59097222222</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>46045.61527777778</v>
+        <v>46048.5875</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -2073,22 +1923,22 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>#1019841-PRODUCERS</t>
+          <t>Medição de área Triunfo - IRS7 - Setembro/2025</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>$715.24 USD</t>
+          <t>$66,165.94 USD</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -2098,19 +1948,19 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>PR972199</t>
+          <t>PR980803</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Joseph Ardoin</t>
+          <t>Bruno De Souza Marques</t>
         </is>
       </c>
       <c r="F15" s="3" t="n">
-        <v>46045.62222222222</v>
+        <v>46048.57569444444</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>46045.50347222222</v>
+        <v>46048.575</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2119,22 +1969,22 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Industrial Supply 2601-c30737</t>
+          <t>RC COTAÇÃO-Graxa Multiuso Molygrafit - GLI-2/B Branca</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>$50.00 USD</t>
+          <t>R$4.00 BRL</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -2144,19 +1994,19 @@
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>PR972677</t>
+          <t>PR980832</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Guadalupe Moreno</t>
+          <t>Vitor Marcos Silva Amaral</t>
         </is>
       </c>
       <c r="F16" s="3" t="n">
-        <v>46045.60833333333</v>
+        <v>46048.5875</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>46045.60069444445</v>
+        <v>46048.58263888889</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2165,22 +2015,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>P&amp;W Sales - 0361126</t>
+          <t>Medição de área Triunfo - IRS7 - Outubro/2025</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>$570.15 USD</t>
+          <t>$68,341.09 USD</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -2190,19 +2040,19 @@
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>PR972750</t>
+          <t>PR979067</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Vitor Marcos Silva Amaral</t>
         </is>
       </c>
       <c r="F17" s="3" t="n">
-        <v>46045.62430555555</v>
+        <v>46048.58263888889</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>46045.62013888889</v>
+        <v>46048.35208333333</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2211,17 +2061,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>#1879-NAM</t>
+          <t>Medição de área Triunfo - IRS7 - Novembro/2025</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>$4,800.00 USD</t>
+          <t>$69,821.27 USD</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2236,19 +2086,19 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>PR972734</t>
+          <t>PR980824</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Guadalupe Moreno</t>
+          <t>Bruno De Souza Marques</t>
         </is>
       </c>
       <c r="F18" s="3" t="n">
-        <v>46045.62430555555</v>
+        <v>46048.58125</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>46045.61597222222</v>
+        <v>46048.58055555556</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2257,17 +2107,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Torcup - 119429</t>
+          <t>RC COTAÇÃO-Partícula magnética ML-500WB</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>$1,998.00 USD</t>
+          <t>R$2.00 BRL</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2282,19 +2132,19 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>PR972636</t>
+          <t>PR980808</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Bruno De Souza Marques</t>
         </is>
       </c>
       <c r="F19" s="3" t="n">
-        <v>46045.60277777778</v>
+        <v>46048.57777777778</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>46045.59305555555</v>
+        <v>46048.57638888889</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2303,22 +2153,22 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>SAFETY KLEEN #99022640</t>
+          <t>RC COTAÇÃO- Penetrante SKL-WP2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>$408.13 USD</t>
+          <t>R$24.00 BRL</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -2328,19 +2178,19 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>PR972615</t>
+          <t>PR980868</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bobby Reagan</t>
+          <t>Vitor Marcos Silva Amaral</t>
         </is>
       </c>
       <c r="F20" s="3" t="n">
-        <v>46045.58888888889</v>
+        <v>46048.59375</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>46045.58680555555</v>
+        <v>46048.59097222222</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2349,17 +2199,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>DOGGET- INVOICE: 140263438 - TOYOTA LIFT OF HOUSTON</t>
+          <t>Medição de área Triunfo - IRS7 - Agosto/2025</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>$791.00 USD</t>
+          <t>$63,539.52 USD</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2374,19 +2224,19 @@
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>PR972621</t>
+          <t>PR980789</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kimberly Martinez</t>
+          <t>Victor Miranda Mello</t>
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>46045.59166666667</v>
+        <v>46048.57569444444</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>46045.58888888889</v>
+        <v>46048.57222222222</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -2395,22 +2245,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>CINTAS #4256987118</t>
+          <t>Headset for macaé team</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>$45.00 USD</t>
+          <t>$216.25 USD</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2420,19 +2270,19 @@
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>PR972780</t>
+          <t>PR980791</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Bruno De Souza Marques</t>
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>46045.62708333333</v>
+        <v>46048.57361111111</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>46045.625</v>
+        <v>46048.57291666666</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2441,22 +2291,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>#1880B-NAM</t>
+          <t>RC COTAÇÃO- Revelador SKD-S2</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>$3,600.00 USD</t>
+          <t>R$48.00 BRL</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2466,19 +2316,19 @@
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>PR972795</t>
+          <t>PR980763</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Bruno De Souza Marques</t>
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>46045.62777777778</v>
+        <v>46048.57083333333</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>46045.62708333333</v>
+        <v>46048.56736111111</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2487,22 +2337,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>#1881-NAM</t>
+          <t>RC COTAÇÃO-Transdutor K2G Ø24 - ângulo 0 - Frequência 2 MHz</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>$4,800.00 USD</t>
+          <t>R$2.00 BRL</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2512,19 +2362,19 @@
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>PR972273</t>
+          <t>PR980938</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Joseph Broussard</t>
+          <t>Isabel Cristina Dos Santos</t>
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>46045.59236111111</v>
+        <v>46048.64305555556</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>46045.51875</v>
+        <v>46048.60486111111</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2533,17 +2383,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NI WELDING SUPPLY /ORD.# 10610244-00</t>
+          <t>Pedido fechamento Transmaz Dezembro</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>$797.00 USD</t>
+          <t>$7,482.32 USD</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2558,19 +2408,19 @@
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>PR972642</t>
+          <t>PR980756</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bobby Reagan</t>
+          <t>Bruno De Souza Marques</t>
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>46045.59722222222</v>
+        <v>46048.56666666667</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>46045.59375</v>
+        <v>46048.56527777778</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2579,22 +2429,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>DOGGET- INVOICE: 140263435 - TOYOTA LIFT OF HOUSTON</t>
+          <t>RC COTAÇÃO- Korr Guard</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>$1,017.69 USD</t>
+          <t>R$2.00 BRL</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2604,19 +2454,19 @@
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>PR972768</t>
+          <t>PR980940</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Vitor Marcos Silva Amaral</t>
         </is>
       </c>
       <c r="F26" s="3" t="n">
-        <v>46045.62430555555</v>
+        <v>46048.60763888889</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>46045.62291666667</v>
+        <v>46048.60486111111</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2625,17 +2475,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>#1880A-NAM</t>
+          <t>Medição de área Triunfo - IRS7 - Julho/2025</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>$4,800.00 USD</t>
+          <t>$70,525.26 USD</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2650,19 +2500,19 @@
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>PR972652</t>
+          <t>PR980750</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>William Sackmann</t>
+          <t>Bruno De Souza Marques</t>
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>46045.59861111111</v>
+        <v>46048.56527777778</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>46045.59513888889</v>
+        <v>46048.56388888889</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2671,22 +2521,22 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>#1413-ITS BEEN TOO LONG CLEANING</t>
+          <t>RC COTAÇÃO-Cotação de Rust Veto AS EU</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>$800.00 USD</t>
+          <t>R$2.00 BRL</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2696,19 +2546,19 @@
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>PR972634</t>
+          <t>PR980954</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Guadalupe Moreno</t>
+          <t>VITOR ARAUJO MOTTA</t>
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>46045.60069444445</v>
+        <v>46048.61041666667</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>46045.59236111111</v>
+        <v>46048.60833333333</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2717,17 +2567,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>P&amp;W - 0362907</t>
+          <t>URG SLSS/TLM/COTIMA QUOTE 274692</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>$1,753.65 USD</t>
+          <t>$1,440.18 USD</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2742,19 +2592,19 @@
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>PR972643</t>
+          <t>PR955335-V5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Joseph Ardoin</t>
+          <t>VITOR ARAUJO MOTTA</t>
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>46045.60138888889</v>
+        <v>46048.60972222222</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>46045.59375</v>
+        <v>46045.52777777778</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2763,17 +2613,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Element ELA575554IN</t>
+          <t>URG SLSS/EQN BACALHAU/DISMETER QUOTE 50409</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>$160.00 USD</t>
+          <t>$374.73 USD</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>PNP_US10 (Cameron Intl Corp)</t>
+          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2782,25 +2632,25 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>PR972424</t>
+          <t>PR980560</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Iago Oliveira Melo Borges</t>
+          <t>Tiago Oliveira De Jesus</t>
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>46045.55416666667</v>
+        <v>46048.56041666667</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>46045.54722222222</v>
+        <v>46048.53055555555</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2809,17 +2659,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Laptop Vanessa</t>
+          <t>PC request Lais</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>$3,975.00 USD</t>
+          <t>R$6,221.62 BRL</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2834,19 +2684,19 @@
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>PR972487</t>
+          <t>PR980733</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Amanda Silva De Andrade</t>
+          <t>Tiago Oliveira De Jesus</t>
         </is>
       </c>
       <c r="F31" s="3" t="n">
-        <v>46045.5625</v>
+        <v>46048.56319444445</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>46045.55902777778</v>
+        <v>46048.56111111111</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2855,17 +2705,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>OP26-093 RESISTENCIA SMS 380/220V 8.5KW</t>
+          <t>docksataion</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>$1,012.16 USD</t>
+          <t>R$1,522.68 BRL</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
+          <t>PNP_BR10 (Cameron Tecnologia de Con)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2874,282 +2724,6 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>PR972506</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Amanda Silva De Andrade</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>46045.57569444444</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>46045.56319444445</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>OP26-110 "N° PROPOSTA: VTP3744-25 MATERIAL PARA CORREÇÃO DE PENDÊNCIA LEVANTADA NA MANUTENÇAÕ PREVENTIVA DA MAP 03</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>$1,281.62 USD</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>PR972561</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>VITOR ARAUJO MOTTA</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>46045.58263888889</v>
-      </c>
-      <c r="G33" s="3" t="n">
-        <v>46045.575</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>URG SLSS/TLM/STEELFORM TEC LOG DEZ-25</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>$2,616.02 USD</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>PR972605</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Amanda Silva De Andrade</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>46045.59513888889</v>
-      </c>
-      <c r="G34" s="3" t="n">
-        <v>46045.58541666667</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>OP26-112 BM143 - PREVENTIVA MAP16 E MAP14</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>$1,751.18 USD</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>PR972715</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Liryel Aguiar Prado</t>
-        </is>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>46045.62222222222</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>46045.6125</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>PLUG MACHO P/CONEXAO 3/4" OD INOX FITOK</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>$142.54 USD</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>PR972794</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Evandro Luiz Sampaio</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>46045.62847222222</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>46045.62708333333</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>ETIQUETAS</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>$194.95 USD</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>PR972806</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Evandro Luiz Sampaio</t>
-        </is>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>46045.62986111111</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>46045.62916666667</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>ETIQUETAS</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>$194.95 USD</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>PNP_BR11 (OneSubsea do Brasil Servi)</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
